--- a/csv/svm/svm_pc15initanalysis.xlsx
+++ b/csv/svm/svm_pc15initanalysis.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet name="Best Perf." r:id="rId3" sheetId="1"/>
-    <sheet name="Best Par." r:id="rId4" sheetId="2"/>
-    <sheet name="Perf." r:id="rId5" sheetId="3"/>
+    <sheet name="Sel. Par." r:id="rId4" sheetId="2"/>
+    <sheet name="Best Par." r:id="rId5" sheetId="3"/>
+    <sheet name="Perf." r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="290">
   <si>
     <t>x</t>
   </si>
@@ -31,853 +32,853 @@
     <t>degree</t>
   </si>
   <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>linear</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>dispersion</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
     <t>polynomial</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>dispersion</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>linear</t>
   </si>
   <si>
     <t>radial</t>
@@ -945,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.19004329004329004</v>
+        <v>0.1854978354978355</v>
       </c>
     </row>
   </sheetData>
@@ -981,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
       <c r="D2" t="n">
         <v>1.0</v>
@@ -1011,6 +1012,45 @@
       <c r="D1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>3.0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1"/>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
       <c r="E1" t="s">
         <v>7</v>
       </c>
@@ -1023,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>1.0E-4</v>
@@ -1032,10 +1072,10 @@
         <v>1.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F2" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="3">
@@ -1043,7 +1083,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C3" t="n">
         <v>1.0E-4</v>
@@ -1052,10 +1092,10 @@
         <v>1.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F3" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="4">
@@ -1072,10 +1112,10 @@
         <v>1.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8603896103896104</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="F4" t="n">
-        <v>0.09629399577950316</v>
+        <v>0.07863364910771571</v>
       </c>
     </row>
     <row r="5">
@@ -1092,10 +1132,10 @@
         <v>1.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F5" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="6">
@@ -1103,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>0.001</v>
@@ -1112,10 +1152,10 @@
         <v>1.0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F6" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="7">
@@ -1123,7 +1163,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C7" t="n">
         <v>0.001</v>
@@ -1132,10 +1172,10 @@
         <v>1.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F7" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="8">
@@ -1152,10 +1192,10 @@
         <v>1.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8603896103896104</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09629399577950316</v>
+        <v>0.07863364910771571</v>
       </c>
     </row>
     <row r="9">
@@ -1172,10 +1212,10 @@
         <v>1.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F9" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="10">
@@ -1183,7 +1223,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>0.01</v>
@@ -1192,10 +1232,10 @@
         <v>1.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2545454545454546</v>
+        <v>0.22683982683982684</v>
       </c>
       <c r="F10" t="n">
-        <v>0.09038765687995713</v>
+        <v>0.07875800881016291</v>
       </c>
     </row>
     <row r="11">
@@ -1203,7 +1243,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C11" t="n">
         <v>0.01</v>
@@ -1212,10 +1252,10 @@
         <v>1.0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F11" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="12">
@@ -1232,10 +1272,10 @@
         <v>1.0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8603896103896104</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="F12" t="n">
-        <v>0.09629399577950316</v>
+        <v>0.07863364910771571</v>
       </c>
     </row>
     <row r="13">
@@ -1252,10 +1292,10 @@
         <v>1.0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F13" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="14">
@@ -1263,7 +1303,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C14" t="n">
         <v>0.1</v>
@@ -1272,10 +1312,10 @@
         <v>1.0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.22251082251082252</v>
+        <v>0.22705627705627704</v>
       </c>
       <c r="F14" t="n">
-        <v>0.08638626694253418</v>
+        <v>0.0923828073922993</v>
       </c>
     </row>
     <row r="15">
@@ -1283,7 +1323,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C15" t="n">
         <v>0.1</v>
@@ -1292,10 +1332,10 @@
         <v>1.0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.2772727272727273</v>
+        <v>0.26406926406926406</v>
       </c>
       <c r="F15" t="n">
-        <v>0.11547821341035376</v>
+        <v>0.07851439672770098</v>
       </c>
     </row>
     <row r="16">
@@ -1312,10 +1352,10 @@
         <v>1.0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8047619047619048</v>
+        <v>0.7816017316017316</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07731714305362841</v>
+        <v>0.0711287745580161</v>
       </c>
     </row>
     <row r="17">
@@ -1332,10 +1372,10 @@
         <v>1.0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.2772727272727273</v>
+        <v>0.29696969696969694</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1199491423358421</v>
+        <v>0.07493749768541451</v>
       </c>
     </row>
     <row r="18">
@@ -1343,7 +1383,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -1352,18 +1392,18 @@
         <v>1.0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2274891774891775</v>
+        <v>0.2183982683982684</v>
       </c>
       <c r="F18" t="n">
-        <v>0.08730128916028422</v>
+        <v>0.0846431362807338</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -1372,15 +1412,15 @@
         <v>1.0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.19004329004329004</v>
+        <v>0.22705627705627704</v>
       </c>
       <c r="F19" t="n">
-        <v>0.09830324873140137</v>
+        <v>0.0872714698864199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B20" t="s">
         <v>288</v>
@@ -1392,15 +1432,15 @@
         <v>1.0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.28744588744588745</v>
+        <v>0.31471861471861473</v>
       </c>
       <c r="F20" t="n">
-        <v>0.12143009330112686</v>
+        <v>0.07956291752700727</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
         <v>289</v>
@@ -1412,18 +1452,18 @@
         <v>1.0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.1906926406926407</v>
+        <v>0.2090909090909091</v>
       </c>
       <c r="F21" t="n">
-        <v>0.10642294615683508</v>
+        <v>0.06911509954191769</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C22" t="n">
         <v>2.0</v>
@@ -1432,18 +1472,18 @@
         <v>1.0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.22294372294372294</v>
+        <v>0.18571428571428572</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09401129483598382</v>
+        <v>0.08865244691549598</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C23" t="n">
         <v>2.0</v>
@@ -1452,15 +1492,15 @@
         <v>1.0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.21774891774891775</v>
+        <v>0.2038961038961039</v>
       </c>
       <c r="F23" t="n">
-        <v>0.08985045210848645</v>
+        <v>0.07718236896034095</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B24" t="s">
         <v>288</v>
@@ -1475,12 +1515,12 @@
         <v>0.29675324675324677</v>
       </c>
       <c r="F24" t="n">
-        <v>0.0936531837998789</v>
+        <v>0.07756350881190706</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B25" t="s">
         <v>289</v>
@@ -1492,18 +1532,18 @@
         <v>1.0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2318181818181818</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="F25" t="n">
-        <v>0.06994055469026886</v>
+        <v>0.08962886091353267</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C26" t="n">
         <v>3.0</v>
@@ -1512,10 +1552,10 @@
         <v>1.0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.22251082251082252</v>
+        <v>0.1854978354978355</v>
       </c>
       <c r="F26" t="n">
-        <v>0.102619623630979</v>
+        <v>0.08431408162309906</v>
       </c>
     </row>
     <row r="27">
@@ -1523,7 +1563,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C27" t="n">
         <v>3.0</v>
@@ -1532,10 +1572,10 @@
         <v>1.0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.21796536796536797</v>
+        <v>0.19480519480519481</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07929978948983372</v>
+        <v>0.07343729090908788</v>
       </c>
     </row>
     <row r="28">
@@ -1552,10 +1592,10 @@
         <v>1.0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.30173160173160174</v>
+        <v>0.2829004329004329</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1110417504316658</v>
+        <v>0.08382490894685597</v>
       </c>
     </row>
     <row r="29">
@@ -1572,10 +1612,10 @@
         <v>1.0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.21753246753246752</v>
+        <v>0.23225108225108226</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08427826425460809</v>
+        <v>0.08897043026304868</v>
       </c>
     </row>
     <row r="30">
@@ -1583,7 +1623,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C30" t="n">
         <v>4.0</v>
@@ -1592,10 +1632,10 @@
         <v>1.0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.2225108225108225</v>
+        <v>0.19025974025974027</v>
       </c>
       <c r="F30" t="n">
-        <v>0.10573764770170133</v>
+        <v>0.08595523680743995</v>
       </c>
     </row>
     <row r="31">
@@ -1603,7 +1643,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C31" t="n">
         <v>4.0</v>
@@ -1612,10 +1652,10 @@
         <v>1.0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.20887445887445888</v>
+        <v>0.22294372294372294</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08541940862630955</v>
+        <v>0.08367542211214432</v>
       </c>
     </row>
     <row r="32">
@@ -1632,10 +1672,10 @@
         <v>1.0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.296969696969697</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F32" t="n">
-        <v>0.108046027883845</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="33">
@@ -1652,10 +1692,10 @@
         <v>1.0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.23160173160173161</v>
+        <v>0.2222943722943723</v>
       </c>
       <c r="F33" t="n">
-        <v>0.08927970157724686</v>
+        <v>0.07437444176486062</v>
       </c>
     </row>
     <row r="34">
@@ -1663,7 +1703,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C34" t="n">
         <v>5.0</v>
@@ -1672,10 +1712,10 @@
         <v>1.0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.2225108225108225</v>
+        <v>0.20865800865800865</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09425903684858643</v>
+        <v>0.0955066396248308</v>
       </c>
     </row>
     <row r="35">
@@ -1683,7 +1723,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C35" t="n">
         <v>5.0</v>
@@ -1692,10 +1732,10 @@
         <v>1.0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.2274891774891775</v>
+        <v>0.22316017316017314</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07787830794631219</v>
+        <v>0.08173969528493416</v>
       </c>
     </row>
     <row r="36">
@@ -1712,10 +1752,10 @@
         <v>1.0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.3015151515151515</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F36" t="n">
-        <v>0.10571918424205543</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="37">
@@ -1732,10 +1772,10 @@
         <v>1.0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.24523809523809526</v>
+        <v>0.24545454545454545</v>
       </c>
       <c r="F37" t="n">
-        <v>0.06752144370502725</v>
+        <v>0.11010488703531818</v>
       </c>
     </row>
     <row r="38">
@@ -1743,7 +1783,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C38" t="n">
         <v>6.0</v>
@@ -1752,10 +1792,10 @@
         <v>1.0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.22705627705627707</v>
+        <v>0.2038961038961039</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09316834668060804</v>
+        <v>0.09237350942138092</v>
       </c>
     </row>
     <row r="39">
@@ -1763,7 +1803,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C39" t="n">
         <v>6.0</v>
@@ -1772,10 +1812,10 @@
         <v>1.0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.24134199134199136</v>
+        <v>0.2277056277056277</v>
       </c>
       <c r="F39" t="n">
-        <v>0.07275539722807757</v>
+        <v>0.0804387561028917</v>
       </c>
     </row>
     <row r="40">
@@ -1792,10 +1832,10 @@
         <v>1.0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3015151515151515</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F40" t="n">
-        <v>0.10571918424205543</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="41">
@@ -1812,10 +1852,10 @@
         <v>1.0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.25476190476190474</v>
+        <v>0.2636363636363636</v>
       </c>
       <c r="F41" t="n">
-        <v>0.06562920635743014</v>
+        <v>0.0904256598078871</v>
       </c>
     </row>
     <row r="42">
@@ -1823,7 +1863,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C42" t="n">
         <v>7.0</v>
@@ -1832,10 +1872,10 @@
         <v>1.0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.22705627705627704</v>
+        <v>0.2132034632034632</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09067085529774593</v>
+        <v>0.09493288143535906</v>
       </c>
     </row>
     <row r="43">
@@ -1843,7 +1883,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C43" t="n">
         <v>7.0</v>
@@ -1852,10 +1892,10 @@
         <v>1.0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.23658008658008658</v>
+        <v>0.237012987012987</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0710672716996661</v>
+        <v>0.0709587798191093</v>
       </c>
     </row>
     <row r="44">
@@ -1872,10 +1912,10 @@
         <v>1.0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.30627705627705626</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F44" t="n">
-        <v>0.1106521978495255</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="45">
@@ -1892,10 +1932,10 @@
         <v>1.0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.25497835497835497</v>
+        <v>0.25367965367965367</v>
       </c>
       <c r="F45" t="n">
-        <v>0.06337553257379573</v>
+        <v>0.11220577317526258</v>
       </c>
     </row>
     <row r="46">
@@ -1903,7 +1943,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C46" t="n">
         <v>8.0</v>
@@ -1912,10 +1952,10 @@
         <v>1.0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.23658008658008656</v>
+        <v>0.2132034632034632</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09140050192597497</v>
+        <v>0.09493288143535906</v>
       </c>
     </row>
     <row r="47">
@@ -1923,7 +1963,7 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C47" t="n">
         <v>8.0</v>
@@ -1932,10 +1972,10 @@
         <v>1.0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.23181818181818184</v>
+        <v>0.2461038961038961</v>
       </c>
       <c r="F47" t="n">
-        <v>0.06897373312553094</v>
+        <v>0.07215043289953103</v>
       </c>
     </row>
     <row r="48">
@@ -1952,10 +1992,10 @@
         <v>1.0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.31125541125541123</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F48" t="n">
-        <v>0.11773423924580445</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="49">
@@ -1972,10 +2012,10 @@
         <v>1.0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.2597402597402597</v>
+        <v>0.24134199134199136</v>
       </c>
       <c r="F49" t="n">
-        <v>0.08257953205093506</v>
+        <v>0.09942190932358531</v>
       </c>
     </row>
     <row r="50">
@@ -1983,7 +2023,7 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C50" t="n">
         <v>9.0</v>
@@ -1992,10 +2032,10 @@
         <v>1.0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.25086580086580085</v>
+        <v>0.21774891774891775</v>
       </c>
       <c r="F50" t="n">
-        <v>0.09969484871918301</v>
+        <v>0.08935080781965954</v>
       </c>
     </row>
     <row r="51">
@@ -2003,7 +2043,7 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C51" t="n">
         <v>9.0</v>
@@ -2012,10 +2052,10 @@
         <v>1.0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.22251082251082252</v>
+        <v>0.23246753246753246</v>
       </c>
       <c r="F51" t="n">
-        <v>0.08061975581508268</v>
+        <v>0.08196070359634032</v>
       </c>
     </row>
     <row r="52">
@@ -2032,10 +2072,10 @@
         <v>1.0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.31601731601731603</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F52" t="n">
-        <v>0.12583104967729664</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="53">
@@ -2052,10 +2092,10 @@
         <v>1.0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.24112554112554113</v>
+        <v>0.26883116883116887</v>
       </c>
       <c r="F53" t="n">
-        <v>0.08688139010538647</v>
+        <v>0.10761637364107829</v>
       </c>
     </row>
     <row r="54">
@@ -2063,7 +2103,7 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C54" t="n">
         <v>10.0</v>
@@ -2072,10 +2112,10 @@
         <v>1.0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.24632034632034633</v>
+        <v>0.2225108225108225</v>
       </c>
       <c r="F54" t="n">
-        <v>0.09245237160275276</v>
+        <v>0.09179122618665676</v>
       </c>
     </row>
     <row r="55">
@@ -2083,7 +2123,7 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C55" t="n">
         <v>10.0</v>
@@ -2092,10 +2132,10 @@
         <v>1.0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.22251082251082252</v>
+        <v>0.2277056277056277</v>
       </c>
       <c r="F55" t="n">
-        <v>0.08061975581508268</v>
+        <v>0.07988026412892496</v>
       </c>
     </row>
     <row r="56">
@@ -2112,10 +2152,10 @@
         <v>1.0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.31601731601731603</v>
+        <v>0.2829004329004329</v>
       </c>
       <c r="F56" t="n">
-        <v>0.12583104967729664</v>
+        <v>0.06812777964978076</v>
       </c>
     </row>
     <row r="57">
@@ -2132,10 +2172,10 @@
         <v>1.0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.27316017316017316</v>
+        <v>0.2686147186147186</v>
       </c>
       <c r="F57" t="n">
-        <v>0.11773866067426865</v>
+        <v>0.10021045051681858</v>
       </c>
     </row>
     <row r="58">
@@ -2143,7 +2183,7 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C58" t="n">
         <v>1.0E-4</v>
@@ -2152,10 +2192,10 @@
         <v>2.0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F58" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="59">
@@ -2163,7 +2203,7 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C59" t="n">
         <v>1.0E-4</v>
@@ -2172,10 +2212,10 @@
         <v>2.0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9019480519480519</v>
+        <v>0.9119047619047619</v>
       </c>
       <c r="F59" t="n">
-        <v>0.06166235751829365</v>
+        <v>0.03452740930055125</v>
       </c>
     </row>
     <row r="60">
@@ -2192,10 +2232,10 @@
         <v>2.0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8603896103896104</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="F60" t="n">
-        <v>0.09629399577950316</v>
+        <v>0.07863364910771571</v>
       </c>
     </row>
     <row r="61">
@@ -2212,10 +2252,10 @@
         <v>2.0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F61" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="62">
@@ -2223,7 +2263,7 @@
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C62" t="n">
         <v>0.001</v>
@@ -2232,10 +2272,10 @@
         <v>2.0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F62" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="63">
@@ -2243,7 +2283,7 @@
         <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C63" t="n">
         <v>0.001</v>
@@ -2252,10 +2292,10 @@
         <v>2.0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9019480519480519</v>
+        <v>0.9119047619047619</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06166235751829365</v>
+        <v>0.03452740930055125</v>
       </c>
     </row>
     <row r="64">
@@ -2272,10 +2312,10 @@
         <v>2.0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8603896103896104</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="F64" t="n">
-        <v>0.09629399577950316</v>
+        <v>0.07863364910771571</v>
       </c>
     </row>
     <row r="65">
@@ -2292,10 +2332,10 @@
         <v>2.0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F65" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="66">
@@ -2303,7 +2343,7 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C66" t="n">
         <v>0.01</v>
@@ -2312,10 +2352,10 @@
         <v>2.0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.2545454545454546</v>
+        <v>0.22683982683982684</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09038765687995713</v>
+        <v>0.07875800881016291</v>
       </c>
     </row>
     <row r="67">
@@ -2323,7 +2363,7 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C67" t="n">
         <v>0.01</v>
@@ -2332,10 +2372,10 @@
         <v>2.0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9019480519480519</v>
+        <v>0.9119047619047619</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06166235751829365</v>
+        <v>0.03452740930055125</v>
       </c>
     </row>
     <row r="68">
@@ -2352,10 +2392,10 @@
         <v>2.0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8603896103896104</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09629399577950316</v>
+        <v>0.07863364910771571</v>
       </c>
     </row>
     <row r="69">
@@ -2372,10 +2412,10 @@
         <v>2.0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F69" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="70">
@@ -2383,7 +2423,7 @@
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C70" t="n">
         <v>0.1</v>
@@ -2392,10 +2432,10 @@
         <v>2.0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.22251082251082252</v>
+        <v>0.22705627705627704</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08638626694253418</v>
+        <v>0.0923828073922993</v>
       </c>
     </row>
     <row r="71">
@@ -2403,7 +2443,7 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C71" t="n">
         <v>0.1</v>
@@ -2412,10 +2452,10 @@
         <v>2.0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9019480519480519</v>
+        <v>0.9119047619047619</v>
       </c>
       <c r="F71" t="n">
-        <v>0.06166235751829365</v>
+        <v>0.03452740930055125</v>
       </c>
     </row>
     <row r="72">
@@ -2432,10 +2472,10 @@
         <v>2.0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.8047619047619048</v>
+        <v>0.7816017316017316</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07731714305362841</v>
+        <v>0.0711287745580161</v>
       </c>
     </row>
     <row r="73">
@@ -2452,10 +2492,10 @@
         <v>2.0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.2772727272727273</v>
+        <v>0.29696969696969694</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1199491423358421</v>
+        <v>0.07493749768541451</v>
       </c>
     </row>
     <row r="74">
@@ -2463,7 +2503,7 @@
         <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C74" t="n">
         <v>1.0</v>
@@ -2472,10 +2512,10 @@
         <v>2.0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2274891774891775</v>
+        <v>0.2183982683982684</v>
       </c>
       <c r="F74" t="n">
-        <v>0.08730128916028422</v>
+        <v>0.0846431362807338</v>
       </c>
     </row>
     <row r="75">
@@ -2483,7 +2523,7 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C75" t="n">
         <v>1.0</v>
@@ -2492,10 +2532,10 @@
         <v>2.0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5006493506493507</v>
+        <v>0.4590909090909091</v>
       </c>
       <c r="F75" t="n">
-        <v>0.08338906702434705</v>
+        <v>0.12925721168415258</v>
       </c>
     </row>
     <row r="76">
@@ -2512,10 +2552,10 @@
         <v>2.0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.28744588744588745</v>
+        <v>0.31471861471861473</v>
       </c>
       <c r="F76" t="n">
-        <v>0.12143009330112686</v>
+        <v>0.07956291752700727</v>
       </c>
     </row>
     <row r="77">
@@ -2532,10 +2572,10 @@
         <v>2.0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.1906926406926407</v>
+        <v>0.2090909090909091</v>
       </c>
       <c r="F77" t="n">
-        <v>0.10642294615683508</v>
+        <v>0.06911509954191769</v>
       </c>
     </row>
     <row r="78">
@@ -2543,7 +2583,7 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C78" t="n">
         <v>2.0</v>
@@ -2552,10 +2592,10 @@
         <v>2.0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.22294372294372294</v>
+        <v>0.18571428571428572</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09401129483598382</v>
+        <v>0.08865244691549598</v>
       </c>
     </row>
     <row r="79">
@@ -2563,7 +2603,7 @@
         <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C79" t="n">
         <v>2.0</v>
@@ -2572,10 +2612,10 @@
         <v>2.0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.44567099567099566</v>
+        <v>0.4588744588744589</v>
       </c>
       <c r="F79" t="n">
-        <v>0.08911307956635188</v>
+        <v>0.11706112965285463</v>
       </c>
     </row>
     <row r="80">
@@ -2595,7 +2635,7 @@
         <v>0.29675324675324677</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0936531837998789</v>
+        <v>0.07756350881190706</v>
       </c>
     </row>
     <row r="81">
@@ -2612,10 +2652,10 @@
         <v>2.0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2318181818181818</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="F81" t="n">
-        <v>0.06994055469026886</v>
+        <v>0.08962886091353267</v>
       </c>
     </row>
     <row r="82">
@@ -2623,7 +2663,7 @@
         <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C82" t="n">
         <v>3.0</v>
@@ -2632,10 +2672,10 @@
         <v>2.0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.22251082251082252</v>
+        <v>0.1854978354978355</v>
       </c>
       <c r="F82" t="n">
-        <v>0.102619623630979</v>
+        <v>0.08431408162309906</v>
       </c>
     </row>
     <row r="83">
@@ -2643,7 +2683,7 @@
         <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C83" t="n">
         <v>3.0</v>
@@ -2652,10 +2692,10 @@
         <v>2.0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4318181818181818</v>
+        <v>0.4448051948051948</v>
       </c>
       <c r="F83" t="n">
-        <v>0.09410123199884195</v>
+        <v>0.12393967030855532</v>
       </c>
     </row>
     <row r="84">
@@ -2672,10 +2712,10 @@
         <v>2.0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.30173160173160174</v>
+        <v>0.2829004329004329</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1110417504316658</v>
+        <v>0.08382490894685597</v>
       </c>
     </row>
     <row r="85">
@@ -2692,10 +2732,10 @@
         <v>2.0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.21753246753246752</v>
+        <v>0.23225108225108226</v>
       </c>
       <c r="F85" t="n">
-        <v>0.08427826425460809</v>
+        <v>0.08897043026304868</v>
       </c>
     </row>
     <row r="86">
@@ -2703,7 +2743,7 @@
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C86" t="n">
         <v>4.0</v>
@@ -2712,10 +2752,10 @@
         <v>2.0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.2225108225108225</v>
+        <v>0.19025974025974027</v>
       </c>
       <c r="F86" t="n">
-        <v>0.10573764770170133</v>
+        <v>0.08595523680743995</v>
       </c>
     </row>
     <row r="87">
@@ -2723,7 +2763,7 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C87" t="n">
         <v>4.0</v>
@@ -2732,10 +2772,10 @@
         <v>2.0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4409090909090909</v>
+        <v>0.4257575757575758</v>
       </c>
       <c r="F87" t="n">
-        <v>0.10732211065658535</v>
+        <v>0.11008053573253346</v>
       </c>
     </row>
     <row r="88">
@@ -2752,10 +2792,10 @@
         <v>2.0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.296969696969697</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F88" t="n">
-        <v>0.108046027883845</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="89">
@@ -2772,10 +2812,10 @@
         <v>2.0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.23160173160173161</v>
+        <v>0.2222943722943723</v>
       </c>
       <c r="F89" t="n">
-        <v>0.08927970157724686</v>
+        <v>0.07437444176486062</v>
       </c>
     </row>
     <row r="90">
@@ -2783,7 +2823,7 @@
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C90" t="n">
         <v>5.0</v>
@@ -2792,10 +2832,10 @@
         <v>2.0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.2225108225108225</v>
+        <v>0.20865800865800865</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09425903684858643</v>
+        <v>0.0955066396248308</v>
       </c>
     </row>
     <row r="91">
@@ -2803,7 +2843,7 @@
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C91" t="n">
         <v>5.0</v>
@@ -2812,10 +2852,10 @@
         <v>2.0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.44545454545454544</v>
+        <v>0.4303030303030303</v>
       </c>
       <c r="F91" t="n">
-        <v>0.11364403648023567</v>
+        <v>0.10835874385264438</v>
       </c>
     </row>
     <row r="92">
@@ -2832,10 +2872,10 @@
         <v>2.0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.3015151515151515</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F92" t="n">
-        <v>0.10571918424205543</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="93">
@@ -2852,10 +2892,10 @@
         <v>2.0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.24523809523809526</v>
+        <v>0.24545454545454545</v>
       </c>
       <c r="F93" t="n">
-        <v>0.06752144370502725</v>
+        <v>0.11010488703531818</v>
       </c>
     </row>
     <row r="94">
@@ -2863,7 +2903,7 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C94" t="n">
         <v>6.0</v>
@@ -2872,10 +2912,10 @@
         <v>2.0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.22705627705627707</v>
+        <v>0.2038961038961039</v>
       </c>
       <c r="F94" t="n">
-        <v>0.09316834668060804</v>
+        <v>0.09237350942138092</v>
       </c>
     </row>
     <row r="95">
@@ -2883,7 +2923,7 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C95" t="n">
         <v>6.0</v>
@@ -2892,10 +2932,10 @@
         <v>2.0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.44523809523809527</v>
+        <v>0.4448051948051948</v>
       </c>
       <c r="F95" t="n">
-        <v>0.12283769622110768</v>
+        <v>0.10960282290009943</v>
       </c>
     </row>
     <row r="96">
@@ -2912,10 +2952,10 @@
         <v>2.0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.3015151515151515</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F96" t="n">
-        <v>0.10571918424205543</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="97">
@@ -2932,10 +2972,10 @@
         <v>2.0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.25476190476190474</v>
+        <v>0.2636363636363636</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06562920635743014</v>
+        <v>0.0904256598078871</v>
       </c>
     </row>
     <row r="98">
@@ -2943,7 +2983,7 @@
         <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C98" t="n">
         <v>7.0</v>
@@ -2952,10 +2992,10 @@
         <v>2.0</v>
       </c>
       <c r="E98" t="n">
-        <v>0.22705627705627704</v>
+        <v>0.2132034632034632</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09067085529774593</v>
+        <v>0.09493288143535906</v>
       </c>
     </row>
     <row r="99">
@@ -2963,7 +3003,7 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C99" t="n">
         <v>7.0</v>
@@ -2972,10 +3012,10 @@
         <v>2.0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.44025974025974024</v>
+        <v>0.4538961038961039</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1020723367711029</v>
+        <v>0.09189466668406869</v>
       </c>
     </row>
     <row r="100">
@@ -2992,10 +3032,10 @@
         <v>2.0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.30627705627705626</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1106521978495255</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="101">
@@ -3012,10 +3052,10 @@
         <v>2.0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.25497835497835497</v>
+        <v>0.25367965367965367</v>
       </c>
       <c r="F101" t="n">
-        <v>0.06337553257379573</v>
+        <v>0.11220577317526258</v>
       </c>
     </row>
     <row r="102">
@@ -3023,7 +3063,7 @@
         <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C102" t="n">
         <v>8.0</v>
@@ -3032,10 +3072,10 @@
         <v>2.0</v>
       </c>
       <c r="E102" t="n">
-        <v>0.23658008658008656</v>
+        <v>0.2132034632034632</v>
       </c>
       <c r="F102" t="n">
-        <v>0.09140050192597497</v>
+        <v>0.09493288143535906</v>
       </c>
     </row>
     <row r="103">
@@ -3043,7 +3083,7 @@
         <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C103" t="n">
         <v>8.0</v>
@@ -3055,7 +3095,7 @@
         <v>0.44935064935064933</v>
       </c>
       <c r="F103" t="n">
-        <v>0.10077895631125534</v>
+        <v>0.08789999199208981</v>
       </c>
     </row>
     <row r="104">
@@ -3072,10 +3112,10 @@
         <v>2.0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.31125541125541123</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F104" t="n">
-        <v>0.11773423924580445</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="105">
@@ -3092,10 +3132,10 @@
         <v>2.0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.2597402597402597</v>
+        <v>0.24134199134199136</v>
       </c>
       <c r="F105" t="n">
-        <v>0.08257953205093506</v>
+        <v>0.09942190932358531</v>
       </c>
     </row>
     <row r="106">
@@ -3103,7 +3143,7 @@
         <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C106" t="n">
         <v>9.0</v>
@@ -3112,10 +3152,10 @@
         <v>2.0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.25086580086580085</v>
+        <v>0.21774891774891775</v>
       </c>
       <c r="F106" t="n">
-        <v>0.09969484871918301</v>
+        <v>0.08935080781965954</v>
       </c>
     </row>
     <row r="107">
@@ -3123,7 +3163,7 @@
         <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C107" t="n">
         <v>9.0</v>
@@ -3132,10 +3172,10 @@
         <v>2.0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.44935064935064933</v>
+        <v>0.4536796536796537</v>
       </c>
       <c r="F107" t="n">
-        <v>0.10077895631125534</v>
+        <v>0.08581431431635235</v>
       </c>
     </row>
     <row r="108">
@@ -3152,10 +3192,10 @@
         <v>2.0</v>
       </c>
       <c r="E108" t="n">
-        <v>0.31601731601731603</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F108" t="n">
-        <v>0.12583104967729664</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="109">
@@ -3172,10 +3212,10 @@
         <v>2.0</v>
       </c>
       <c r="E109" t="n">
-        <v>0.24112554112554113</v>
+        <v>0.26883116883116887</v>
       </c>
       <c r="F109" t="n">
-        <v>0.08688139010538647</v>
+        <v>0.10761637364107829</v>
       </c>
     </row>
     <row r="110">
@@ -3183,7 +3223,7 @@
         <v>115</v>
       </c>
       <c r="B110" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C110" t="n">
         <v>10.0</v>
@@ -3192,10 +3232,10 @@
         <v>2.0</v>
       </c>
       <c r="E110" t="n">
-        <v>0.24632034632034633</v>
+        <v>0.2225108225108225</v>
       </c>
       <c r="F110" t="n">
-        <v>0.09245237160275276</v>
+        <v>0.09179122618665676</v>
       </c>
     </row>
     <row r="111">
@@ -3203,7 +3243,7 @@
         <v>116</v>
       </c>
       <c r="B111" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C111" t="n">
         <v>10.0</v>
@@ -3212,10 +3252,10 @@
         <v>2.0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.44935064935064933</v>
+        <v>0.4582251082251082</v>
       </c>
       <c r="F111" t="n">
-        <v>0.10077895631125534</v>
+        <v>0.09464071028602929</v>
       </c>
     </row>
     <row r="112">
@@ -3232,10 +3272,10 @@
         <v>2.0</v>
       </c>
       <c r="E112" t="n">
-        <v>0.31601731601731603</v>
+        <v>0.2829004329004329</v>
       </c>
       <c r="F112" t="n">
-        <v>0.12583104967729664</v>
+        <v>0.06812777964978076</v>
       </c>
     </row>
     <row r="113">
@@ -3252,10 +3292,10 @@
         <v>2.0</v>
       </c>
       <c r="E113" t="n">
-        <v>0.27316017316017316</v>
+        <v>0.2686147186147186</v>
       </c>
       <c r="F113" t="n">
-        <v>0.11773866067426865</v>
+        <v>0.10021045051681858</v>
       </c>
     </row>
     <row r="114">
@@ -3263,7 +3303,7 @@
         <v>119</v>
       </c>
       <c r="B114" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C114" t="n">
         <v>1.0E-4</v>
@@ -3272,10 +3312,10 @@
         <v>3.0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F114" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="115">
@@ -3283,7 +3323,7 @@
         <v>120</v>
       </c>
       <c r="B115" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C115" t="n">
         <v>1.0E-4</v>
@@ -3292,10 +3332,10 @@
         <v>3.0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9021645021645022</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="F115" t="n">
-        <v>0.061134574546394545</v>
+        <v>0.028972544019136025</v>
       </c>
     </row>
     <row r="116">
@@ -3312,10 +3352,10 @@
         <v>3.0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.8603896103896104</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="F116" t="n">
-        <v>0.09629399577950316</v>
+        <v>0.07863364910771571</v>
       </c>
     </row>
     <row r="117">
@@ -3332,10 +3372,10 @@
         <v>3.0</v>
       </c>
       <c r="E117" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F117" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="118">
@@ -3343,7 +3383,7 @@
         <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C118" t="n">
         <v>0.001</v>
@@ -3352,10 +3392,10 @@
         <v>3.0</v>
       </c>
       <c r="E118" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F118" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="119">
@@ -3363,7 +3403,7 @@
         <v>124</v>
       </c>
       <c r="B119" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C119" t="n">
         <v>0.001</v>
@@ -3372,10 +3412,10 @@
         <v>3.0</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9021645021645022</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="F119" t="n">
-        <v>0.061134574546394545</v>
+        <v>0.028972544019136025</v>
       </c>
     </row>
     <row r="120">
@@ -3392,10 +3432,10 @@
         <v>3.0</v>
       </c>
       <c r="E120" t="n">
-        <v>0.8603896103896104</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="F120" t="n">
-        <v>0.09629399577950316</v>
+        <v>0.07863364910771571</v>
       </c>
     </row>
     <row r="121">
@@ -3412,10 +3452,10 @@
         <v>3.0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F121" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="122">
@@ -3423,7 +3463,7 @@
         <v>127</v>
       </c>
       <c r="B122" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C122" t="n">
         <v>0.01</v>
@@ -3432,10 +3472,10 @@
         <v>3.0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.2545454545454546</v>
+        <v>0.22683982683982684</v>
       </c>
       <c r="F122" t="n">
-        <v>0.09038765687995713</v>
+        <v>0.07875800881016291</v>
       </c>
     </row>
     <row r="123">
@@ -3443,7 +3483,7 @@
         <v>128</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C123" t="n">
         <v>0.01</v>
@@ -3452,10 +3492,10 @@
         <v>3.0</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9021645021645022</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="F123" t="n">
-        <v>0.061134574546394545</v>
+        <v>0.028972544019136025</v>
       </c>
     </row>
     <row r="124">
@@ -3472,10 +3512,10 @@
         <v>3.0</v>
       </c>
       <c r="E124" t="n">
-        <v>0.8603896103896104</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="F124" t="n">
-        <v>0.09629399577950316</v>
+        <v>0.07863364910771571</v>
       </c>
     </row>
     <row r="125">
@@ -3492,10 +3532,10 @@
         <v>3.0</v>
       </c>
       <c r="E125" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F125" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="126">
@@ -3503,7 +3543,7 @@
         <v>131</v>
       </c>
       <c r="B126" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C126" t="n">
         <v>0.1</v>
@@ -3512,10 +3552,10 @@
         <v>3.0</v>
       </c>
       <c r="E126" t="n">
-        <v>0.22251082251082252</v>
+        <v>0.22705627705627704</v>
       </c>
       <c r="F126" t="n">
-        <v>0.08638626694253418</v>
+        <v>0.0923828073922993</v>
       </c>
     </row>
     <row r="127">
@@ -3523,7 +3563,7 @@
         <v>132</v>
       </c>
       <c r="B127" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C127" t="n">
         <v>0.1</v>
@@ -3532,10 +3572,10 @@
         <v>3.0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8978354978354979</v>
+        <v>0.8937229437229437</v>
       </c>
       <c r="F127" t="n">
-        <v>0.065690649700841</v>
+        <v>0.04765674750603418</v>
       </c>
     </row>
     <row r="128">
@@ -3552,10 +3592,10 @@
         <v>3.0</v>
       </c>
       <c r="E128" t="n">
-        <v>0.8047619047619048</v>
+        <v>0.7816017316017316</v>
       </c>
       <c r="F128" t="n">
-        <v>0.07731714305362841</v>
+        <v>0.0711287745580161</v>
       </c>
     </row>
     <row r="129">
@@ -3572,10 +3612,10 @@
         <v>3.0</v>
       </c>
       <c r="E129" t="n">
-        <v>0.2772727272727273</v>
+        <v>0.29696969696969694</v>
       </c>
       <c r="F129" t="n">
-        <v>0.1199491423358421</v>
+        <v>0.07493749768541451</v>
       </c>
     </row>
     <row r="130">
@@ -3583,7 +3623,7 @@
         <v>135</v>
       </c>
       <c r="B130" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C130" t="n">
         <v>1.0</v>
@@ -3592,10 +3632,10 @@
         <v>3.0</v>
       </c>
       <c r="E130" t="n">
-        <v>0.2274891774891775</v>
+        <v>0.2183982683982684</v>
       </c>
       <c r="F130" t="n">
-        <v>0.08730128916028422</v>
+        <v>0.0846431362807338</v>
       </c>
     </row>
     <row r="131">
@@ -3603,7 +3643,7 @@
         <v>136</v>
       </c>
       <c r="B131" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C131" t="n">
         <v>1.0</v>
@@ -3612,10 +3652,10 @@
         <v>3.0</v>
       </c>
       <c r="E131" t="n">
-        <v>0.37943722943722946</v>
+        <v>0.37554112554112556</v>
       </c>
       <c r="F131" t="n">
-        <v>0.10826863001768228</v>
+        <v>0.12070536721157755</v>
       </c>
     </row>
     <row r="132">
@@ -3632,10 +3672,10 @@
         <v>3.0</v>
       </c>
       <c r="E132" t="n">
-        <v>0.28744588744588745</v>
+        <v>0.31471861471861473</v>
       </c>
       <c r="F132" t="n">
-        <v>0.12143009330112686</v>
+        <v>0.07956291752700727</v>
       </c>
     </row>
     <row r="133">
@@ -3652,10 +3692,10 @@
         <v>3.0</v>
       </c>
       <c r="E133" t="n">
-        <v>0.1906926406926407</v>
+        <v>0.2090909090909091</v>
       </c>
       <c r="F133" t="n">
-        <v>0.10642294615683508</v>
+        <v>0.06911509954191769</v>
       </c>
     </row>
     <row r="134">
@@ -3663,7 +3703,7 @@
         <v>139</v>
       </c>
       <c r="B134" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -3672,10 +3712,10 @@
         <v>3.0</v>
       </c>
       <c r="E134" t="n">
-        <v>0.22294372294372294</v>
+        <v>0.18571428571428572</v>
       </c>
       <c r="F134" t="n">
-        <v>0.09401129483598382</v>
+        <v>0.08865244691549598</v>
       </c>
     </row>
     <row r="135">
@@ -3683,7 +3723,7 @@
         <v>140</v>
       </c>
       <c r="B135" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C135" t="n">
         <v>2.0</v>
@@ -3692,10 +3732,10 @@
         <v>3.0</v>
       </c>
       <c r="E135" t="n">
-        <v>0.36168831168831167</v>
+        <v>0.34350649350649354</v>
       </c>
       <c r="F135" t="n">
-        <v>0.11778573859118752</v>
+        <v>0.11548993333430005</v>
       </c>
     </row>
     <row r="136">
@@ -3715,7 +3755,7 @@
         <v>0.29675324675324677</v>
       </c>
       <c r="F136" t="n">
-        <v>0.0936531837998789</v>
+        <v>0.07756350881190706</v>
       </c>
     </row>
     <row r="137">
@@ -3732,10 +3772,10 @@
         <v>3.0</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2318181818181818</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="F137" t="n">
-        <v>0.06994055469026886</v>
+        <v>0.08962886091353267</v>
       </c>
     </row>
     <row r="138">
@@ -3743,7 +3783,7 @@
         <v>143</v>
       </c>
       <c r="B138" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -3752,10 +3792,10 @@
         <v>3.0</v>
       </c>
       <c r="E138" t="n">
-        <v>0.22251082251082252</v>
+        <v>0.1854978354978355</v>
       </c>
       <c r="F138" t="n">
-        <v>0.102619623630979</v>
+        <v>0.08431408162309906</v>
       </c>
     </row>
     <row r="139">
@@ -3763,7 +3803,7 @@
         <v>144</v>
       </c>
       <c r="B139" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C139" t="n">
         <v>3.0</v>
@@ -3772,10 +3812,10 @@
         <v>3.0</v>
       </c>
       <c r="E139" t="n">
-        <v>0.3476190476190476</v>
+        <v>0.33874458874458874</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0934347612909698</v>
+        <v>0.08985074179119797</v>
       </c>
     </row>
     <row r="140">
@@ -3792,10 +3832,10 @@
         <v>3.0</v>
       </c>
       <c r="E140" t="n">
-        <v>0.30173160173160174</v>
+        <v>0.2829004329004329</v>
       </c>
       <c r="F140" t="n">
-        <v>0.1110417504316658</v>
+        <v>0.08382490894685597</v>
       </c>
     </row>
     <row r="141">
@@ -3812,10 +3852,10 @@
         <v>3.0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.21753246753246752</v>
+        <v>0.23225108225108226</v>
       </c>
       <c r="F141" t="n">
-        <v>0.08427826425460809</v>
+        <v>0.08897043026304868</v>
       </c>
     </row>
     <row r="142">
@@ -3823,7 +3863,7 @@
         <v>147</v>
       </c>
       <c r="B142" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C142" t="n">
         <v>4.0</v>
@@ -3832,10 +3872,10 @@
         <v>3.0</v>
       </c>
       <c r="E142" t="n">
-        <v>0.2225108225108225</v>
+        <v>0.19025974025974027</v>
       </c>
       <c r="F142" t="n">
-        <v>0.10573764770170133</v>
+        <v>0.08595523680743995</v>
       </c>
     </row>
     <row r="143">
@@ -3843,7 +3883,7 @@
         <v>148</v>
       </c>
       <c r="B143" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C143" t="n">
         <v>4.0</v>
@@ -3852,10 +3892,10 @@
         <v>3.0</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3246753246753247</v>
+        <v>0.3294372294372295</v>
       </c>
       <c r="F143" t="n">
-        <v>0.0857463464170019</v>
+        <v>0.08758317436995074</v>
       </c>
     </row>
     <row r="144">
@@ -3872,10 +3912,10 @@
         <v>3.0</v>
       </c>
       <c r="E144" t="n">
-        <v>0.296969696969697</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F144" t="n">
-        <v>0.108046027883845</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="145">
@@ -3892,10 +3932,10 @@
         <v>3.0</v>
       </c>
       <c r="E145" t="n">
-        <v>0.23160173160173161</v>
+        <v>0.2222943722943723</v>
       </c>
       <c r="F145" t="n">
-        <v>0.08927970157724686</v>
+        <v>0.07437444176486062</v>
       </c>
     </row>
     <row r="146">
@@ -3903,7 +3943,7 @@
         <v>151</v>
       </c>
       <c r="B146" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C146" t="n">
         <v>5.0</v>
@@ -3912,10 +3952,10 @@
         <v>3.0</v>
       </c>
       <c r="E146" t="n">
-        <v>0.2225108225108225</v>
+        <v>0.20865800865800865</v>
       </c>
       <c r="F146" t="n">
-        <v>0.09425903684858643</v>
+        <v>0.0955066396248308</v>
       </c>
     </row>
     <row r="147">
@@ -3923,7 +3963,7 @@
         <v>152</v>
       </c>
       <c r="B147" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C147" t="n">
         <v>5.0</v>
@@ -3932,10 +3972,10 @@
         <v>3.0</v>
       </c>
       <c r="E147" t="n">
-        <v>0.3242424242424243</v>
+        <v>0.3246753246753247</v>
       </c>
       <c r="F147" t="n">
-        <v>0.09149016065124502</v>
+        <v>0.09094344159647176</v>
       </c>
     </row>
     <row r="148">
@@ -3952,10 +3992,10 @@
         <v>3.0</v>
       </c>
       <c r="E148" t="n">
-        <v>0.3015151515151515</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F148" t="n">
-        <v>0.10571918424205543</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="149">
@@ -3972,10 +4012,10 @@
         <v>3.0</v>
       </c>
       <c r="E149" t="n">
-        <v>0.24523809523809526</v>
+        <v>0.24545454545454545</v>
       </c>
       <c r="F149" t="n">
-        <v>0.06752144370502725</v>
+        <v>0.11010488703531818</v>
       </c>
     </row>
     <row r="150">
@@ -3983,7 +4023,7 @@
         <v>155</v>
       </c>
       <c r="B150" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C150" t="n">
         <v>6.0</v>
@@ -3992,10 +4032,10 @@
         <v>3.0</v>
       </c>
       <c r="E150" t="n">
-        <v>0.22705627705627707</v>
+        <v>0.2038961038961039</v>
       </c>
       <c r="F150" t="n">
-        <v>0.09316834668060804</v>
+        <v>0.09237350942138092</v>
       </c>
     </row>
     <row r="151">
@@ -4003,7 +4043,7 @@
         <v>156</v>
       </c>
       <c r="B151" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C151" t="n">
         <v>6.0</v>
@@ -4012,10 +4052,10 @@
         <v>3.0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.3196969696969697</v>
+        <v>0.32922077922077925</v>
       </c>
       <c r="F151" t="n">
-        <v>0.09043861170153926</v>
+        <v>0.1014546494701278</v>
       </c>
     </row>
     <row r="152">
@@ -4032,10 +4072,10 @@
         <v>3.0</v>
       </c>
       <c r="E152" t="n">
-        <v>0.3015151515151515</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F152" t="n">
-        <v>0.10571918424205543</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="153">
@@ -4052,10 +4092,10 @@
         <v>3.0</v>
       </c>
       <c r="E153" t="n">
-        <v>0.25476190476190474</v>
+        <v>0.2636363636363636</v>
       </c>
       <c r="F153" t="n">
-        <v>0.06562920635743014</v>
+        <v>0.0904256598078871</v>
       </c>
     </row>
     <row r="154">
@@ -4063,7 +4103,7 @@
         <v>159</v>
       </c>
       <c r="B154" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C154" t="n">
         <v>7.0</v>
@@ -4072,10 +4112,10 @@
         <v>3.0</v>
       </c>
       <c r="E154" t="n">
-        <v>0.22705627705627704</v>
+        <v>0.2132034632034632</v>
       </c>
       <c r="F154" t="n">
-        <v>0.09067085529774593</v>
+        <v>0.09493288143535906</v>
       </c>
     </row>
     <row r="155">
@@ -4083,7 +4123,7 @@
         <v>160</v>
       </c>
       <c r="B155" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C155" t="n">
         <v>7.0</v>
@@ -4092,10 +4132,10 @@
         <v>3.0</v>
       </c>
       <c r="E155" t="n">
-        <v>0.3244588744588745</v>
+        <v>0.32445887445887445</v>
       </c>
       <c r="F155" t="n">
-        <v>0.08970114121128239</v>
+        <v>0.09730608226602705</v>
       </c>
     </row>
     <row r="156">
@@ -4112,10 +4152,10 @@
         <v>3.0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.30627705627705626</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F156" t="n">
-        <v>0.1106521978495255</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="157">
@@ -4132,10 +4172,10 @@
         <v>3.0</v>
       </c>
       <c r="E157" t="n">
-        <v>0.25497835497835497</v>
+        <v>0.25367965367965367</v>
       </c>
       <c r="F157" t="n">
-        <v>0.06337553257379573</v>
+        <v>0.11220577317526258</v>
       </c>
     </row>
     <row r="158">
@@ -4143,7 +4183,7 @@
         <v>163</v>
       </c>
       <c r="B158" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C158" t="n">
         <v>8.0</v>
@@ -4152,10 +4192,10 @@
         <v>3.0</v>
       </c>
       <c r="E158" t="n">
-        <v>0.23658008658008656</v>
+        <v>0.2132034632034632</v>
       </c>
       <c r="F158" t="n">
-        <v>0.09140050192597497</v>
+        <v>0.09493288143535906</v>
       </c>
     </row>
     <row r="159">
@@ -4163,7 +4203,7 @@
         <v>164</v>
       </c>
       <c r="B159" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C159" t="n">
         <v>8.0</v>
@@ -4172,10 +4212,10 @@
         <v>3.0</v>
       </c>
       <c r="E159" t="n">
-        <v>0.329004329004329</v>
+        <v>0.3199134199134199</v>
       </c>
       <c r="F159" t="n">
-        <v>0.09049586562929382</v>
+        <v>0.09868378704260346</v>
       </c>
     </row>
     <row r="160">
@@ -4192,10 +4232,10 @@
         <v>3.0</v>
       </c>
       <c r="E160" t="n">
-        <v>0.31125541125541123</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F160" t="n">
-        <v>0.11773423924580445</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="161">
@@ -4212,10 +4252,10 @@
         <v>3.0</v>
       </c>
       <c r="E161" t="n">
-        <v>0.2597402597402597</v>
+        <v>0.24134199134199136</v>
       </c>
       <c r="F161" t="n">
-        <v>0.08257953205093506</v>
+        <v>0.09942190932358531</v>
       </c>
     </row>
     <row r="162">
@@ -4223,7 +4263,7 @@
         <v>167</v>
       </c>
       <c r="B162" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C162" t="n">
         <v>9.0</v>
@@ -4232,10 +4272,10 @@
         <v>3.0</v>
       </c>
       <c r="E162" t="n">
-        <v>0.25086580086580085</v>
+        <v>0.21774891774891775</v>
       </c>
       <c r="F162" t="n">
-        <v>0.09969484871918301</v>
+        <v>0.08935080781965954</v>
       </c>
     </row>
     <row r="163">
@@ -4243,7 +4283,7 @@
         <v>168</v>
       </c>
       <c r="B163" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C163" t="n">
         <v>9.0</v>
@@ -4252,10 +4292,10 @@
         <v>3.0</v>
       </c>
       <c r="E163" t="n">
-        <v>0.31493506493506496</v>
+        <v>0.3151515151515151</v>
       </c>
       <c r="F163" t="n">
-        <v>0.09089334250546716</v>
+        <v>0.09653668868909482</v>
       </c>
     </row>
     <row r="164">
@@ -4272,10 +4312,10 @@
         <v>3.0</v>
       </c>
       <c r="E164" t="n">
-        <v>0.31601731601731603</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F164" t="n">
-        <v>0.12583104967729664</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="165">
@@ -4292,10 +4332,10 @@
         <v>3.0</v>
       </c>
       <c r="E165" t="n">
-        <v>0.24112554112554113</v>
+        <v>0.26883116883116887</v>
       </c>
       <c r="F165" t="n">
-        <v>0.08688139010538647</v>
+        <v>0.10761637364107829</v>
       </c>
     </row>
     <row r="166">
@@ -4303,7 +4343,7 @@
         <v>171</v>
       </c>
       <c r="B166" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C166" t="n">
         <v>10.0</v>
@@ -4312,10 +4352,10 @@
         <v>3.0</v>
       </c>
       <c r="E166" t="n">
-        <v>0.24632034632034633</v>
+        <v>0.2225108225108225</v>
       </c>
       <c r="F166" t="n">
-        <v>0.09245237160275276</v>
+        <v>0.09179122618665676</v>
       </c>
     </row>
     <row r="167">
@@ -4323,7 +4363,7 @@
         <v>172</v>
       </c>
       <c r="B167" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C167" t="n">
         <v>10.0</v>
@@ -4335,7 +4375,7 @@
         <v>0.3196969696969697</v>
       </c>
       <c r="F167" t="n">
-        <v>0.09584859424176158</v>
+        <v>0.09561477174100771</v>
       </c>
     </row>
     <row r="168">
@@ -4352,10 +4392,10 @@
         <v>3.0</v>
       </c>
       <c r="E168" t="n">
-        <v>0.31601731601731603</v>
+        <v>0.2829004329004329</v>
       </c>
       <c r="F168" t="n">
-        <v>0.12583104967729664</v>
+        <v>0.06812777964978076</v>
       </c>
     </row>
     <row r="169">
@@ -4372,10 +4412,10 @@
         <v>3.0</v>
       </c>
       <c r="E169" t="n">
-        <v>0.27316017316017316</v>
+        <v>0.2686147186147186</v>
       </c>
       <c r="F169" t="n">
-        <v>0.11773866067426865</v>
+        <v>0.10021045051681858</v>
       </c>
     </row>
     <row r="170">
@@ -4383,7 +4423,7 @@
         <v>175</v>
       </c>
       <c r="B170" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C170" t="n">
         <v>1.0E-4</v>
@@ -4392,10 +4432,10 @@
         <v>4.0</v>
       </c>
       <c r="E170" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F170" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="171">
@@ -4403,7 +4443,7 @@
         <v>176</v>
       </c>
       <c r="B171" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C171" t="n">
         <v>1.0E-4</v>
@@ -4412,10 +4452,10 @@
         <v>4.0</v>
       </c>
       <c r="E171" t="n">
-        <v>0.920995670995671</v>
+        <v>0.9212121212121211</v>
       </c>
       <c r="F171" t="n">
-        <v>0.038763461401626356</v>
+        <v>0.02259115425603551</v>
       </c>
     </row>
     <row r="172">
@@ -4432,10 +4472,10 @@
         <v>4.0</v>
       </c>
       <c r="E172" t="n">
-        <v>0.8603896103896104</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="F172" t="n">
-        <v>0.09629399577950316</v>
+        <v>0.07863364910771571</v>
       </c>
     </row>
     <row r="173">
@@ -4452,10 +4492,10 @@
         <v>4.0</v>
       </c>
       <c r="E173" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F173" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="174">
@@ -4463,7 +4503,7 @@
         <v>179</v>
       </c>
       <c r="B174" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C174" t="n">
         <v>0.001</v>
@@ -4472,10 +4512,10 @@
         <v>4.0</v>
       </c>
       <c r="E174" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F174" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="175">
@@ -4483,7 +4523,7 @@
         <v>180</v>
       </c>
       <c r="B175" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C175" t="n">
         <v>0.001</v>
@@ -4492,10 +4532,10 @@
         <v>4.0</v>
       </c>
       <c r="E175" t="n">
-        <v>0.920995670995671</v>
+        <v>0.9212121212121211</v>
       </c>
       <c r="F175" t="n">
-        <v>0.038763461401626356</v>
+        <v>0.02259115425603551</v>
       </c>
     </row>
     <row r="176">
@@ -4512,10 +4552,10 @@
         <v>4.0</v>
       </c>
       <c r="E176" t="n">
-        <v>0.8603896103896104</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="F176" t="n">
-        <v>0.09629399577950316</v>
+        <v>0.07863364910771571</v>
       </c>
     </row>
     <row r="177">
@@ -4532,10 +4572,10 @@
         <v>4.0</v>
       </c>
       <c r="E177" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F177" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="178">
@@ -4543,7 +4583,7 @@
         <v>183</v>
       </c>
       <c r="B178" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C178" t="n">
         <v>0.01</v>
@@ -4552,10 +4592,10 @@
         <v>4.0</v>
       </c>
       <c r="E178" t="n">
-        <v>0.2545454545454546</v>
+        <v>0.22683982683982684</v>
       </c>
       <c r="F178" t="n">
-        <v>0.09038765687995713</v>
+        <v>0.07875800881016291</v>
       </c>
     </row>
     <row r="179">
@@ -4563,7 +4603,7 @@
         <v>184</v>
       </c>
       <c r="B179" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C179" t="n">
         <v>0.01</v>
@@ -4572,10 +4612,10 @@
         <v>4.0</v>
       </c>
       <c r="E179" t="n">
-        <v>0.920995670995671</v>
+        <v>0.9212121212121211</v>
       </c>
       <c r="F179" t="n">
-        <v>0.038763461401626356</v>
+        <v>0.02259115425603551</v>
       </c>
     </row>
     <row r="180">
@@ -4592,10 +4632,10 @@
         <v>4.0</v>
       </c>
       <c r="E180" t="n">
-        <v>0.8603896103896104</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="F180" t="n">
-        <v>0.09629399577950316</v>
+        <v>0.07863364910771571</v>
       </c>
     </row>
     <row r="181">
@@ -4612,10 +4652,10 @@
         <v>4.0</v>
       </c>
       <c r="E181" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F181" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="182">
@@ -4623,7 +4663,7 @@
         <v>187</v>
       </c>
       <c r="B182" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C182" t="n">
         <v>0.1</v>
@@ -4632,10 +4672,10 @@
         <v>4.0</v>
       </c>
       <c r="E182" t="n">
-        <v>0.22251082251082252</v>
+        <v>0.22705627705627704</v>
       </c>
       <c r="F182" t="n">
-        <v>0.08638626694253418</v>
+        <v>0.0923828073922993</v>
       </c>
     </row>
     <row r="183">
@@ -4643,7 +4683,7 @@
         <v>188</v>
       </c>
       <c r="B183" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C183" t="n">
         <v>0.1</v>
@@ -4652,10 +4692,10 @@
         <v>4.0</v>
       </c>
       <c r="E183" t="n">
-        <v>0.9021645021645022</v>
+        <v>0.9121212121212121</v>
       </c>
       <c r="F183" t="n">
-        <v>0.061134574546394545</v>
+        <v>0.03350436808812009</v>
       </c>
     </row>
     <row r="184">
@@ -4672,10 +4712,10 @@
         <v>4.0</v>
       </c>
       <c r="E184" t="n">
-        <v>0.8047619047619048</v>
+        <v>0.7816017316017316</v>
       </c>
       <c r="F184" t="n">
-        <v>0.07731714305362841</v>
+        <v>0.0711287745580161</v>
       </c>
     </row>
     <row r="185">
@@ -4692,10 +4732,10 @@
         <v>4.0</v>
       </c>
       <c r="E185" t="n">
-        <v>0.2772727272727273</v>
+        <v>0.29696969696969694</v>
       </c>
       <c r="F185" t="n">
-        <v>0.1199491423358421</v>
+        <v>0.07493749768541451</v>
       </c>
     </row>
     <row r="186">
@@ -4703,7 +4743,7 @@
         <v>191</v>
       </c>
       <c r="B186" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C186" t="n">
         <v>1.0</v>
@@ -4712,10 +4752,10 @@
         <v>4.0</v>
       </c>
       <c r="E186" t="n">
-        <v>0.2274891774891775</v>
+        <v>0.2183982683982684</v>
       </c>
       <c r="F186" t="n">
-        <v>0.08730128916028422</v>
+        <v>0.0846431362807338</v>
       </c>
     </row>
     <row r="187">
@@ -4723,7 +4763,7 @@
         <v>192</v>
       </c>
       <c r="B187" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C187" t="n">
         <v>1.0</v>
@@ -4732,10 +4772,10 @@
         <v>4.0</v>
       </c>
       <c r="E187" t="n">
-        <v>0.6194805194805195</v>
+        <v>0.5928571428571429</v>
       </c>
       <c r="F187" t="n">
-        <v>0.11515024935381858</v>
+        <v>0.12053791918848773</v>
       </c>
     </row>
     <row r="188">
@@ -4752,10 +4792,10 @@
         <v>4.0</v>
       </c>
       <c r="E188" t="n">
-        <v>0.28744588744588745</v>
+        <v>0.31471861471861473</v>
       </c>
       <c r="F188" t="n">
-        <v>0.12143009330112686</v>
+        <v>0.07956291752700727</v>
       </c>
     </row>
     <row r="189">
@@ -4772,10 +4812,10 @@
         <v>4.0</v>
       </c>
       <c r="E189" t="n">
-        <v>0.1906926406926407</v>
+        <v>0.2090909090909091</v>
       </c>
       <c r="F189" t="n">
-        <v>0.10642294615683508</v>
+        <v>0.06911509954191769</v>
       </c>
     </row>
     <row r="190">
@@ -4783,7 +4823,7 @@
         <v>195</v>
       </c>
       <c r="B190" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C190" t="n">
         <v>2.0</v>
@@ -4792,10 +4832,10 @@
         <v>4.0</v>
       </c>
       <c r="E190" t="n">
-        <v>0.22294372294372294</v>
+        <v>0.18571428571428572</v>
       </c>
       <c r="F190" t="n">
-        <v>0.09401129483598382</v>
+        <v>0.08865244691549598</v>
       </c>
     </row>
     <row r="191">
@@ -4803,7 +4843,7 @@
         <v>196</v>
       </c>
       <c r="B191" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C191" t="n">
         <v>2.0</v>
@@ -4812,10 +4852,10 @@
         <v>4.0</v>
       </c>
       <c r="E191" t="n">
-        <v>0.5367965367965368</v>
+        <v>0.4958874458874459</v>
       </c>
       <c r="F191" t="n">
-        <v>0.11902794012872314</v>
+        <v>0.13899875716643895</v>
       </c>
     </row>
     <row r="192">
@@ -4835,7 +4875,7 @@
         <v>0.29675324675324677</v>
       </c>
       <c r="F192" t="n">
-        <v>0.0936531837998789</v>
+        <v>0.07756350881190706</v>
       </c>
     </row>
     <row r="193">
@@ -4852,10 +4892,10 @@
         <v>4.0</v>
       </c>
       <c r="E193" t="n">
-        <v>0.2318181818181818</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="F193" t="n">
-        <v>0.06994055469026886</v>
+        <v>0.08962886091353267</v>
       </c>
     </row>
     <row r="194">
@@ -4863,7 +4903,7 @@
         <v>199</v>
       </c>
       <c r="B194" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C194" t="n">
         <v>3.0</v>
@@ -4872,10 +4912,10 @@
         <v>4.0</v>
       </c>
       <c r="E194" t="n">
-        <v>0.22251082251082252</v>
+        <v>0.1854978354978355</v>
       </c>
       <c r="F194" t="n">
-        <v>0.102619623630979</v>
+        <v>0.08431408162309906</v>
       </c>
     </row>
     <row r="195">
@@ -4883,7 +4923,7 @@
         <v>200</v>
       </c>
       <c r="B195" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C195" t="n">
         <v>3.0</v>
@@ -4892,10 +4932,10 @@
         <v>4.0</v>
       </c>
       <c r="E195" t="n">
-        <v>0.48658008658008656</v>
+        <v>0.4777056277056277</v>
       </c>
       <c r="F195" t="n">
-        <v>0.12270943539025844</v>
+        <v>0.12519669625087887</v>
       </c>
     </row>
     <row r="196">
@@ -4912,10 +4952,10 @@
         <v>4.0</v>
       </c>
       <c r="E196" t="n">
-        <v>0.30173160173160174</v>
+        <v>0.2829004329004329</v>
       </c>
       <c r="F196" t="n">
-        <v>0.1110417504316658</v>
+        <v>0.08382490894685597</v>
       </c>
     </row>
     <row r="197">
@@ -4932,10 +4972,10 @@
         <v>4.0</v>
       </c>
       <c r="E197" t="n">
-        <v>0.21753246753246752</v>
+        <v>0.23225108225108226</v>
       </c>
       <c r="F197" t="n">
-        <v>0.08427826425460809</v>
+        <v>0.08897043026304868</v>
       </c>
     </row>
     <row r="198">
@@ -4943,7 +4983,7 @@
         <v>203</v>
       </c>
       <c r="B198" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C198" t="n">
         <v>4.0</v>
@@ -4952,10 +4992,10 @@
         <v>4.0</v>
       </c>
       <c r="E198" t="n">
-        <v>0.2225108225108225</v>
+        <v>0.19025974025974027</v>
       </c>
       <c r="F198" t="n">
-        <v>0.10573764770170133</v>
+        <v>0.08595523680743995</v>
       </c>
     </row>
     <row r="199">
@@ -4963,7 +5003,7 @@
         <v>204</v>
       </c>
       <c r="B199" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C199" t="n">
         <v>4.0</v>
@@ -4975,7 +5015,7 @@
         <v>0.47294372294372294</v>
       </c>
       <c r="F199" t="n">
-        <v>0.1172843752865684</v>
+        <v>0.1383147180546175</v>
       </c>
     </row>
     <row r="200">
@@ -4992,10 +5032,10 @@
         <v>4.0</v>
       </c>
       <c r="E200" t="n">
-        <v>0.296969696969697</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F200" t="n">
-        <v>0.108046027883845</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="201">
@@ -5012,10 +5052,10 @@
         <v>4.0</v>
       </c>
       <c r="E201" t="n">
-        <v>0.23160173160173161</v>
+        <v>0.2222943722943723</v>
       </c>
       <c r="F201" t="n">
-        <v>0.08927970157724686</v>
+        <v>0.07437444176486062</v>
       </c>
     </row>
     <row r="202">
@@ -5023,7 +5063,7 @@
         <v>207</v>
       </c>
       <c r="B202" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C202" t="n">
         <v>5.0</v>
@@ -5032,10 +5072,10 @@
         <v>4.0</v>
       </c>
       <c r="E202" t="n">
-        <v>0.2225108225108225</v>
+        <v>0.20865800865800865</v>
       </c>
       <c r="F202" t="n">
-        <v>0.09425903684858643</v>
+        <v>0.0955066396248308</v>
       </c>
     </row>
     <row r="203">
@@ -5043,7 +5083,7 @@
         <v>208</v>
       </c>
       <c r="B203" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C203" t="n">
         <v>5.0</v>
@@ -5052,10 +5092,10 @@
         <v>4.0</v>
       </c>
       <c r="E203" t="n">
-        <v>0.4777056277056277</v>
+        <v>0.467965367965368</v>
       </c>
       <c r="F203" t="n">
-        <v>0.12950505847197077</v>
+        <v>0.13113779264698688</v>
       </c>
     </row>
     <row r="204">
@@ -5072,10 +5112,10 @@
         <v>4.0</v>
       </c>
       <c r="E204" t="n">
-        <v>0.3015151515151515</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F204" t="n">
-        <v>0.10571918424205543</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="205">
@@ -5092,10 +5132,10 @@
         <v>4.0</v>
       </c>
       <c r="E205" t="n">
-        <v>0.24523809523809526</v>
+        <v>0.24545454545454545</v>
       </c>
       <c r="F205" t="n">
-        <v>0.06752144370502725</v>
+        <v>0.11010488703531818</v>
       </c>
     </row>
     <row r="206">
@@ -5103,7 +5143,7 @@
         <v>211</v>
       </c>
       <c r="B206" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C206" t="n">
         <v>6.0</v>
@@ -5112,10 +5152,10 @@
         <v>4.0</v>
       </c>
       <c r="E206" t="n">
-        <v>0.22705627705627707</v>
+        <v>0.2038961038961039</v>
       </c>
       <c r="F206" t="n">
-        <v>0.09316834668060804</v>
+        <v>0.09237350942138092</v>
       </c>
     </row>
     <row r="207">
@@ -5123,7 +5163,7 @@
         <v>212</v>
       </c>
       <c r="B207" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C207" t="n">
         <v>6.0</v>
@@ -5132,10 +5172,10 @@
         <v>4.0</v>
       </c>
       <c r="E207" t="n">
-        <v>0.4822510822510822</v>
+        <v>0.4632034632034632</v>
       </c>
       <c r="F207" t="n">
-        <v>0.12136148290872331</v>
+        <v>0.1297417996709323</v>
       </c>
     </row>
     <row r="208">
@@ -5152,10 +5192,10 @@
         <v>4.0</v>
       </c>
       <c r="E208" t="n">
-        <v>0.3015151515151515</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F208" t="n">
-        <v>0.10571918424205543</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="209">
@@ -5172,10 +5212,10 @@
         <v>4.0</v>
       </c>
       <c r="E209" t="n">
-        <v>0.25476190476190474</v>
+        <v>0.2636363636363636</v>
       </c>
       <c r="F209" t="n">
-        <v>0.06562920635743014</v>
+        <v>0.0904256598078871</v>
       </c>
     </row>
     <row r="210">
@@ -5183,7 +5223,7 @@
         <v>215</v>
       </c>
       <c r="B210" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C210" t="n">
         <v>7.0</v>
@@ -5192,10 +5232,10 @@
         <v>4.0</v>
       </c>
       <c r="E210" t="n">
-        <v>0.22705627705627704</v>
+        <v>0.2132034632034632</v>
       </c>
       <c r="F210" t="n">
-        <v>0.09067085529774593</v>
+        <v>0.09493288143535906</v>
       </c>
     </row>
     <row r="211">
@@ -5203,7 +5243,7 @@
         <v>216</v>
       </c>
       <c r="B211" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C211" t="n">
         <v>7.0</v>
@@ -5212,10 +5252,10 @@
         <v>4.0</v>
       </c>
       <c r="E211" t="n">
-        <v>0.48203463203463204</v>
+        <v>0.4536796536796537</v>
       </c>
       <c r="F211" t="n">
-        <v>0.12019019670953753</v>
+        <v>0.14488769272531749</v>
       </c>
     </row>
     <row r="212">
@@ -5232,10 +5272,10 @@
         <v>4.0</v>
       </c>
       <c r="E212" t="n">
-        <v>0.30627705627705626</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F212" t="n">
-        <v>0.1106521978495255</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="213">
@@ -5252,10 +5292,10 @@
         <v>4.0</v>
       </c>
       <c r="E213" t="n">
-        <v>0.25497835497835497</v>
+        <v>0.25367965367965367</v>
       </c>
       <c r="F213" t="n">
-        <v>0.06337553257379573</v>
+        <v>0.11220577317526258</v>
       </c>
     </row>
     <row r="214">
@@ -5263,7 +5303,7 @@
         <v>219</v>
       </c>
       <c r="B214" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C214" t="n">
         <v>8.0</v>
@@ -5272,10 +5312,10 @@
         <v>4.0</v>
       </c>
       <c r="E214" t="n">
-        <v>0.23658008658008656</v>
+        <v>0.2132034632034632</v>
       </c>
       <c r="F214" t="n">
-        <v>0.09140050192597497</v>
+        <v>0.09493288143535906</v>
       </c>
     </row>
     <row r="215">
@@ -5283,7 +5323,7 @@
         <v>220</v>
       </c>
       <c r="B215" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C215" t="n">
         <v>8.0</v>
@@ -5292,10 +5332,10 @@
         <v>4.0</v>
       </c>
       <c r="E215" t="n">
-        <v>0.49155844155844153</v>
+        <v>0.4627705627705628</v>
       </c>
       <c r="F215" t="n">
-        <v>0.1254309861691833</v>
+        <v>0.13305694008912464</v>
       </c>
     </row>
     <row r="216">
@@ -5312,10 +5352,10 @@
         <v>4.0</v>
       </c>
       <c r="E216" t="n">
-        <v>0.31125541125541123</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F216" t="n">
-        <v>0.11773423924580445</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="217">
@@ -5332,10 +5372,10 @@
         <v>4.0</v>
       </c>
       <c r="E217" t="n">
-        <v>0.2597402597402597</v>
+        <v>0.24134199134199136</v>
       </c>
       <c r="F217" t="n">
-        <v>0.08257953205093506</v>
+        <v>0.09942190932358531</v>
       </c>
     </row>
     <row r="218">
@@ -5343,7 +5383,7 @@
         <v>223</v>
       </c>
       <c r="B218" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C218" t="n">
         <v>9.0</v>
@@ -5352,10 +5392,10 @@
         <v>4.0</v>
       </c>
       <c r="E218" t="n">
-        <v>0.25086580086580085</v>
+        <v>0.21774891774891775</v>
       </c>
       <c r="F218" t="n">
-        <v>0.09969484871918301</v>
+        <v>0.08935080781965954</v>
       </c>
     </row>
     <row r="219">
@@ -5363,7 +5403,7 @@
         <v>224</v>
       </c>
       <c r="B219" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C219" t="n">
         <v>9.0</v>
@@ -5372,10 +5412,10 @@
         <v>4.0</v>
       </c>
       <c r="E219" t="n">
-        <v>0.49155844155844153</v>
+        <v>0.4536796536796537</v>
       </c>
       <c r="F219" t="n">
-        <v>0.1254309861691833</v>
+        <v>0.11566176412572125</v>
       </c>
     </row>
     <row r="220">
@@ -5392,10 +5432,10 @@
         <v>4.0</v>
       </c>
       <c r="E220" t="n">
-        <v>0.31601731601731603</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F220" t="n">
-        <v>0.12583104967729664</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="221">
@@ -5412,10 +5452,10 @@
         <v>4.0</v>
       </c>
       <c r="E221" t="n">
-        <v>0.24112554112554113</v>
+        <v>0.26883116883116887</v>
       </c>
       <c r="F221" t="n">
-        <v>0.08688139010538647</v>
+        <v>0.10761637364107829</v>
       </c>
     </row>
     <row r="222">
@@ -5423,7 +5463,7 @@
         <v>227</v>
       </c>
       <c r="B222" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C222" t="n">
         <v>10.0</v>
@@ -5432,10 +5472,10 @@
         <v>4.0</v>
       </c>
       <c r="E222" t="n">
-        <v>0.24632034632034633</v>
+        <v>0.2225108225108225</v>
       </c>
       <c r="F222" t="n">
-        <v>0.09245237160275276</v>
+        <v>0.09179122618665676</v>
       </c>
     </row>
     <row r="223">
@@ -5443,7 +5483,7 @@
         <v>228</v>
       </c>
       <c r="B223" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C223" t="n">
         <v>10.0</v>
@@ -5452,10 +5492,10 @@
         <v>4.0</v>
       </c>
       <c r="E223" t="n">
-        <v>0.5008658008658008</v>
+        <v>0.4536796536796537</v>
       </c>
       <c r="F223" t="n">
-        <v>0.11100892960862463</v>
+        <v>0.11566176412572125</v>
       </c>
     </row>
     <row r="224">
@@ -5472,10 +5512,10 @@
         <v>4.0</v>
       </c>
       <c r="E224" t="n">
-        <v>0.31601731601731603</v>
+        <v>0.2829004329004329</v>
       </c>
       <c r="F224" t="n">
-        <v>0.12583104967729664</v>
+        <v>0.06812777964978076</v>
       </c>
     </row>
     <row r="225">
@@ -5492,10 +5532,10 @@
         <v>4.0</v>
       </c>
       <c r="E225" t="n">
-        <v>0.27316017316017316</v>
+        <v>0.2686147186147186</v>
       </c>
       <c r="F225" t="n">
-        <v>0.11773866067426865</v>
+        <v>0.10021045051681858</v>
       </c>
     </row>
     <row r="226">
@@ -5503,7 +5543,7 @@
         <v>231</v>
       </c>
       <c r="B226" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C226" t="n">
         <v>1.0E-4</v>
@@ -5512,10 +5552,10 @@
         <v>5.0</v>
       </c>
       <c r="E226" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F226" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="227">
@@ -5523,7 +5563,7 @@
         <v>232</v>
       </c>
       <c r="B227" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C227" t="n">
         <v>1.0E-4</v>
@@ -5532,10 +5572,10 @@
         <v>5.0</v>
       </c>
       <c r="E227" t="n">
-        <v>0.920995670995671</v>
+        <v>0.9212121212121211</v>
       </c>
       <c r="F227" t="n">
-        <v>0.038763461401626356</v>
+        <v>0.02259115425603551</v>
       </c>
     </row>
     <row r="228">
@@ -5552,10 +5592,10 @@
         <v>5.0</v>
       </c>
       <c r="E228" t="n">
-        <v>0.8603896103896104</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="F228" t="n">
-        <v>0.09629399577950316</v>
+        <v>0.07863364910771571</v>
       </c>
     </row>
     <row r="229">
@@ -5572,10 +5612,10 @@
         <v>5.0</v>
       </c>
       <c r="E229" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F229" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="230">
@@ -5583,7 +5623,7 @@
         <v>235</v>
       </c>
       <c r="B230" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C230" t="n">
         <v>0.001</v>
@@ -5592,10 +5632,10 @@
         <v>5.0</v>
       </c>
       <c r="E230" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F230" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="231">
@@ -5603,7 +5643,7 @@
         <v>236</v>
       </c>
       <c r="B231" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C231" t="n">
         <v>0.001</v>
@@ -5612,10 +5652,10 @@
         <v>5.0</v>
       </c>
       <c r="E231" t="n">
-        <v>0.920995670995671</v>
+        <v>0.9212121212121211</v>
       </c>
       <c r="F231" t="n">
-        <v>0.038763461401626356</v>
+        <v>0.02259115425603551</v>
       </c>
     </row>
     <row r="232">
@@ -5632,10 +5672,10 @@
         <v>5.0</v>
       </c>
       <c r="E232" t="n">
-        <v>0.8603896103896104</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="F232" t="n">
-        <v>0.09629399577950316</v>
+        <v>0.07863364910771571</v>
       </c>
     </row>
     <row r="233">
@@ -5652,10 +5692,10 @@
         <v>5.0</v>
       </c>
       <c r="E233" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F233" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="234">
@@ -5663,7 +5703,7 @@
         <v>239</v>
       </c>
       <c r="B234" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C234" t="n">
         <v>0.01</v>
@@ -5672,10 +5712,10 @@
         <v>5.0</v>
       </c>
       <c r="E234" t="n">
-        <v>0.2545454545454546</v>
+        <v>0.22683982683982684</v>
       </c>
       <c r="F234" t="n">
-        <v>0.09038765687995713</v>
+        <v>0.07875800881016291</v>
       </c>
     </row>
     <row r="235">
@@ -5683,7 +5723,7 @@
         <v>240</v>
       </c>
       <c r="B235" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C235" t="n">
         <v>0.01</v>
@@ -5692,10 +5732,10 @@
         <v>5.0</v>
       </c>
       <c r="E235" t="n">
-        <v>0.920995670995671</v>
+        <v>0.9212121212121211</v>
       </c>
       <c r="F235" t="n">
-        <v>0.038763461401626356</v>
+        <v>0.02259115425603551</v>
       </c>
     </row>
     <row r="236">
@@ -5712,10 +5752,10 @@
         <v>5.0</v>
       </c>
       <c r="E236" t="n">
-        <v>0.8603896103896104</v>
+        <v>0.8787878787878788</v>
       </c>
       <c r="F236" t="n">
-        <v>0.09629399577950316</v>
+        <v>0.07863364910771571</v>
       </c>
     </row>
     <row r="237">
@@ -5732,10 +5772,10 @@
         <v>5.0</v>
       </c>
       <c r="E237" t="n">
-        <v>0.8556277056277056</v>
+        <v>0.8785714285714286</v>
       </c>
       <c r="F237" t="n">
-        <v>0.10725903593737486</v>
+        <v>0.07925645196253156</v>
       </c>
     </row>
     <row r="238">
@@ -5743,7 +5783,7 @@
         <v>243</v>
       </c>
       <c r="B238" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C238" t="n">
         <v>0.1</v>
@@ -5752,10 +5792,10 @@
         <v>5.0</v>
       </c>
       <c r="E238" t="n">
-        <v>0.22251082251082252</v>
+        <v>0.22705627705627704</v>
       </c>
       <c r="F238" t="n">
-        <v>0.08638626694253418</v>
+        <v>0.0923828073922993</v>
       </c>
     </row>
     <row r="239">
@@ -5763,7 +5803,7 @@
         <v>244</v>
       </c>
       <c r="B239" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C239" t="n">
         <v>0.1</v>
@@ -5772,10 +5812,10 @@
         <v>5.0</v>
       </c>
       <c r="E239" t="n">
-        <v>0.8883116883116883</v>
+        <v>0.8932900432900432</v>
       </c>
       <c r="F239" t="n">
-        <v>0.06794529778448517</v>
+        <v>0.043970718888497906</v>
       </c>
     </row>
     <row r="240">
@@ -5792,10 +5832,10 @@
         <v>5.0</v>
       </c>
       <c r="E240" t="n">
-        <v>0.8047619047619048</v>
+        <v>0.7816017316017316</v>
       </c>
       <c r="F240" t="n">
-        <v>0.07731714305362841</v>
+        <v>0.0711287745580161</v>
       </c>
     </row>
     <row r="241">
@@ -5812,10 +5852,10 @@
         <v>5.0</v>
       </c>
       <c r="E241" t="n">
-        <v>0.2772727272727273</v>
+        <v>0.29696969696969694</v>
       </c>
       <c r="F241" t="n">
-        <v>0.1199491423358421</v>
+        <v>0.07493749768541451</v>
       </c>
     </row>
     <row r="242">
@@ -5823,7 +5863,7 @@
         <v>247</v>
       </c>
       <c r="B242" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C242" t="n">
         <v>1.0</v>
@@ -5832,10 +5872,10 @@
         <v>5.0</v>
       </c>
       <c r="E242" t="n">
-        <v>0.2274891774891775</v>
+        <v>0.2183982683982684</v>
       </c>
       <c r="F242" t="n">
-        <v>0.08730128916028422</v>
+        <v>0.0846431362807338</v>
       </c>
     </row>
     <row r="243">
@@ -5843,7 +5883,7 @@
         <v>248</v>
       </c>
       <c r="B243" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C243" t="n">
         <v>1.0</v>
@@ -5852,10 +5892,10 @@
         <v>5.0</v>
       </c>
       <c r="E243" t="n">
-        <v>0.6246753246753247</v>
+        <v>0.6482683982683983</v>
       </c>
       <c r="F243" t="n">
-        <v>0.11931274862498865</v>
+        <v>0.11985275857058157</v>
       </c>
     </row>
     <row r="244">
@@ -5872,10 +5912,10 @@
         <v>5.0</v>
       </c>
       <c r="E244" t="n">
-        <v>0.28744588744588745</v>
+        <v>0.31471861471861473</v>
       </c>
       <c r="F244" t="n">
-        <v>0.12143009330112686</v>
+        <v>0.07956291752700727</v>
       </c>
     </row>
     <row r="245">
@@ -5892,10 +5932,10 @@
         <v>5.0</v>
       </c>
       <c r="E245" t="n">
-        <v>0.1906926406926407</v>
+        <v>0.2090909090909091</v>
       </c>
       <c r="F245" t="n">
-        <v>0.10642294615683508</v>
+        <v>0.06911509954191769</v>
       </c>
     </row>
     <row r="246">
@@ -5903,7 +5943,7 @@
         <v>251</v>
       </c>
       <c r="B246" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C246" t="n">
         <v>2.0</v>
@@ -5912,10 +5952,10 @@
         <v>5.0</v>
       </c>
       <c r="E246" t="n">
-        <v>0.22294372294372294</v>
+        <v>0.18571428571428572</v>
       </c>
       <c r="F246" t="n">
-        <v>0.09401129483598382</v>
+        <v>0.08865244691549598</v>
       </c>
     </row>
     <row r="247">
@@ -5923,7 +5963,7 @@
         <v>252</v>
       </c>
       <c r="B247" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C247" t="n">
         <v>2.0</v>
@@ -5932,10 +5972,10 @@
         <v>5.0</v>
       </c>
       <c r="E247" t="n">
-        <v>0.5967532467532468</v>
+        <v>0.5642857142857143</v>
       </c>
       <c r="F247" t="n">
-        <v>0.1269064188967099</v>
+        <v>0.10351989165107457</v>
       </c>
     </row>
     <row r="248">
@@ -5955,7 +5995,7 @@
         <v>0.29675324675324677</v>
       </c>
       <c r="F248" t="n">
-        <v>0.0936531837998789</v>
+        <v>0.07756350881190706</v>
       </c>
     </row>
     <row r="249">
@@ -5972,10 +6012,10 @@
         <v>5.0</v>
       </c>
       <c r="E249" t="n">
-        <v>0.2318181818181818</v>
+        <v>0.2272727272727273</v>
       </c>
       <c r="F249" t="n">
-        <v>0.06994055469026886</v>
+        <v>0.08962886091353267</v>
       </c>
     </row>
     <row r="250">
@@ -5983,7 +6023,7 @@
         <v>255</v>
       </c>
       <c r="B250" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C250" t="n">
         <v>3.0</v>
@@ -5992,10 +6032,10 @@
         <v>5.0</v>
       </c>
       <c r="E250" t="n">
-        <v>0.22251082251082252</v>
+        <v>0.1854978354978355</v>
       </c>
       <c r="F250" t="n">
-        <v>0.102619623630979</v>
+        <v>0.08431408162309906</v>
       </c>
     </row>
     <row r="251">
@@ -6003,7 +6043,7 @@
         <v>256</v>
       </c>
       <c r="B251" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C251" t="n">
         <v>3.0</v>
@@ -6012,10 +6052,10 @@
         <v>5.0</v>
       </c>
       <c r="E251" t="n">
-        <v>0.5320346320346321</v>
+        <v>0.5413419913419913</v>
       </c>
       <c r="F251" t="n">
-        <v>0.14558518721412655</v>
+        <v>0.10119263038093064</v>
       </c>
     </row>
     <row r="252">
@@ -6032,10 +6072,10 @@
         <v>5.0</v>
       </c>
       <c r="E252" t="n">
-        <v>0.30173160173160174</v>
+        <v>0.2829004329004329</v>
       </c>
       <c r="F252" t="n">
-        <v>0.1110417504316658</v>
+        <v>0.08382490894685597</v>
       </c>
     </row>
     <row r="253">
@@ -6052,10 +6092,10 @@
         <v>5.0</v>
       </c>
       <c r="E253" t="n">
-        <v>0.21753246753246752</v>
+        <v>0.23225108225108226</v>
       </c>
       <c r="F253" t="n">
-        <v>0.08427826425460809</v>
+        <v>0.08897043026304868</v>
       </c>
     </row>
     <row r="254">
@@ -6063,7 +6103,7 @@
         <v>259</v>
       </c>
       <c r="B254" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C254" t="n">
         <v>4.0</v>
@@ -6072,10 +6112,10 @@
         <v>5.0</v>
       </c>
       <c r="E254" t="n">
-        <v>0.2225108225108225</v>
+        <v>0.19025974025974027</v>
       </c>
       <c r="F254" t="n">
-        <v>0.10573764770170133</v>
+        <v>0.08595523680743995</v>
       </c>
     </row>
     <row r="255">
@@ -6083,7 +6123,7 @@
         <v>260</v>
       </c>
       <c r="B255" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C255" t="n">
         <v>4.0</v>
@@ -6092,10 +6132,10 @@
         <v>5.0</v>
       </c>
       <c r="E255" t="n">
-        <v>0.5181818181818182</v>
+        <v>0.5138528138528138</v>
       </c>
       <c r="F255" t="n">
-        <v>0.13710867877147964</v>
+        <v>0.1009183256544951</v>
       </c>
     </row>
     <row r="256">
@@ -6112,10 +6152,10 @@
         <v>5.0</v>
       </c>
       <c r="E256" t="n">
-        <v>0.296969696969697</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F256" t="n">
-        <v>0.108046027883845</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="257">
@@ -6132,10 +6172,10 @@
         <v>5.0</v>
       </c>
       <c r="E257" t="n">
-        <v>0.23160173160173161</v>
+        <v>0.2222943722943723</v>
       </c>
       <c r="F257" t="n">
-        <v>0.08927970157724686</v>
+        <v>0.07437444176486062</v>
       </c>
     </row>
     <row r="258">
@@ -6143,7 +6183,7 @@
         <v>263</v>
       </c>
       <c r="B258" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C258" t="n">
         <v>5.0</v>
@@ -6152,10 +6192,10 @@
         <v>5.0</v>
       </c>
       <c r="E258" t="n">
-        <v>0.2225108225108225</v>
+        <v>0.20865800865800865</v>
       </c>
       <c r="F258" t="n">
-        <v>0.09425903684858643</v>
+        <v>0.0955066396248308</v>
       </c>
     </row>
     <row r="259">
@@ -6163,7 +6203,7 @@
         <v>264</v>
       </c>
       <c r="B259" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C259" t="n">
         <v>5.0</v>
@@ -6172,10 +6212,10 @@
         <v>5.0</v>
       </c>
       <c r="E259" t="n">
-        <v>0.4997835497835498</v>
+        <v>0.5</v>
       </c>
       <c r="F259" t="n">
-        <v>0.11783876159591367</v>
+        <v>0.09736250577817718</v>
       </c>
     </row>
     <row r="260">
@@ -6192,10 +6232,10 @@
         <v>5.0</v>
       </c>
       <c r="E260" t="n">
-        <v>0.3015151515151515</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F260" t="n">
-        <v>0.10571918424205543</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="261">
@@ -6212,10 +6252,10 @@
         <v>5.0</v>
       </c>
       <c r="E261" t="n">
-        <v>0.24523809523809526</v>
+        <v>0.24545454545454545</v>
       </c>
       <c r="F261" t="n">
-        <v>0.06752144370502725</v>
+        <v>0.11010488703531818</v>
       </c>
     </row>
     <row r="262">
@@ -6223,7 +6263,7 @@
         <v>267</v>
       </c>
       <c r="B262" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C262" t="n">
         <v>6.0</v>
@@ -6232,10 +6272,10 @@
         <v>5.0</v>
       </c>
       <c r="E262" t="n">
-        <v>0.22705627705627707</v>
+        <v>0.2038961038961039</v>
       </c>
       <c r="F262" t="n">
-        <v>0.09316834668060804</v>
+        <v>0.09237350942138092</v>
       </c>
     </row>
     <row r="263">
@@ -6243,7 +6283,7 @@
         <v>268</v>
       </c>
       <c r="B263" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C263" t="n">
         <v>6.0</v>
@@ -6252,10 +6292,10 @@
         <v>5.0</v>
       </c>
       <c r="E263" t="n">
-        <v>0.5</v>
+        <v>0.48636363636363633</v>
       </c>
       <c r="F263" t="n">
-        <v>0.1148795915584135</v>
+        <v>0.1064845606819927</v>
       </c>
     </row>
     <row r="264">
@@ -6272,10 +6312,10 @@
         <v>5.0</v>
       </c>
       <c r="E264" t="n">
-        <v>0.3015151515151515</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F264" t="n">
-        <v>0.10571918424205543</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="265">
@@ -6292,10 +6332,10 @@
         <v>5.0</v>
       </c>
       <c r="E265" t="n">
-        <v>0.25476190476190474</v>
+        <v>0.2636363636363636</v>
       </c>
       <c r="F265" t="n">
-        <v>0.06562920635743014</v>
+        <v>0.0904256598078871</v>
       </c>
     </row>
     <row r="266">
@@ -6303,7 +6343,7 @@
         <v>271</v>
       </c>
       <c r="B266" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C266" t="n">
         <v>7.0</v>
@@ -6312,10 +6352,10 @@
         <v>5.0</v>
       </c>
       <c r="E266" t="n">
-        <v>0.22705627705627704</v>
+        <v>0.2132034632034632</v>
       </c>
       <c r="F266" t="n">
-        <v>0.09067085529774593</v>
+        <v>0.09493288143535906</v>
       </c>
     </row>
     <row r="267">
@@ -6323,7 +6363,7 @@
         <v>272</v>
       </c>
       <c r="B267" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C267" t="n">
         <v>7.0</v>
@@ -6332,10 +6372,10 @@
         <v>5.0</v>
       </c>
       <c r="E267" t="n">
-        <v>0.5</v>
+        <v>0.462987012987013</v>
       </c>
       <c r="F267" t="n">
-        <v>0.1148795915584135</v>
+        <v>0.11779457741609355</v>
       </c>
     </row>
     <row r="268">
@@ -6352,10 +6392,10 @@
         <v>5.0</v>
       </c>
       <c r="E268" t="n">
-        <v>0.30627705627705626</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F268" t="n">
-        <v>0.1106521978495255</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="269">
@@ -6372,10 +6412,10 @@
         <v>5.0</v>
       </c>
       <c r="E269" t="n">
-        <v>0.25497835497835497</v>
+        <v>0.25367965367965367</v>
       </c>
       <c r="F269" t="n">
-        <v>0.06337553257379573</v>
+        <v>0.11220577317526258</v>
       </c>
     </row>
     <row r="270">
@@ -6383,7 +6423,7 @@
         <v>275</v>
       </c>
       <c r="B270" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C270" t="n">
         <v>8.0</v>
@@ -6392,10 +6432,10 @@
         <v>5.0</v>
       </c>
       <c r="E270" t="n">
-        <v>0.23658008658008656</v>
+        <v>0.2132034632034632</v>
       </c>
       <c r="F270" t="n">
-        <v>0.09140050192597497</v>
+        <v>0.09493288143535906</v>
       </c>
     </row>
     <row r="271">
@@ -6403,7 +6443,7 @@
         <v>276</v>
       </c>
       <c r="B271" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C271" t="n">
         <v>8.0</v>
@@ -6412,10 +6452,10 @@
         <v>5.0</v>
       </c>
       <c r="E271" t="n">
-        <v>0.48095238095238096</v>
+        <v>0.4541125541125541</v>
       </c>
       <c r="F271" t="n">
-        <v>0.12132716316285616</v>
+        <v>0.11507789492743839</v>
       </c>
     </row>
     <row r="272">
@@ -6432,10 +6472,10 @@
         <v>5.0</v>
       </c>
       <c r="E272" t="n">
-        <v>0.31125541125541123</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F272" t="n">
-        <v>0.11773423924580445</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="273">
@@ -6452,10 +6492,10 @@
         <v>5.0</v>
       </c>
       <c r="E273" t="n">
-        <v>0.2597402597402597</v>
+        <v>0.24134199134199136</v>
       </c>
       <c r="F273" t="n">
-        <v>0.08257953205093506</v>
+        <v>0.09942190932358531</v>
       </c>
     </row>
     <row r="274">
@@ -6463,7 +6503,7 @@
         <v>279</v>
       </c>
       <c r="B274" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C274" t="n">
         <v>9.0</v>
@@ -6472,10 +6512,10 @@
         <v>5.0</v>
       </c>
       <c r="E274" t="n">
-        <v>0.25086580086580085</v>
+        <v>0.21774891774891775</v>
       </c>
       <c r="F274" t="n">
-        <v>0.09969484871918301</v>
+        <v>0.08935080781965954</v>
       </c>
     </row>
     <row r="275">
@@ -6483,7 +6523,7 @@
         <v>280</v>
       </c>
       <c r="B275" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C275" t="n">
         <v>9.0</v>
@@ -6492,10 +6532,10 @@
         <v>5.0</v>
       </c>
       <c r="E275" t="n">
-        <v>0.47186147186147187</v>
+        <v>0.4634199134199134</v>
       </c>
       <c r="F275" t="n">
-        <v>0.11342945959261085</v>
+        <v>0.11418167790816132</v>
       </c>
     </row>
     <row r="276">
@@ -6512,10 +6552,10 @@
         <v>5.0</v>
       </c>
       <c r="E276" t="n">
-        <v>0.31601731601731603</v>
+        <v>0.27813852813852813</v>
       </c>
       <c r="F276" t="n">
-        <v>0.12583104967729664</v>
+        <v>0.06955843233836702</v>
       </c>
     </row>
     <row r="277">
@@ -6532,10 +6572,10 @@
         <v>5.0</v>
       </c>
       <c r="E277" t="n">
-        <v>0.24112554112554113</v>
+        <v>0.26883116883116887</v>
       </c>
       <c r="F277" t="n">
-        <v>0.08688139010538647</v>
+        <v>0.10761637364107829</v>
       </c>
     </row>
     <row r="278">
@@ -6543,7 +6583,7 @@
         <v>283</v>
       </c>
       <c r="B278" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C278" t="n">
         <v>10.0</v>
@@ -6552,10 +6592,10 @@
         <v>5.0</v>
       </c>
       <c r="E278" t="n">
-        <v>0.24632034632034633</v>
+        <v>0.2225108225108225</v>
       </c>
       <c r="F278" t="n">
-        <v>0.09245237160275276</v>
+        <v>0.09179122618665676</v>
       </c>
     </row>
     <row r="279">
@@ -6563,7 +6603,7 @@
         <v>284</v>
       </c>
       <c r="B279" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C279" t="n">
         <v>10.0</v>
@@ -6572,10 +6612,10 @@
         <v>5.0</v>
       </c>
       <c r="E279" t="n">
-        <v>0.4673160173160173</v>
+        <v>0.4543290043290043</v>
       </c>
       <c r="F279" t="n">
-        <v>0.1089511480949993</v>
+        <v>0.12782358140126016</v>
       </c>
     </row>
     <row r="280">
@@ -6592,10 +6632,10 @@
         <v>5.0</v>
       </c>
       <c r="E280" t="n">
-        <v>0.31601731601731603</v>
+        <v>0.2829004329004329</v>
       </c>
       <c r="F280" t="n">
-        <v>0.12583104967729664</v>
+        <v>0.06812777964978076</v>
       </c>
     </row>
     <row r="281">
@@ -6612,10 +6652,10 @@
         <v>5.0</v>
       </c>
       <c r="E281" t="n">
-        <v>0.27316017316017316</v>
+        <v>0.2686147186147186</v>
       </c>
       <c r="F281" t="n">
-        <v>0.11773866067426865</v>
+        <v>0.10021045051681858</v>
       </c>
     </row>
   </sheetData>

--- a/csv/svm/svm_pc15initanalysis.xlsx
+++ b/csv/svm/svm_pc15initanalysis.xlsx
@@ -32,853 +32,853 @@
     <t>degree</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>polynomial</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>dispersion</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
     <t>25</t>
   </si>
   <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>151</t>
+  </si>
+  <si>
+    <t>152</t>
+  </si>
+  <si>
+    <t>153</t>
+  </si>
+  <si>
+    <t>154</t>
+  </si>
+  <si>
+    <t>155</t>
+  </si>
+  <si>
+    <t>156</t>
+  </si>
+  <si>
+    <t>157</t>
+  </si>
+  <si>
+    <t>158</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>160</t>
+  </si>
+  <si>
+    <t>161</t>
+  </si>
+  <si>
+    <t>162</t>
+  </si>
+  <si>
+    <t>163</t>
+  </si>
+  <si>
+    <t>164</t>
+  </si>
+  <si>
+    <t>165</t>
+  </si>
+  <si>
+    <t>166</t>
+  </si>
+  <si>
+    <t>167</t>
+  </si>
+  <si>
+    <t>168</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>173</t>
+  </si>
+  <si>
+    <t>174</t>
+  </si>
+  <si>
+    <t>175</t>
+  </si>
+  <si>
+    <t>176</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>178</t>
+  </si>
+  <si>
+    <t>179</t>
+  </si>
+  <si>
+    <t>180</t>
+  </si>
+  <si>
+    <t>181</t>
+  </si>
+  <si>
+    <t>182</t>
+  </si>
+  <si>
+    <t>183</t>
+  </si>
+  <si>
+    <t>184</t>
+  </si>
+  <si>
+    <t>185</t>
+  </si>
+  <si>
+    <t>186</t>
+  </si>
+  <si>
+    <t>187</t>
+  </si>
+  <si>
+    <t>188</t>
+  </si>
+  <si>
+    <t>189</t>
+  </si>
+  <si>
+    <t>190</t>
+  </si>
+  <si>
+    <t>191</t>
+  </si>
+  <si>
+    <t>192</t>
+  </si>
+  <si>
+    <t>193</t>
+  </si>
+  <si>
+    <t>194</t>
+  </si>
+  <si>
+    <t>195</t>
+  </si>
+  <si>
+    <t>196</t>
+  </si>
+  <si>
+    <t>197</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>199</t>
+  </si>
+  <si>
+    <t>200</t>
+  </si>
+  <si>
+    <t>201</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>203</t>
+  </si>
+  <si>
+    <t>204</t>
+  </si>
+  <si>
+    <t>205</t>
+  </si>
+  <si>
+    <t>206</t>
+  </si>
+  <si>
+    <t>207</t>
+  </si>
+  <si>
+    <t>208</t>
+  </si>
+  <si>
+    <t>209</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>212</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>214</t>
+  </si>
+  <si>
+    <t>215</t>
+  </si>
+  <si>
+    <t>216</t>
+  </si>
+  <si>
+    <t>217</t>
+  </si>
+  <si>
+    <t>218</t>
+  </si>
+  <si>
+    <t>219</t>
+  </si>
+  <si>
+    <t>220</t>
+  </si>
+  <si>
+    <t>221</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>223</t>
+  </si>
+  <si>
+    <t>224</t>
+  </si>
+  <si>
+    <t>225</t>
+  </si>
+  <si>
+    <t>226</t>
+  </si>
+  <si>
+    <t>227</t>
+  </si>
+  <si>
+    <t>228</t>
+  </si>
+  <si>
+    <t>229</t>
+  </si>
+  <si>
+    <t>230</t>
+  </si>
+  <si>
+    <t>231</t>
+  </si>
+  <si>
+    <t>232</t>
+  </si>
+  <si>
+    <t>233</t>
+  </si>
+  <si>
+    <t>234</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>236</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>238</t>
+  </si>
+  <si>
+    <t>239</t>
+  </si>
+  <si>
+    <t>240</t>
+  </si>
+  <si>
+    <t>241</t>
+  </si>
+  <si>
+    <t>242</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>244</t>
+  </si>
+  <si>
+    <t>245</t>
+  </si>
+  <si>
+    <t>246</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>248</t>
+  </si>
+  <si>
+    <t>249</t>
+  </si>
+  <si>
+    <t>250</t>
+  </si>
+  <si>
+    <t>251</t>
+  </si>
+  <si>
+    <t>252</t>
+  </si>
+  <si>
+    <t>253</t>
+  </si>
+  <si>
+    <t>254</t>
+  </si>
+  <si>
+    <t>255</t>
+  </si>
+  <si>
+    <t>256</t>
+  </si>
+  <si>
+    <t>257</t>
+  </si>
+  <si>
+    <t>258</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>261</t>
+  </si>
+  <si>
+    <t>262</t>
+  </si>
+  <si>
+    <t>263</t>
+  </si>
+  <si>
+    <t>264</t>
+  </si>
+  <si>
+    <t>265</t>
+  </si>
+  <si>
+    <t>266</t>
+  </si>
+  <si>
+    <t>267</t>
+  </si>
+  <si>
+    <t>268</t>
+  </si>
+  <si>
+    <t>269</t>
+  </si>
+  <si>
+    <t>270</t>
+  </si>
+  <si>
+    <t>271</t>
+  </si>
+  <si>
+    <t>272</t>
+  </si>
+  <si>
+    <t>273</t>
+  </si>
+  <si>
+    <t>274</t>
+  </si>
+  <si>
+    <t>275</t>
+  </si>
+  <si>
+    <t>276</t>
+  </si>
+  <si>
+    <t>277</t>
+  </si>
+  <si>
+    <t>278</t>
+  </si>
+  <si>
+    <t>279</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
     <t>linear</t>
-  </si>
-  <si>
-    <t>error</t>
-  </si>
-  <si>
-    <t>dispersion</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>33</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>35</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>46</t>
-  </si>
-  <si>
-    <t>47</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>53</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>55</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>58</t>
-  </si>
-  <si>
-    <t>59</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>65</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>68</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>70</t>
-  </si>
-  <si>
-    <t>71</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>77</t>
-  </si>
-  <si>
-    <t>78</t>
-  </si>
-  <si>
-    <t>79</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>81</t>
-  </si>
-  <si>
-    <t>82</t>
-  </si>
-  <si>
-    <t>83</t>
-  </si>
-  <si>
-    <t>84</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>88</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>93</t>
-  </si>
-  <si>
-    <t>94</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>101</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>104</t>
-  </si>
-  <si>
-    <t>105</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>111</t>
-  </si>
-  <si>
-    <t>112</t>
-  </si>
-  <si>
-    <t>113</t>
-  </si>
-  <si>
-    <t>114</t>
-  </si>
-  <si>
-    <t>115</t>
-  </si>
-  <si>
-    <t>116</t>
-  </si>
-  <si>
-    <t>117</t>
-  </si>
-  <si>
-    <t>118</t>
-  </si>
-  <si>
-    <t>119</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>125</t>
-  </si>
-  <si>
-    <t>126</t>
-  </si>
-  <si>
-    <t>127</t>
-  </si>
-  <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>129</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>131</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>133</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>136</t>
-  </si>
-  <si>
-    <t>137</t>
-  </si>
-  <si>
-    <t>138</t>
-  </si>
-  <si>
-    <t>139</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>141</t>
-  </si>
-  <si>
-    <t>142</t>
-  </si>
-  <si>
-    <t>143</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>146</t>
-  </si>
-  <si>
-    <t>147</t>
-  </si>
-  <si>
-    <t>148</t>
-  </si>
-  <si>
-    <t>149</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>151</t>
-  </si>
-  <si>
-    <t>152</t>
-  </si>
-  <si>
-    <t>153</t>
-  </si>
-  <si>
-    <t>154</t>
-  </si>
-  <si>
-    <t>155</t>
-  </si>
-  <si>
-    <t>156</t>
-  </si>
-  <si>
-    <t>157</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>162</t>
-  </si>
-  <si>
-    <t>163</t>
-  </si>
-  <si>
-    <t>164</t>
-  </si>
-  <si>
-    <t>165</t>
-  </si>
-  <si>
-    <t>166</t>
-  </si>
-  <si>
-    <t>167</t>
-  </si>
-  <si>
-    <t>168</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>174</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>176</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>178</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>181</t>
-  </si>
-  <si>
-    <t>182</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>184</t>
-  </si>
-  <si>
-    <t>185</t>
-  </si>
-  <si>
-    <t>186</t>
-  </si>
-  <si>
-    <t>187</t>
-  </si>
-  <si>
-    <t>188</t>
-  </si>
-  <si>
-    <t>189</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>191</t>
-  </si>
-  <si>
-    <t>192</t>
-  </si>
-  <si>
-    <t>193</t>
-  </si>
-  <si>
-    <t>194</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>196</t>
-  </si>
-  <si>
-    <t>197</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>201</t>
-  </si>
-  <si>
-    <t>202</t>
-  </si>
-  <si>
-    <t>203</t>
-  </si>
-  <si>
-    <t>204</t>
-  </si>
-  <si>
-    <t>205</t>
-  </si>
-  <si>
-    <t>206</t>
-  </si>
-  <si>
-    <t>207</t>
-  </si>
-  <si>
-    <t>208</t>
-  </si>
-  <si>
-    <t>209</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>211</t>
-  </si>
-  <si>
-    <t>212</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>214</t>
-  </si>
-  <si>
-    <t>215</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>217</t>
-  </si>
-  <si>
-    <t>218</t>
-  </si>
-  <si>
-    <t>219</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>221</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>223</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>226</t>
-  </si>
-  <si>
-    <t>227</t>
-  </si>
-  <si>
-    <t>228</t>
-  </si>
-  <si>
-    <t>229</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>231</t>
-  </si>
-  <si>
-    <t>232</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>234</t>
-  </si>
-  <si>
-    <t>235</t>
-  </si>
-  <si>
-    <t>236</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>238</t>
-  </si>
-  <si>
-    <t>239</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>241</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>244</t>
-  </si>
-  <si>
-    <t>245</t>
-  </si>
-  <si>
-    <t>246</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>248</t>
-  </si>
-  <si>
-    <t>249</t>
-  </si>
-  <si>
-    <t>250</t>
-  </si>
-  <si>
-    <t>251</t>
-  </si>
-  <si>
-    <t>252</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>254</t>
-  </si>
-  <si>
-    <t>255</t>
-  </si>
-  <si>
-    <t>256</t>
-  </si>
-  <si>
-    <t>257</t>
-  </si>
-  <si>
-    <t>258</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>261</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>263</t>
-  </si>
-  <si>
-    <t>264</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>266</t>
-  </si>
-  <si>
-    <t>267</t>
-  </si>
-  <si>
-    <t>268</t>
-  </si>
-  <si>
-    <t>269</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>271</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>273</t>
-  </si>
-  <si>
-    <t>274</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>276</t>
-  </si>
-  <si>
-    <t>277</t>
-  </si>
-  <si>
-    <t>278</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>280</t>
-  </si>
-  <si>
-    <t>polynomial</t>
   </si>
   <si>
     <t>radial</t>
@@ -946,7 +946,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.1854978354978355</v>
+        <v>0.18852813852813854</v>
       </c>
     </row>
   </sheetData>
@@ -982,7 +982,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n">
         <v>1.0</v>
@@ -1021,7 +1021,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
       </c>
       <c r="D2" t="n">
         <v>1.0</v>
@@ -1063,7 +1063,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C2" t="n">
         <v>1.0E-4</v>
@@ -1072,10 +1072,10 @@
         <v>1.0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="3">
@@ -1083,7 +1083,7 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C3" t="n">
         <v>1.0E-4</v>
@@ -1092,10 +1092,10 @@
         <v>1.0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F3" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="4">
@@ -1112,10 +1112,10 @@
         <v>1.0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F4" t="n">
-        <v>0.07863364910771571</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="5">
@@ -1132,10 +1132,10 @@
         <v>1.0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="6">
@@ -1143,7 +1143,7 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C6" t="n">
         <v>0.001</v>
@@ -1152,10 +1152,10 @@
         <v>1.0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F6" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="7">
@@ -1163,7 +1163,7 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>0.001</v>
@@ -1172,10 +1172,10 @@
         <v>1.0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="8">
@@ -1192,10 +1192,10 @@
         <v>1.0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F8" t="n">
-        <v>0.07863364910771571</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="9">
@@ -1212,10 +1212,10 @@
         <v>1.0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F9" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="10">
@@ -1223,7 +1223,7 @@
         <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C10" t="n">
         <v>0.01</v>
@@ -1232,10 +1232,10 @@
         <v>1.0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.22683982683982684</v>
+        <v>0.22142857142857142</v>
       </c>
       <c r="F10" t="n">
-        <v>0.07875800881016291</v>
+        <v>0.11402930299741328</v>
       </c>
     </row>
     <row r="11">
@@ -1243,7 +1243,7 @@
         <v>17</v>
       </c>
       <c r="B11" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>0.01</v>
@@ -1252,10 +1252,10 @@
         <v>1.0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F11" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="12">
@@ -1272,10 +1272,10 @@
         <v>1.0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F12" t="n">
-        <v>0.07863364910771571</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="13">
@@ -1292,10 +1292,10 @@
         <v>1.0</v>
       </c>
       <c r="E13" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="14">
@@ -1303,7 +1303,7 @@
         <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C14" t="n">
         <v>0.1</v>
@@ -1312,10 +1312,10 @@
         <v>1.0</v>
       </c>
       <c r="E14" t="n">
-        <v>0.22705627705627704</v>
+        <v>0.21190476190476193</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0923828073922993</v>
+        <v>0.07583964495778409</v>
       </c>
     </row>
     <row r="15">
@@ -1323,7 +1323,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
         <v>0.1</v>
@@ -1332,10 +1332,10 @@
         <v>1.0</v>
       </c>
       <c r="E15" t="n">
-        <v>0.26406926406926406</v>
+        <v>0.25303030303030305</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07851439672770098</v>
+        <v>0.14655329669523326</v>
       </c>
     </row>
     <row r="16">
@@ -1352,10 +1352,10 @@
         <v>1.0</v>
       </c>
       <c r="E16" t="n">
-        <v>0.7816017316017316</v>
+        <v>0.854978354978355</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0711287745580161</v>
+        <v>0.09662185085711611</v>
       </c>
     </row>
     <row r="17">
@@ -1372,10 +1372,10 @@
         <v>1.0</v>
       </c>
       <c r="E17" t="n">
-        <v>0.29696969696969694</v>
+        <v>0.28051948051948056</v>
       </c>
       <c r="F17" t="n">
-        <v>0.07493749768541451</v>
+        <v>0.13438597367680075</v>
       </c>
     </row>
     <row r="18">
@@ -1383,7 +1383,7 @@
         <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -1392,18 +1392,18 @@
         <v>1.0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.2183982683982684</v>
+        <v>0.23463203463203464</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0846431362807338</v>
+        <v>0.11064255320371508</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -1412,15 +1412,15 @@
         <v>1.0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.22705627705627704</v>
+        <v>0.18852813852813854</v>
       </c>
       <c r="F19" t="n">
-        <v>0.0872714698864199</v>
+        <v>0.10744524210486732</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" t="s">
         <v>288</v>
@@ -1432,15 +1432,15 @@
         <v>1.0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.31471861471861473</v>
+        <v>0.2948051948051948</v>
       </c>
       <c r="F20" t="n">
-        <v>0.07956291752700727</v>
+        <v>0.11905330346304531</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B21" t="s">
         <v>289</v>
@@ -1452,18 +1452,18 @@
         <v>1.0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.2090909090909091</v>
+        <v>0.19329004329004332</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06911509954191769</v>
+        <v>0.14482606182031046</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C22" t="n">
         <v>2.0</v>
@@ -1472,18 +1472,18 @@
         <v>1.0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.18571428571428572</v>
+        <v>0.225974025974026</v>
       </c>
       <c r="F22" t="n">
-        <v>0.08865244691549598</v>
+        <v>0.09040493291848414</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C23" t="n">
         <v>2.0</v>
@@ -1492,15 +1492,15 @@
         <v>1.0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.2038961038961039</v>
+        <v>0.22121212121212122</v>
       </c>
       <c r="F23" t="n">
-        <v>0.07718236896034095</v>
+        <v>0.0883878139106488</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
         <v>288</v>
@@ -1512,15 +1512,15 @@
         <v>1.0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.29675324675324677</v>
+        <v>0.2995670995670996</v>
       </c>
       <c r="F24" t="n">
-        <v>0.07756350881190706</v>
+        <v>0.11589107444652003</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" t="s">
         <v>289</v>
@@ -1532,18 +1532,18 @@
         <v>1.0</v>
       </c>
       <c r="E25" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.2119047619047619</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08962886091353267</v>
+        <v>0.11643443534653704</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C26" t="n">
         <v>3.0</v>
@@ -1552,10 +1552,10 @@
         <v>1.0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.1854978354978355</v>
+        <v>0.22640692640692645</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08431408162309906</v>
+        <v>0.0714118073233506</v>
       </c>
     </row>
     <row r="27">
@@ -1563,7 +1563,7 @@
         <v>32</v>
       </c>
       <c r="B27" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C27" t="n">
         <v>3.0</v>
@@ -1572,10 +1572,10 @@
         <v>1.0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.19480519480519481</v>
+        <v>0.21190476190476193</v>
       </c>
       <c r="F27" t="n">
-        <v>0.07343729090908788</v>
+        <v>0.08685292508245561</v>
       </c>
     </row>
     <row r="28">
@@ -1592,10 +1592,10 @@
         <v>1.0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.2829004329004329</v>
+        <v>0.31363636363636366</v>
       </c>
       <c r="F28" t="n">
-        <v>0.08382490894685597</v>
+        <v>0.09003132204846707</v>
       </c>
     </row>
     <row r="29">
@@ -1612,10 +1612,10 @@
         <v>1.0</v>
       </c>
       <c r="E29" t="n">
-        <v>0.23225108225108226</v>
+        <v>0.19783549783549786</v>
       </c>
       <c r="F29" t="n">
-        <v>0.08897043026304868</v>
+        <v>0.0995576882433329</v>
       </c>
     </row>
     <row r="30">
@@ -1623,7 +1623,7 @@
         <v>35</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C30" t="n">
         <v>4.0</v>
@@ -1632,10 +1632,10 @@
         <v>1.0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.19025974025974027</v>
+        <v>0.21255411255411255</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08595523680743995</v>
+        <v>0.06736514341052467</v>
       </c>
     </row>
     <row r="31">
@@ -1643,7 +1643,7 @@
         <v>36</v>
       </c>
       <c r="B31" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C31" t="n">
         <v>4.0</v>
@@ -1652,10 +1652,10 @@
         <v>1.0</v>
       </c>
       <c r="E31" t="n">
-        <v>0.22294372294372294</v>
+        <v>0.21190476190476193</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08367542211214432</v>
+        <v>0.08416824681912688</v>
       </c>
     </row>
     <row r="32">
@@ -1672,10 +1672,10 @@
         <v>1.0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.295021645021645</v>
       </c>
       <c r="F32" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.09115527033190844</v>
       </c>
     </row>
     <row r="33">
@@ -1692,10 +1692,10 @@
         <v>1.0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.2222943722943723</v>
+        <v>0.24891774891774893</v>
       </c>
       <c r="F33" t="n">
-        <v>0.07437444176486062</v>
+        <v>0.08644168832700742</v>
       </c>
     </row>
     <row r="34">
@@ -1703,7 +1703,7 @@
         <v>39</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C34" t="n">
         <v>5.0</v>
@@ -1712,10 +1712,10 @@
         <v>1.0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.20865800865800865</v>
+        <v>0.21255411255411255</v>
       </c>
       <c r="F34" t="n">
-        <v>0.0955066396248308</v>
+        <v>0.06736514341052467</v>
       </c>
     </row>
     <row r="35">
@@ -1723,7 +1723,7 @@
         <v>40</v>
       </c>
       <c r="B35" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C35" t="n">
         <v>5.0</v>
@@ -1732,10 +1732,10 @@
         <v>1.0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.22316017316017314</v>
+        <v>0.21666666666666667</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08173969528493416</v>
+        <v>0.0892064962607264</v>
       </c>
     </row>
     <row r="36">
@@ -1752,10 +1752,10 @@
         <v>1.0</v>
       </c>
       <c r="E36" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.2902597402597403</v>
       </c>
       <c r="F36" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.09819542649838088</v>
       </c>
     </row>
     <row r="37">
@@ -1772,10 +1772,10 @@
         <v>1.0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.24545454545454545</v>
+        <v>0.25346320346320345</v>
       </c>
       <c r="F37" t="n">
-        <v>0.11010488703531818</v>
+        <v>0.08143343115284893</v>
       </c>
     </row>
     <row r="38">
@@ -1783,7 +1783,7 @@
         <v>43</v>
       </c>
       <c r="B38" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C38" t="n">
         <v>6.0</v>
@@ -1792,10 +1792,10 @@
         <v>1.0</v>
       </c>
       <c r="E38" t="n">
-        <v>0.2038961038961039</v>
+        <v>0.2170995670995671</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09237350942138092</v>
+        <v>0.08478815428336689</v>
       </c>
     </row>
     <row r="39">
@@ -1803,7 +1803,7 @@
         <v>44</v>
       </c>
       <c r="B39" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C39" t="n">
         <v>6.0</v>
@@ -1812,10 +1812,10 @@
         <v>1.0</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2277056277056277</v>
+        <v>0.2119047619047619</v>
       </c>
       <c r="F39" t="n">
-        <v>0.0804387561028917</v>
+        <v>0.0994177205144104</v>
       </c>
     </row>
     <row r="40">
@@ -1832,10 +1832,10 @@
         <v>1.0</v>
       </c>
       <c r="E40" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.2807359307359307</v>
       </c>
       <c r="F40" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.10317737814006067</v>
       </c>
     </row>
     <row r="41">
@@ -1852,10 +1852,10 @@
         <v>1.0</v>
       </c>
       <c r="E41" t="n">
-        <v>0.2636363636363636</v>
+        <v>0.23463203463203464</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0904256598078871</v>
+        <v>0.1083414478102766</v>
       </c>
     </row>
     <row r="42">
@@ -1863,7 +1863,7 @@
         <v>47</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C42" t="n">
         <v>7.0</v>
@@ -1872,10 +1872,10 @@
         <v>1.0</v>
       </c>
       <c r="E42" t="n">
-        <v>0.2132034632034632</v>
+        <v>0.20779220779220778</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09493288143535906</v>
+        <v>0.08514319933043117</v>
       </c>
     </row>
     <row r="43">
@@ -1883,7 +1883,7 @@
         <v>48</v>
       </c>
       <c r="B43" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C43" t="n">
         <v>7.0</v>
@@ -1892,10 +1892,10 @@
         <v>1.0</v>
       </c>
       <c r="E43" t="n">
-        <v>0.237012987012987</v>
+        <v>0.21190476190476193</v>
       </c>
       <c r="F43" t="n">
-        <v>0.0709587798191093</v>
+        <v>0.09685028593902752</v>
       </c>
     </row>
     <row r="44">
@@ -1912,10 +1912,10 @@
         <v>1.0</v>
       </c>
       <c r="E44" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.2852813852813853</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.11022113165352447</v>
       </c>
     </row>
     <row r="45">
@@ -1932,10 +1932,10 @@
         <v>1.0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.25367965367965367</v>
+        <v>0.2300865800865801</v>
       </c>
       <c r="F45" t="n">
-        <v>0.11220577317526258</v>
+        <v>0.09601681072693295</v>
       </c>
     </row>
     <row r="46">
@@ -1943,7 +1943,7 @@
         <v>51</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C46" t="n">
         <v>8.0</v>
@@ -1952,10 +1952,10 @@
         <v>1.0</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2132034632034632</v>
+        <v>0.20324675324675323</v>
       </c>
       <c r="F46" t="n">
-        <v>0.09493288143535906</v>
+        <v>0.08520095679288947</v>
       </c>
     </row>
     <row r="47">
@@ -1963,7 +1963,7 @@
         <v>52</v>
       </c>
       <c r="B47" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C47" t="n">
         <v>8.0</v>
@@ -1972,10 +1972,10 @@
         <v>1.0</v>
       </c>
       <c r="E47" t="n">
-        <v>0.2461038961038961</v>
+        <v>0.22121212121212122</v>
       </c>
       <c r="F47" t="n">
-        <v>0.07215043289953103</v>
+        <v>0.09343810407670874</v>
       </c>
     </row>
     <row r="48">
@@ -1992,10 +1992,10 @@
         <v>1.0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.29004329004329005</v>
       </c>
       <c r="F48" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.10425123688537184</v>
       </c>
     </row>
     <row r="49">
@@ -2012,10 +2012,10 @@
         <v>1.0</v>
       </c>
       <c r="E49" t="n">
-        <v>0.24134199134199136</v>
+        <v>0.2577922077922078</v>
       </c>
       <c r="F49" t="n">
-        <v>0.09942190932358531</v>
+        <v>0.09103755324968327</v>
       </c>
     </row>
     <row r="50">
@@ -2023,7 +2023,7 @@
         <v>55</v>
       </c>
       <c r="B50" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C50" t="n">
         <v>9.0</v>
@@ -2032,10 +2032,10 @@
         <v>1.0</v>
       </c>
       <c r="E50" t="n">
-        <v>0.21774891774891775</v>
+        <v>0.20324675324675326</v>
       </c>
       <c r="F50" t="n">
-        <v>0.08935080781965954</v>
+        <v>0.07669284562528803</v>
       </c>
     </row>
     <row r="51">
@@ -2043,7 +2043,7 @@
         <v>56</v>
       </c>
       <c r="B51" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C51" t="n">
         <v>9.0</v>
@@ -2052,10 +2052,10 @@
         <v>1.0</v>
       </c>
       <c r="E51" t="n">
-        <v>0.23246753246753246</v>
+        <v>0.23961038961038963</v>
       </c>
       <c r="F51" t="n">
-        <v>0.08196070359634032</v>
+        <v>0.09804475401704556</v>
       </c>
     </row>
     <row r="52">
@@ -2072,10 +2072,10 @@
         <v>1.0</v>
       </c>
       <c r="E52" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.29004329004329005</v>
       </c>
       <c r="F52" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.10425123688537184</v>
       </c>
     </row>
     <row r="53">
@@ -2092,10 +2092,10 @@
         <v>1.0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.26883116883116887</v>
+        <v>0.22575757575757577</v>
       </c>
       <c r="F53" t="n">
-        <v>0.10761637364107829</v>
+        <v>0.07297543781676631</v>
       </c>
     </row>
     <row r="54">
@@ -2103,7 +2103,7 @@
         <v>59</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C54" t="n">
         <v>10.0</v>
@@ -2112,10 +2112,10 @@
         <v>1.0</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2225108225108225</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="F54" t="n">
-        <v>0.09179122618665676</v>
+        <v>0.08514319933043117</v>
       </c>
     </row>
     <row r="55">
@@ -2123,7 +2123,7 @@
         <v>60</v>
       </c>
       <c r="B55" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C55" t="n">
         <v>10.0</v>
@@ -2132,10 +2132,10 @@
         <v>1.0</v>
       </c>
       <c r="E55" t="n">
-        <v>0.2277056277056277</v>
+        <v>0.24393939393939396</v>
       </c>
       <c r="F55" t="n">
-        <v>0.07988026412892496</v>
+        <v>0.11344345613365105</v>
       </c>
     </row>
     <row r="56">
@@ -2152,10 +2152,10 @@
         <v>1.0</v>
       </c>
       <c r="E56" t="n">
-        <v>0.2829004329004329</v>
+        <v>0.29956709956709954</v>
       </c>
       <c r="F56" t="n">
-        <v>0.06812777964978076</v>
+        <v>0.09306072821813513</v>
       </c>
     </row>
     <row r="57">
@@ -2172,10 +2172,10 @@
         <v>1.0</v>
       </c>
       <c r="E57" t="n">
-        <v>0.2686147186147186</v>
+        <v>0.24415584415584415</v>
       </c>
       <c r="F57" t="n">
-        <v>0.10021045051681858</v>
+        <v>0.0909537442728936</v>
       </c>
     </row>
     <row r="58">
@@ -2183,7 +2183,7 @@
         <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C58" t="n">
         <v>1.0E-4</v>
@@ -2192,10 +2192,10 @@
         <v>2.0</v>
       </c>
       <c r="E58" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F58" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="59">
@@ -2203,7 +2203,7 @@
         <v>64</v>
       </c>
       <c r="B59" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C59" t="n">
         <v>1.0E-4</v>
@@ -2212,10 +2212,10 @@
         <v>2.0</v>
       </c>
       <c r="E59" t="n">
-        <v>0.9119047619047619</v>
+        <v>0.9300865800865801</v>
       </c>
       <c r="F59" t="n">
-        <v>0.03452740930055125</v>
+        <v>0.03980762131196544</v>
       </c>
     </row>
     <row r="60">
@@ -2232,10 +2232,10 @@
         <v>2.0</v>
       </c>
       <c r="E60" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F60" t="n">
-        <v>0.07863364910771571</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="61">
@@ -2252,10 +2252,10 @@
         <v>2.0</v>
       </c>
       <c r="E61" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F61" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="62">
@@ -2263,7 +2263,7 @@
         <v>67</v>
       </c>
       <c r="B62" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C62" t="n">
         <v>0.001</v>
@@ -2272,10 +2272,10 @@
         <v>2.0</v>
       </c>
       <c r="E62" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F62" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="63">
@@ -2283,7 +2283,7 @@
         <v>68</v>
       </c>
       <c r="B63" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C63" t="n">
         <v>0.001</v>
@@ -2292,10 +2292,10 @@
         <v>2.0</v>
       </c>
       <c r="E63" t="n">
-        <v>0.9119047619047619</v>
+        <v>0.9300865800865801</v>
       </c>
       <c r="F63" t="n">
-        <v>0.03452740930055125</v>
+        <v>0.03980762131196544</v>
       </c>
     </row>
     <row r="64">
@@ -2312,10 +2312,10 @@
         <v>2.0</v>
       </c>
       <c r="E64" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F64" t="n">
-        <v>0.07863364910771571</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="65">
@@ -2332,10 +2332,10 @@
         <v>2.0</v>
       </c>
       <c r="E65" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F65" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="66">
@@ -2343,7 +2343,7 @@
         <v>71</v>
       </c>
       <c r="B66" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C66" t="n">
         <v>0.01</v>
@@ -2352,10 +2352,10 @@
         <v>2.0</v>
       </c>
       <c r="E66" t="n">
-        <v>0.22683982683982684</v>
+        <v>0.22142857142857142</v>
       </c>
       <c r="F66" t="n">
-        <v>0.07875800881016291</v>
+        <v>0.11402930299741328</v>
       </c>
     </row>
     <row r="67">
@@ -2363,7 +2363,7 @@
         <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C67" t="n">
         <v>0.01</v>
@@ -2372,10 +2372,10 @@
         <v>2.0</v>
       </c>
       <c r="E67" t="n">
-        <v>0.9119047619047619</v>
+        <v>0.9300865800865801</v>
       </c>
       <c r="F67" t="n">
-        <v>0.03452740930055125</v>
+        <v>0.03980762131196544</v>
       </c>
     </row>
     <row r="68">
@@ -2392,10 +2392,10 @@
         <v>2.0</v>
       </c>
       <c r="E68" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F68" t="n">
-        <v>0.07863364910771571</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="69">
@@ -2412,10 +2412,10 @@
         <v>2.0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F69" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="70">
@@ -2423,7 +2423,7 @@
         <v>75</v>
       </c>
       <c r="B70" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C70" t="n">
         <v>0.1</v>
@@ -2432,10 +2432,10 @@
         <v>2.0</v>
       </c>
       <c r="E70" t="n">
-        <v>0.22705627705627704</v>
+        <v>0.21190476190476193</v>
       </c>
       <c r="F70" t="n">
-        <v>0.0923828073922993</v>
+        <v>0.07583964495778409</v>
       </c>
     </row>
     <row r="71">
@@ -2443,7 +2443,7 @@
         <v>76</v>
       </c>
       <c r="B71" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C71" t="n">
         <v>0.1</v>
@@ -2452,10 +2452,10 @@
         <v>2.0</v>
       </c>
       <c r="E71" t="n">
-        <v>0.9119047619047619</v>
+        <v>0.9300865800865801</v>
       </c>
       <c r="F71" t="n">
-        <v>0.03452740930055125</v>
+        <v>0.03980762131196544</v>
       </c>
     </row>
     <row r="72">
@@ -2472,10 +2472,10 @@
         <v>2.0</v>
       </c>
       <c r="E72" t="n">
-        <v>0.7816017316017316</v>
+        <v>0.854978354978355</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0711287745580161</v>
+        <v>0.09662185085711611</v>
       </c>
     </row>
     <row r="73">
@@ -2492,10 +2492,10 @@
         <v>2.0</v>
       </c>
       <c r="E73" t="n">
-        <v>0.29696969696969694</v>
+        <v>0.28051948051948056</v>
       </c>
       <c r="F73" t="n">
-        <v>0.07493749768541451</v>
+        <v>0.13438597367680075</v>
       </c>
     </row>
     <row r="74">
@@ -2503,7 +2503,7 @@
         <v>79</v>
       </c>
       <c r="B74" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C74" t="n">
         <v>1.0</v>
@@ -2512,10 +2512,10 @@
         <v>2.0</v>
       </c>
       <c r="E74" t="n">
-        <v>0.2183982683982684</v>
+        <v>0.23463203463203464</v>
       </c>
       <c r="F74" t="n">
-        <v>0.0846431362807338</v>
+        <v>0.11064255320371508</v>
       </c>
     </row>
     <row r="75">
@@ -2523,7 +2523,7 @@
         <v>80</v>
       </c>
       <c r="B75" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C75" t="n">
         <v>1.0</v>
@@ -2532,10 +2532,10 @@
         <v>2.0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.4590909090909091</v>
+        <v>0.4344155844155844</v>
       </c>
       <c r="F75" t="n">
-        <v>0.12925721168415258</v>
+        <v>0.09317169902468941</v>
       </c>
     </row>
     <row r="76">
@@ -2552,10 +2552,10 @@
         <v>2.0</v>
       </c>
       <c r="E76" t="n">
-        <v>0.31471861471861473</v>
+        <v>0.2948051948051948</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07956291752700727</v>
+        <v>0.11905330346304531</v>
       </c>
     </row>
     <row r="77">
@@ -2572,10 +2572,10 @@
         <v>2.0</v>
       </c>
       <c r="E77" t="n">
-        <v>0.2090909090909091</v>
+        <v>0.19329004329004332</v>
       </c>
       <c r="F77" t="n">
-        <v>0.06911509954191769</v>
+        <v>0.14482606182031046</v>
       </c>
     </row>
     <row r="78">
@@ -2583,7 +2583,7 @@
         <v>83</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C78" t="n">
         <v>2.0</v>
@@ -2592,10 +2592,10 @@
         <v>2.0</v>
       </c>
       <c r="E78" t="n">
-        <v>0.18571428571428572</v>
+        <v>0.225974025974026</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08865244691549598</v>
+        <v>0.09040493291848414</v>
       </c>
     </row>
     <row r="79">
@@ -2603,7 +2603,7 @@
         <v>84</v>
       </c>
       <c r="B79" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C79" t="n">
         <v>2.0</v>
@@ -2612,10 +2612,10 @@
         <v>2.0</v>
       </c>
       <c r="E79" t="n">
-        <v>0.4588744588744589</v>
+        <v>0.4487012987012987</v>
       </c>
       <c r="F79" t="n">
-        <v>0.11706112965285463</v>
+        <v>0.06897826133805719</v>
       </c>
     </row>
     <row r="80">
@@ -2632,10 +2632,10 @@
         <v>2.0</v>
       </c>
       <c r="E80" t="n">
-        <v>0.29675324675324677</v>
+        <v>0.2995670995670996</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07756350881190706</v>
+        <v>0.11589107444652003</v>
       </c>
     </row>
     <row r="81">
@@ -2652,10 +2652,10 @@
         <v>2.0</v>
       </c>
       <c r="E81" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.2119047619047619</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08962886091353267</v>
+        <v>0.11643443534653704</v>
       </c>
     </row>
     <row r="82">
@@ -2663,7 +2663,7 @@
         <v>87</v>
       </c>
       <c r="B82" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C82" t="n">
         <v>3.0</v>
@@ -2672,10 +2672,10 @@
         <v>2.0</v>
       </c>
       <c r="E82" t="n">
-        <v>0.1854978354978355</v>
+        <v>0.22640692640692645</v>
       </c>
       <c r="F82" t="n">
-        <v>0.08431408162309906</v>
+        <v>0.0714118073233506</v>
       </c>
     </row>
     <row r="83">
@@ -2683,7 +2683,7 @@
         <v>88</v>
       </c>
       <c r="B83" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C83" t="n">
         <v>3.0</v>
@@ -2692,10 +2692,10 @@
         <v>2.0</v>
       </c>
       <c r="E83" t="n">
-        <v>0.4448051948051948</v>
+        <v>0.42554112554112555</v>
       </c>
       <c r="F83" t="n">
-        <v>0.12393967030855532</v>
+        <v>0.08020154768126402</v>
       </c>
     </row>
     <row r="84">
@@ -2712,10 +2712,10 @@
         <v>2.0</v>
       </c>
       <c r="E84" t="n">
-        <v>0.2829004329004329</v>
+        <v>0.31363636363636366</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08382490894685597</v>
+        <v>0.09003132204846707</v>
       </c>
     </row>
     <row r="85">
@@ -2732,10 +2732,10 @@
         <v>2.0</v>
       </c>
       <c r="E85" t="n">
-        <v>0.23225108225108226</v>
+        <v>0.19783549783549786</v>
       </c>
       <c r="F85" t="n">
-        <v>0.08897043026304868</v>
+        <v>0.0995576882433329</v>
       </c>
     </row>
     <row r="86">
@@ -2743,7 +2743,7 @@
         <v>91</v>
       </c>
       <c r="B86" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C86" t="n">
         <v>4.0</v>
@@ -2752,10 +2752,10 @@
         <v>2.0</v>
       </c>
       <c r="E86" t="n">
-        <v>0.19025974025974027</v>
+        <v>0.21255411255411255</v>
       </c>
       <c r="F86" t="n">
-        <v>0.08595523680743995</v>
+        <v>0.06736514341052467</v>
       </c>
     </row>
     <row r="87">
@@ -2763,7 +2763,7 @@
         <v>92</v>
       </c>
       <c r="B87" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C87" t="n">
         <v>4.0</v>
@@ -2772,10 +2772,10 @@
         <v>2.0</v>
       </c>
       <c r="E87" t="n">
-        <v>0.4257575757575758</v>
+        <v>0.42554112554112555</v>
       </c>
       <c r="F87" t="n">
-        <v>0.11008053573253346</v>
+        <v>0.08912914252869342</v>
       </c>
     </row>
     <row r="88">
@@ -2792,10 +2792,10 @@
         <v>2.0</v>
       </c>
       <c r="E88" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.295021645021645</v>
       </c>
       <c r="F88" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.09115527033190844</v>
       </c>
     </row>
     <row r="89">
@@ -2812,10 +2812,10 @@
         <v>2.0</v>
       </c>
       <c r="E89" t="n">
-        <v>0.2222943722943723</v>
+        <v>0.24891774891774893</v>
       </c>
       <c r="F89" t="n">
-        <v>0.07437444176486062</v>
+        <v>0.08644168832700742</v>
       </c>
     </row>
     <row r="90">
@@ -2823,7 +2823,7 @@
         <v>95</v>
       </c>
       <c r="B90" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C90" t="n">
         <v>5.0</v>
@@ -2832,10 +2832,10 @@
         <v>2.0</v>
       </c>
       <c r="E90" t="n">
-        <v>0.20865800865800865</v>
+        <v>0.21255411255411255</v>
       </c>
       <c r="F90" t="n">
-        <v>0.0955066396248308</v>
+        <v>0.06736514341052467</v>
       </c>
     </row>
     <row r="91">
@@ -2843,7 +2843,7 @@
         <v>96</v>
       </c>
       <c r="B91" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C91" t="n">
         <v>5.0</v>
@@ -2852,10 +2852,10 @@
         <v>2.0</v>
       </c>
       <c r="E91" t="n">
-        <v>0.4303030303030303</v>
+        <v>0.43917748917748917</v>
       </c>
       <c r="F91" t="n">
-        <v>0.10835874385264438</v>
+        <v>0.09108900175613507</v>
       </c>
     </row>
     <row r="92">
@@ -2872,10 +2872,10 @@
         <v>2.0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.2902597402597403</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.09819542649838088</v>
       </c>
     </row>
     <row r="93">
@@ -2892,10 +2892,10 @@
         <v>2.0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.24545454545454545</v>
+        <v>0.25346320346320345</v>
       </c>
       <c r="F93" t="n">
-        <v>0.11010488703531818</v>
+        <v>0.08143343115284893</v>
       </c>
     </row>
     <row r="94">
@@ -2903,7 +2903,7 @@
         <v>99</v>
       </c>
       <c r="B94" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C94" t="n">
         <v>6.0</v>
@@ -2912,10 +2912,10 @@
         <v>2.0</v>
       </c>
       <c r="E94" t="n">
-        <v>0.2038961038961039</v>
+        <v>0.2170995670995671</v>
       </c>
       <c r="F94" t="n">
-        <v>0.09237350942138092</v>
+        <v>0.08478815428336689</v>
       </c>
     </row>
     <row r="95">
@@ -2923,7 +2923,7 @@
         <v>100</v>
       </c>
       <c r="B95" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C95" t="n">
         <v>6.0</v>
@@ -2932,10 +2932,10 @@
         <v>2.0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.4448051948051948</v>
+        <v>0.4253246753246753</v>
       </c>
       <c r="F95" t="n">
-        <v>0.10960282290009943</v>
+        <v>0.0824928095245</v>
       </c>
     </row>
     <row r="96">
@@ -2952,10 +2952,10 @@
         <v>2.0</v>
       </c>
       <c r="E96" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.2807359307359307</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.10317737814006067</v>
       </c>
     </row>
     <row r="97">
@@ -2972,10 +2972,10 @@
         <v>2.0</v>
       </c>
       <c r="E97" t="n">
-        <v>0.2636363636363636</v>
+        <v>0.23463203463203464</v>
       </c>
       <c r="F97" t="n">
-        <v>0.0904256598078871</v>
+        <v>0.1083414478102766</v>
       </c>
     </row>
     <row r="98">
@@ -2983,7 +2983,7 @@
         <v>103</v>
       </c>
       <c r="B98" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C98" t="n">
         <v>7.0</v>
@@ -2992,10 +2992,10 @@
         <v>2.0</v>
       </c>
       <c r="E98" t="n">
-        <v>0.2132034632034632</v>
+        <v>0.20779220779220778</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09493288143535906</v>
+        <v>0.08514319933043117</v>
       </c>
     </row>
     <row r="99">
@@ -3003,7 +3003,7 @@
         <v>104</v>
       </c>
       <c r="B99" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C99" t="n">
         <v>7.0</v>
@@ -3012,10 +3012,10 @@
         <v>2.0</v>
       </c>
       <c r="E99" t="n">
-        <v>0.4538961038961039</v>
+        <v>0.4393939393939394</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09189466668406869</v>
+        <v>0.08446182179891425</v>
       </c>
     </row>
     <row r="100">
@@ -3032,10 +3032,10 @@
         <v>2.0</v>
       </c>
       <c r="E100" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.2852813852813853</v>
       </c>
       <c r="F100" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.11022113165352447</v>
       </c>
     </row>
     <row r="101">
@@ -3052,10 +3052,10 @@
         <v>2.0</v>
       </c>
       <c r="E101" t="n">
-        <v>0.25367965367965367</v>
+        <v>0.2300865800865801</v>
       </c>
       <c r="F101" t="n">
-        <v>0.11220577317526258</v>
+        <v>0.09601681072693295</v>
       </c>
     </row>
     <row r="102">
@@ -3063,7 +3063,7 @@
         <v>107</v>
       </c>
       <c r="B102" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C102" t="n">
         <v>8.0</v>
@@ -3072,10 +3072,10 @@
         <v>2.0</v>
       </c>
       <c r="E102" t="n">
-        <v>0.2132034632034632</v>
+        <v>0.20324675324675323</v>
       </c>
       <c r="F102" t="n">
-        <v>0.09493288143535906</v>
+        <v>0.08520095679288947</v>
       </c>
     </row>
     <row r="103">
@@ -3083,7 +3083,7 @@
         <v>108</v>
       </c>
       <c r="B103" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C103" t="n">
         <v>8.0</v>
@@ -3092,10 +3092,10 @@
         <v>2.0</v>
       </c>
       <c r="E103" t="n">
-        <v>0.44935064935064933</v>
+        <v>0.4344155844155844</v>
       </c>
       <c r="F103" t="n">
-        <v>0.08789999199208981</v>
+        <v>0.10583237608689247</v>
       </c>
     </row>
     <row r="104">
@@ -3112,10 +3112,10 @@
         <v>2.0</v>
       </c>
       <c r="E104" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.29004329004329005</v>
       </c>
       <c r="F104" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.10425123688537184</v>
       </c>
     </row>
     <row r="105">
@@ -3132,10 +3132,10 @@
         <v>2.0</v>
       </c>
       <c r="E105" t="n">
-        <v>0.24134199134199136</v>
+        <v>0.2577922077922078</v>
       </c>
       <c r="F105" t="n">
-        <v>0.09942190932358531</v>
+        <v>0.09103755324968327</v>
       </c>
     </row>
     <row r="106">
@@ -3143,7 +3143,7 @@
         <v>111</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C106" t="n">
         <v>9.0</v>
@@ -3152,10 +3152,10 @@
         <v>2.0</v>
       </c>
       <c r="E106" t="n">
-        <v>0.21774891774891775</v>
+        <v>0.20324675324675326</v>
       </c>
       <c r="F106" t="n">
-        <v>0.08935080781965954</v>
+        <v>0.07669284562528803</v>
       </c>
     </row>
     <row r="107">
@@ -3163,7 +3163,7 @@
         <v>112</v>
       </c>
       <c r="B107" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C107" t="n">
         <v>9.0</v>
@@ -3172,10 +3172,10 @@
         <v>2.0</v>
       </c>
       <c r="E107" t="n">
-        <v>0.4536796536796537</v>
+        <v>0.4253246753246753</v>
       </c>
       <c r="F107" t="n">
-        <v>0.08581431431635235</v>
+        <v>0.09891272301917868</v>
       </c>
     </row>
     <row r="108">
@@ -3192,10 +3192,10 @@
         <v>2.0</v>
       </c>
       <c r="E108" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.29004329004329005</v>
       </c>
       <c r="F108" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.10425123688537184</v>
       </c>
     </row>
     <row r="109">
@@ -3212,10 +3212,10 @@
         <v>2.0</v>
       </c>
       <c r="E109" t="n">
-        <v>0.26883116883116887</v>
+        <v>0.22575757575757577</v>
       </c>
       <c r="F109" t="n">
-        <v>0.10761637364107829</v>
+        <v>0.07297543781676631</v>
       </c>
     </row>
     <row r="110">
@@ -3223,7 +3223,7 @@
         <v>115</v>
       </c>
       <c r="B110" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C110" t="n">
         <v>10.0</v>
@@ -3232,10 +3232,10 @@
         <v>2.0</v>
       </c>
       <c r="E110" t="n">
-        <v>0.2225108225108225</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="F110" t="n">
-        <v>0.09179122618665676</v>
+        <v>0.08514319933043117</v>
       </c>
     </row>
     <row r="111">
@@ -3243,7 +3243,7 @@
         <v>116</v>
       </c>
       <c r="B111" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C111" t="n">
         <v>10.0</v>
@@ -3252,10 +3252,10 @@
         <v>2.0</v>
       </c>
       <c r="E111" t="n">
-        <v>0.4582251082251082</v>
+        <v>0.4300865800865801</v>
       </c>
       <c r="F111" t="n">
-        <v>0.09464071028602929</v>
+        <v>0.10879623233344754</v>
       </c>
     </row>
     <row r="112">
@@ -3272,10 +3272,10 @@
         <v>2.0</v>
       </c>
       <c r="E112" t="n">
-        <v>0.2829004329004329</v>
+        <v>0.29956709956709954</v>
       </c>
       <c r="F112" t="n">
-        <v>0.06812777964978076</v>
+        <v>0.09306072821813513</v>
       </c>
     </row>
     <row r="113">
@@ -3292,10 +3292,10 @@
         <v>2.0</v>
       </c>
       <c r="E113" t="n">
-        <v>0.2686147186147186</v>
+        <v>0.24415584415584415</v>
       </c>
       <c r="F113" t="n">
-        <v>0.10021045051681858</v>
+        <v>0.0909537442728936</v>
       </c>
     </row>
     <row r="114">
@@ -3303,7 +3303,7 @@
         <v>119</v>
       </c>
       <c r="B114" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C114" t="n">
         <v>1.0E-4</v>
@@ -3312,10 +3312,10 @@
         <v>3.0</v>
       </c>
       <c r="E114" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F114" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="115">
@@ -3323,7 +3323,7 @@
         <v>120</v>
       </c>
       <c r="B115" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C115" t="n">
         <v>1.0E-4</v>
@@ -3332,10 +3332,10 @@
         <v>3.0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9346320346320347</v>
       </c>
       <c r="F115" t="n">
-        <v>0.028972544019136025</v>
+        <v>0.03346705808981176</v>
       </c>
     </row>
     <row r="116">
@@ -3352,10 +3352,10 @@
         <v>3.0</v>
       </c>
       <c r="E116" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F116" t="n">
-        <v>0.07863364910771571</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="117">
@@ -3372,10 +3372,10 @@
         <v>3.0</v>
       </c>
       <c r="E117" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F117" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="118">
@@ -3383,7 +3383,7 @@
         <v>123</v>
       </c>
       <c r="B118" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C118" t="n">
         <v>0.001</v>
@@ -3392,10 +3392,10 @@
         <v>3.0</v>
       </c>
       <c r="E118" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F118" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="119">
@@ -3403,7 +3403,7 @@
         <v>124</v>
       </c>
       <c r="B119" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C119" t="n">
         <v>0.001</v>
@@ -3412,10 +3412,10 @@
         <v>3.0</v>
       </c>
       <c r="E119" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9346320346320347</v>
       </c>
       <c r="F119" t="n">
-        <v>0.028972544019136025</v>
+        <v>0.03346705808981176</v>
       </c>
     </row>
     <row r="120">
@@ -3432,10 +3432,10 @@
         <v>3.0</v>
       </c>
       <c r="E120" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F120" t="n">
-        <v>0.07863364910771571</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="121">
@@ -3452,10 +3452,10 @@
         <v>3.0</v>
       </c>
       <c r="E121" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F121" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="122">
@@ -3463,7 +3463,7 @@
         <v>127</v>
       </c>
       <c r="B122" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C122" t="n">
         <v>0.01</v>
@@ -3472,10 +3472,10 @@
         <v>3.0</v>
       </c>
       <c r="E122" t="n">
-        <v>0.22683982683982684</v>
+        <v>0.22142857142857142</v>
       </c>
       <c r="F122" t="n">
-        <v>0.07875800881016291</v>
+        <v>0.11402930299741328</v>
       </c>
     </row>
     <row r="123">
@@ -3483,7 +3483,7 @@
         <v>128</v>
       </c>
       <c r="B123" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C123" t="n">
         <v>0.01</v>
@@ -3492,10 +3492,10 @@
         <v>3.0</v>
       </c>
       <c r="E123" t="n">
-        <v>0.9166666666666666</v>
+        <v>0.9346320346320347</v>
       </c>
       <c r="F123" t="n">
-        <v>0.028972544019136025</v>
+        <v>0.03346705808981176</v>
       </c>
     </row>
     <row r="124">
@@ -3512,10 +3512,10 @@
         <v>3.0</v>
       </c>
       <c r="E124" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F124" t="n">
-        <v>0.07863364910771571</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="125">
@@ -3532,10 +3532,10 @@
         <v>3.0</v>
       </c>
       <c r="E125" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F125" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="126">
@@ -3543,7 +3543,7 @@
         <v>131</v>
       </c>
       <c r="B126" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C126" t="n">
         <v>0.1</v>
@@ -3552,10 +3552,10 @@
         <v>3.0</v>
       </c>
       <c r="E126" t="n">
-        <v>0.22705627705627704</v>
+        <v>0.21190476190476193</v>
       </c>
       <c r="F126" t="n">
-        <v>0.0923828073922993</v>
+        <v>0.07583964495778409</v>
       </c>
     </row>
     <row r="127">
@@ -3563,7 +3563,7 @@
         <v>132</v>
       </c>
       <c r="B127" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C127" t="n">
         <v>0.1</v>
@@ -3572,10 +3572,10 @@
         <v>3.0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.8937229437229437</v>
+        <v>0.9155844155844156</v>
       </c>
       <c r="F127" t="n">
-        <v>0.04765674750603418</v>
+        <v>0.06708792898186626</v>
       </c>
     </row>
     <row r="128">
@@ -3592,10 +3592,10 @@
         <v>3.0</v>
       </c>
       <c r="E128" t="n">
-        <v>0.7816017316017316</v>
+        <v>0.854978354978355</v>
       </c>
       <c r="F128" t="n">
-        <v>0.0711287745580161</v>
+        <v>0.09662185085711611</v>
       </c>
     </row>
     <row r="129">
@@ -3612,10 +3612,10 @@
         <v>3.0</v>
       </c>
       <c r="E129" t="n">
-        <v>0.29696969696969694</v>
+        <v>0.28051948051948056</v>
       </c>
       <c r="F129" t="n">
-        <v>0.07493749768541451</v>
+        <v>0.13438597367680075</v>
       </c>
     </row>
     <row r="130">
@@ -3623,7 +3623,7 @@
         <v>135</v>
       </c>
       <c r="B130" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C130" t="n">
         <v>1.0</v>
@@ -3632,10 +3632,10 @@
         <v>3.0</v>
       </c>
       <c r="E130" t="n">
-        <v>0.2183982683982684</v>
+        <v>0.23463203463203464</v>
       </c>
       <c r="F130" t="n">
-        <v>0.0846431362807338</v>
+        <v>0.11064255320371508</v>
       </c>
     </row>
     <row r="131">
@@ -3643,7 +3643,7 @@
         <v>136</v>
       </c>
       <c r="B131" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C131" t="n">
         <v>1.0</v>
@@ -3652,10 +3652,10 @@
         <v>3.0</v>
       </c>
       <c r="E131" t="n">
-        <v>0.37554112554112556</v>
+        <v>0.3692640692640693</v>
       </c>
       <c r="F131" t="n">
-        <v>0.12070536721157755</v>
+        <v>0.09013966980864761</v>
       </c>
     </row>
     <row r="132">
@@ -3672,10 +3672,10 @@
         <v>3.0</v>
       </c>
       <c r="E132" t="n">
-        <v>0.31471861471861473</v>
+        <v>0.2948051948051948</v>
       </c>
       <c r="F132" t="n">
-        <v>0.07956291752700727</v>
+        <v>0.11905330346304531</v>
       </c>
     </row>
     <row r="133">
@@ -3692,10 +3692,10 @@
         <v>3.0</v>
       </c>
       <c r="E133" t="n">
-        <v>0.2090909090909091</v>
+        <v>0.19329004329004332</v>
       </c>
       <c r="F133" t="n">
-        <v>0.06911509954191769</v>
+        <v>0.14482606182031046</v>
       </c>
     </row>
     <row r="134">
@@ -3703,7 +3703,7 @@
         <v>139</v>
       </c>
       <c r="B134" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C134" t="n">
         <v>2.0</v>
@@ -3712,10 +3712,10 @@
         <v>3.0</v>
       </c>
       <c r="E134" t="n">
-        <v>0.18571428571428572</v>
+        <v>0.225974025974026</v>
       </c>
       <c r="F134" t="n">
-        <v>0.08865244691549598</v>
+        <v>0.09040493291848414</v>
       </c>
     </row>
     <row r="135">
@@ -3723,7 +3723,7 @@
         <v>140</v>
       </c>
       <c r="B135" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C135" t="n">
         <v>2.0</v>
@@ -3732,10 +3732,10 @@
         <v>3.0</v>
       </c>
       <c r="E135" t="n">
-        <v>0.34350649350649354</v>
+        <v>0.33181818181818185</v>
       </c>
       <c r="F135" t="n">
-        <v>0.11548993333430005</v>
+        <v>0.1039764900659527</v>
       </c>
     </row>
     <row r="136">
@@ -3752,10 +3752,10 @@
         <v>3.0</v>
       </c>
       <c r="E136" t="n">
-        <v>0.29675324675324677</v>
+        <v>0.2995670995670996</v>
       </c>
       <c r="F136" t="n">
-        <v>0.07756350881190706</v>
+        <v>0.11589107444652003</v>
       </c>
     </row>
     <row r="137">
@@ -3772,10 +3772,10 @@
         <v>3.0</v>
       </c>
       <c r="E137" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.2119047619047619</v>
       </c>
       <c r="F137" t="n">
-        <v>0.08962886091353267</v>
+        <v>0.11643443534653704</v>
       </c>
     </row>
     <row r="138">
@@ -3783,7 +3783,7 @@
         <v>143</v>
       </c>
       <c r="B138" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C138" t="n">
         <v>3.0</v>
@@ -3792,10 +3792,10 @@
         <v>3.0</v>
       </c>
       <c r="E138" t="n">
-        <v>0.1854978354978355</v>
+        <v>0.22640692640692645</v>
       </c>
       <c r="F138" t="n">
-        <v>0.08431408162309906</v>
+        <v>0.0714118073233506</v>
       </c>
     </row>
     <row r="139">
@@ -3803,7 +3803,7 @@
         <v>144</v>
       </c>
       <c r="B139" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C139" t="n">
         <v>3.0</v>
@@ -3812,10 +3812,10 @@
         <v>3.0</v>
       </c>
       <c r="E139" t="n">
-        <v>0.33874458874458874</v>
+        <v>0.3367965367965368</v>
       </c>
       <c r="F139" t="n">
-        <v>0.08985074179119797</v>
+        <v>0.08724014867926048</v>
       </c>
     </row>
     <row r="140">
@@ -3832,10 +3832,10 @@
         <v>3.0</v>
       </c>
       <c r="E140" t="n">
-        <v>0.2829004329004329</v>
+        <v>0.31363636363636366</v>
       </c>
       <c r="F140" t="n">
-        <v>0.08382490894685597</v>
+        <v>0.09003132204846707</v>
       </c>
     </row>
     <row r="141">
@@ -3852,10 +3852,10 @@
         <v>3.0</v>
       </c>
       <c r="E141" t="n">
-        <v>0.23225108225108226</v>
+        <v>0.19783549783549786</v>
       </c>
       <c r="F141" t="n">
-        <v>0.08897043026304868</v>
+        <v>0.0995576882433329</v>
       </c>
     </row>
     <row r="142">
@@ -3863,7 +3863,7 @@
         <v>147</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C142" t="n">
         <v>4.0</v>
@@ -3872,10 +3872,10 @@
         <v>3.0</v>
       </c>
       <c r="E142" t="n">
-        <v>0.19025974025974027</v>
+        <v>0.21255411255411255</v>
       </c>
       <c r="F142" t="n">
-        <v>0.08595523680743995</v>
+        <v>0.06736514341052467</v>
       </c>
     </row>
     <row r="143">
@@ -3883,7 +3883,7 @@
         <v>148</v>
       </c>
       <c r="B143" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C143" t="n">
         <v>4.0</v>
@@ -3892,10 +3892,10 @@
         <v>3.0</v>
       </c>
       <c r="E143" t="n">
-        <v>0.3294372294372295</v>
+        <v>0.33203463203463207</v>
       </c>
       <c r="F143" t="n">
-        <v>0.08758317436995074</v>
+        <v>0.08662937509984564</v>
       </c>
     </row>
     <row r="144">
@@ -3912,10 +3912,10 @@
         <v>3.0</v>
       </c>
       <c r="E144" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.295021645021645</v>
       </c>
       <c r="F144" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.09115527033190844</v>
       </c>
     </row>
     <row r="145">
@@ -3932,10 +3932,10 @@
         <v>3.0</v>
       </c>
       <c r="E145" t="n">
-        <v>0.2222943722943723</v>
+        <v>0.24891774891774893</v>
       </c>
       <c r="F145" t="n">
-        <v>0.07437444176486062</v>
+        <v>0.08644168832700742</v>
       </c>
     </row>
     <row r="146">
@@ -3943,7 +3943,7 @@
         <v>151</v>
       </c>
       <c r="B146" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C146" t="n">
         <v>5.0</v>
@@ -3952,10 +3952,10 @@
         <v>3.0</v>
       </c>
       <c r="E146" t="n">
-        <v>0.20865800865800865</v>
+        <v>0.21255411255411255</v>
       </c>
       <c r="F146" t="n">
-        <v>0.0955066396248308</v>
+        <v>0.06736514341052467</v>
       </c>
     </row>
     <row r="147">
@@ -3963,7 +3963,7 @@
         <v>152</v>
       </c>
       <c r="B147" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C147" t="n">
         <v>5.0</v>
@@ -3972,10 +3972,10 @@
         <v>3.0</v>
       </c>
       <c r="E147" t="n">
-        <v>0.3246753246753247</v>
+        <v>0.34112554112554117</v>
       </c>
       <c r="F147" t="n">
-        <v>0.09094344159647176</v>
+        <v>0.089728702686889</v>
       </c>
     </row>
     <row r="148">
@@ -3992,10 +3992,10 @@
         <v>3.0</v>
       </c>
       <c r="E148" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.2902597402597403</v>
       </c>
       <c r="F148" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.09819542649838088</v>
       </c>
     </row>
     <row r="149">
@@ -4012,10 +4012,10 @@
         <v>3.0</v>
       </c>
       <c r="E149" t="n">
-        <v>0.24545454545454545</v>
+        <v>0.25346320346320345</v>
       </c>
       <c r="F149" t="n">
-        <v>0.11010488703531818</v>
+        <v>0.08143343115284893</v>
       </c>
     </row>
     <row r="150">
@@ -4023,7 +4023,7 @@
         <v>155</v>
       </c>
       <c r="B150" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C150" t="n">
         <v>6.0</v>
@@ -4032,10 +4032,10 @@
         <v>3.0</v>
       </c>
       <c r="E150" t="n">
-        <v>0.2038961038961039</v>
+        <v>0.2170995670995671</v>
       </c>
       <c r="F150" t="n">
-        <v>0.09237350942138092</v>
+        <v>0.08478815428336689</v>
       </c>
     </row>
     <row r="151">
@@ -4043,7 +4043,7 @@
         <v>156</v>
       </c>
       <c r="B151" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C151" t="n">
         <v>6.0</v>
@@ -4052,10 +4052,10 @@
         <v>3.0</v>
       </c>
       <c r="E151" t="n">
-        <v>0.32922077922077925</v>
+        <v>0.33203463203463207</v>
       </c>
       <c r="F151" t="n">
-        <v>0.1014546494701278</v>
+        <v>0.0899893926086484</v>
       </c>
     </row>
     <row r="152">
@@ -4072,10 +4072,10 @@
         <v>3.0</v>
       </c>
       <c r="E152" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.2807359307359307</v>
       </c>
       <c r="F152" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.10317737814006067</v>
       </c>
     </row>
     <row r="153">
@@ -4092,10 +4092,10 @@
         <v>3.0</v>
       </c>
       <c r="E153" t="n">
-        <v>0.2636363636363636</v>
+        <v>0.23463203463203464</v>
       </c>
       <c r="F153" t="n">
-        <v>0.0904256598078871</v>
+        <v>0.1083414478102766</v>
       </c>
     </row>
     <row r="154">
@@ -4103,7 +4103,7 @@
         <v>159</v>
       </c>
       <c r="B154" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C154" t="n">
         <v>7.0</v>
@@ -4112,10 +4112,10 @@
         <v>3.0</v>
       </c>
       <c r="E154" t="n">
-        <v>0.2132034632034632</v>
+        <v>0.20779220779220778</v>
       </c>
       <c r="F154" t="n">
-        <v>0.09493288143535906</v>
+        <v>0.08514319933043117</v>
       </c>
     </row>
     <row r="155">
@@ -4123,7 +4123,7 @@
         <v>160</v>
       </c>
       <c r="B155" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C155" t="n">
         <v>7.0</v>
@@ -4132,10 +4132,10 @@
         <v>3.0</v>
       </c>
       <c r="E155" t="n">
-        <v>0.32445887445887445</v>
+        <v>0.3365800865800866</v>
       </c>
       <c r="F155" t="n">
-        <v>0.09730608226602705</v>
+        <v>0.09530502917062188</v>
       </c>
     </row>
     <row r="156">
@@ -4152,10 +4152,10 @@
         <v>3.0</v>
       </c>
       <c r="E156" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.2852813852813853</v>
       </c>
       <c r="F156" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.11022113165352447</v>
       </c>
     </row>
     <row r="157">
@@ -4172,10 +4172,10 @@
         <v>3.0</v>
       </c>
       <c r="E157" t="n">
-        <v>0.25367965367965367</v>
+        <v>0.2300865800865801</v>
       </c>
       <c r="F157" t="n">
-        <v>0.11220577317526258</v>
+        <v>0.09601681072693295</v>
       </c>
     </row>
     <row r="158">
@@ -4183,7 +4183,7 @@
         <v>163</v>
       </c>
       <c r="B158" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C158" t="n">
         <v>8.0</v>
@@ -4192,10 +4192,10 @@
         <v>3.0</v>
       </c>
       <c r="E158" t="n">
-        <v>0.2132034632034632</v>
+        <v>0.20324675324675323</v>
       </c>
       <c r="F158" t="n">
-        <v>0.09493288143535906</v>
+        <v>0.08520095679288947</v>
       </c>
     </row>
     <row r="159">
@@ -4203,7 +4203,7 @@
         <v>164</v>
       </c>
       <c r="B159" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C159" t="n">
         <v>8.0</v>
@@ -4212,10 +4212,10 @@
         <v>3.0</v>
       </c>
       <c r="E159" t="n">
-        <v>0.3199134199134199</v>
+        <v>0.33203463203463207</v>
       </c>
       <c r="F159" t="n">
-        <v>0.09868378704260346</v>
+        <v>0.09495453874154641</v>
       </c>
     </row>
     <row r="160">
@@ -4232,10 +4232,10 @@
         <v>3.0</v>
       </c>
       <c r="E160" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.29004329004329005</v>
       </c>
       <c r="F160" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.10425123688537184</v>
       </c>
     </row>
     <row r="161">
@@ -4252,10 +4252,10 @@
         <v>3.0</v>
       </c>
       <c r="E161" t="n">
-        <v>0.24134199134199136</v>
+        <v>0.2577922077922078</v>
       </c>
       <c r="F161" t="n">
-        <v>0.09942190932358531</v>
+        <v>0.09103755324968327</v>
       </c>
     </row>
     <row r="162">
@@ -4263,7 +4263,7 @@
         <v>167</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C162" t="n">
         <v>9.0</v>
@@ -4272,10 +4272,10 @@
         <v>3.0</v>
       </c>
       <c r="E162" t="n">
-        <v>0.21774891774891775</v>
+        <v>0.20324675324675326</v>
       </c>
       <c r="F162" t="n">
-        <v>0.08935080781965954</v>
+        <v>0.07669284562528803</v>
       </c>
     </row>
     <row r="163">
@@ -4283,7 +4283,7 @@
         <v>168</v>
       </c>
       <c r="B163" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C163" t="n">
         <v>9.0</v>
@@ -4292,10 +4292,10 @@
         <v>3.0</v>
       </c>
       <c r="E163" t="n">
-        <v>0.3151515151515151</v>
+        <v>0.3458874458874459</v>
       </c>
       <c r="F163" t="n">
-        <v>0.09653668868909482</v>
+        <v>0.08770196670749315</v>
       </c>
     </row>
     <row r="164">
@@ -4312,10 +4312,10 @@
         <v>3.0</v>
       </c>
       <c r="E164" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.29004329004329005</v>
       </c>
       <c r="F164" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.10425123688537184</v>
       </c>
     </row>
     <row r="165">
@@ -4332,10 +4332,10 @@
         <v>3.0</v>
       </c>
       <c r="E165" t="n">
-        <v>0.26883116883116887</v>
+        <v>0.22575757575757577</v>
       </c>
       <c r="F165" t="n">
-        <v>0.10761637364107829</v>
+        <v>0.07297543781676631</v>
       </c>
     </row>
     <row r="166">
@@ -4343,7 +4343,7 @@
         <v>171</v>
       </c>
       <c r="B166" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C166" t="n">
         <v>10.0</v>
@@ -4352,10 +4352,10 @@
         <v>3.0</v>
       </c>
       <c r="E166" t="n">
-        <v>0.2225108225108225</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="F166" t="n">
-        <v>0.09179122618665676</v>
+        <v>0.08514319933043117</v>
       </c>
     </row>
     <row r="167">
@@ -4363,7 +4363,7 @@
         <v>172</v>
       </c>
       <c r="B167" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C167" t="n">
         <v>10.0</v>
@@ -4372,10 +4372,10 @@
         <v>3.0</v>
       </c>
       <c r="E167" t="n">
-        <v>0.3196969696969697</v>
+        <v>0.3458874458874459</v>
       </c>
       <c r="F167" t="n">
-        <v>0.09561477174100771</v>
+        <v>0.08770196670749315</v>
       </c>
     </row>
     <row r="168">
@@ -4392,10 +4392,10 @@
         <v>3.0</v>
       </c>
       <c r="E168" t="n">
-        <v>0.2829004329004329</v>
+        <v>0.29956709956709954</v>
       </c>
       <c r="F168" t="n">
-        <v>0.06812777964978076</v>
+        <v>0.09306072821813513</v>
       </c>
     </row>
     <row r="169">
@@ -4412,10 +4412,10 @@
         <v>3.0</v>
       </c>
       <c r="E169" t="n">
-        <v>0.2686147186147186</v>
+        <v>0.24415584415584415</v>
       </c>
       <c r="F169" t="n">
-        <v>0.10021045051681858</v>
+        <v>0.0909537442728936</v>
       </c>
     </row>
     <row r="170">
@@ -4423,7 +4423,7 @@
         <v>175</v>
       </c>
       <c r="B170" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C170" t="n">
         <v>1.0E-4</v>
@@ -4432,10 +4432,10 @@
         <v>4.0</v>
       </c>
       <c r="E170" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F170" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="171">
@@ -4443,7 +4443,7 @@
         <v>176</v>
       </c>
       <c r="B171" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C171" t="n">
         <v>1.0E-4</v>
@@ -4452,10 +4452,10 @@
         <v>4.0</v>
       </c>
       <c r="E171" t="n">
-        <v>0.9212121212121211</v>
+        <v>0.9346320346320347</v>
       </c>
       <c r="F171" t="n">
-        <v>0.02259115425603551</v>
+        <v>0.03346705808981176</v>
       </c>
     </row>
     <row r="172">
@@ -4472,10 +4472,10 @@
         <v>4.0</v>
       </c>
       <c r="E172" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F172" t="n">
-        <v>0.07863364910771571</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="173">
@@ -4492,10 +4492,10 @@
         <v>4.0</v>
       </c>
       <c r="E173" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F173" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="174">
@@ -4503,7 +4503,7 @@
         <v>179</v>
       </c>
       <c r="B174" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C174" t="n">
         <v>0.001</v>
@@ -4512,10 +4512,10 @@
         <v>4.0</v>
       </c>
       <c r="E174" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F174" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="175">
@@ -4523,7 +4523,7 @@
         <v>180</v>
       </c>
       <c r="B175" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C175" t="n">
         <v>0.001</v>
@@ -4532,10 +4532,10 @@
         <v>4.0</v>
       </c>
       <c r="E175" t="n">
-        <v>0.9212121212121211</v>
+        <v>0.9346320346320347</v>
       </c>
       <c r="F175" t="n">
-        <v>0.02259115425603551</v>
+        <v>0.03346705808981176</v>
       </c>
     </row>
     <row r="176">
@@ -4552,10 +4552,10 @@
         <v>4.0</v>
       </c>
       <c r="E176" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F176" t="n">
-        <v>0.07863364910771571</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="177">
@@ -4572,10 +4572,10 @@
         <v>4.0</v>
       </c>
       <c r="E177" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F177" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="178">
@@ -4583,7 +4583,7 @@
         <v>183</v>
       </c>
       <c r="B178" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C178" t="n">
         <v>0.01</v>
@@ -4592,10 +4592,10 @@
         <v>4.0</v>
       </c>
       <c r="E178" t="n">
-        <v>0.22683982683982684</v>
+        <v>0.22142857142857142</v>
       </c>
       <c r="F178" t="n">
-        <v>0.07875800881016291</v>
+        <v>0.11402930299741328</v>
       </c>
     </row>
     <row r="179">
@@ -4603,7 +4603,7 @@
         <v>184</v>
       </c>
       <c r="B179" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C179" t="n">
         <v>0.01</v>
@@ -4612,10 +4612,10 @@
         <v>4.0</v>
       </c>
       <c r="E179" t="n">
-        <v>0.9212121212121211</v>
+        <v>0.9346320346320347</v>
       </c>
       <c r="F179" t="n">
-        <v>0.02259115425603551</v>
+        <v>0.03346705808981176</v>
       </c>
     </row>
     <row r="180">
@@ -4632,10 +4632,10 @@
         <v>4.0</v>
       </c>
       <c r="E180" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F180" t="n">
-        <v>0.07863364910771571</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="181">
@@ -4652,10 +4652,10 @@
         <v>4.0</v>
       </c>
       <c r="E181" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F181" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="182">
@@ -4663,7 +4663,7 @@
         <v>187</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C182" t="n">
         <v>0.1</v>
@@ -4672,10 +4672,10 @@
         <v>4.0</v>
       </c>
       <c r="E182" t="n">
-        <v>0.22705627705627704</v>
+        <v>0.21190476190476193</v>
       </c>
       <c r="F182" t="n">
-        <v>0.0923828073922993</v>
+        <v>0.07583964495778409</v>
       </c>
     </row>
     <row r="183">
@@ -4683,7 +4683,7 @@
         <v>188</v>
       </c>
       <c r="B183" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C183" t="n">
         <v>0.1</v>
@@ -4692,10 +4692,10 @@
         <v>4.0</v>
       </c>
       <c r="E183" t="n">
-        <v>0.9121212121212121</v>
+        <v>0.9158008658008658</v>
       </c>
       <c r="F183" t="n">
-        <v>0.03350436808812009</v>
+        <v>0.054428610431181364</v>
       </c>
     </row>
     <row r="184">
@@ -4712,10 +4712,10 @@
         <v>4.0</v>
       </c>
       <c r="E184" t="n">
-        <v>0.7816017316017316</v>
+        <v>0.854978354978355</v>
       </c>
       <c r="F184" t="n">
-        <v>0.0711287745580161</v>
+        <v>0.09662185085711611</v>
       </c>
     </row>
     <row r="185">
@@ -4732,10 +4732,10 @@
         <v>4.0</v>
       </c>
       <c r="E185" t="n">
-        <v>0.29696969696969694</v>
+        <v>0.28051948051948056</v>
       </c>
       <c r="F185" t="n">
-        <v>0.07493749768541451</v>
+        <v>0.13438597367680075</v>
       </c>
     </row>
     <row r="186">
@@ -4743,7 +4743,7 @@
         <v>191</v>
       </c>
       <c r="B186" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C186" t="n">
         <v>1.0</v>
@@ -4752,10 +4752,10 @@
         <v>4.0</v>
       </c>
       <c r="E186" t="n">
-        <v>0.2183982683982684</v>
+        <v>0.23463203463203464</v>
       </c>
       <c r="F186" t="n">
-        <v>0.0846431362807338</v>
+        <v>0.11064255320371508</v>
       </c>
     </row>
     <row r="187">
@@ -4763,7 +4763,7 @@
         <v>192</v>
       </c>
       <c r="B187" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C187" t="n">
         <v>1.0</v>
@@ -4772,10 +4772,10 @@
         <v>4.0</v>
       </c>
       <c r="E187" t="n">
-        <v>0.5928571428571429</v>
+        <v>0.591991341991342</v>
       </c>
       <c r="F187" t="n">
-        <v>0.12053791918848773</v>
+        <v>0.10594642969400013</v>
       </c>
     </row>
     <row r="188">
@@ -4792,10 +4792,10 @@
         <v>4.0</v>
       </c>
       <c r="E188" t="n">
-        <v>0.31471861471861473</v>
+        <v>0.2948051948051948</v>
       </c>
       <c r="F188" t="n">
-        <v>0.07956291752700727</v>
+        <v>0.11905330346304531</v>
       </c>
     </row>
     <row r="189">
@@ -4812,10 +4812,10 @@
         <v>4.0</v>
       </c>
       <c r="E189" t="n">
-        <v>0.2090909090909091</v>
+        <v>0.19329004329004332</v>
       </c>
       <c r="F189" t="n">
-        <v>0.06911509954191769</v>
+        <v>0.14482606182031046</v>
       </c>
     </row>
     <row r="190">
@@ -4823,7 +4823,7 @@
         <v>195</v>
       </c>
       <c r="B190" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C190" t="n">
         <v>2.0</v>
@@ -4832,10 +4832,10 @@
         <v>4.0</v>
       </c>
       <c r="E190" t="n">
-        <v>0.18571428571428572</v>
+        <v>0.225974025974026</v>
       </c>
       <c r="F190" t="n">
-        <v>0.08865244691549598</v>
+        <v>0.09040493291848414</v>
       </c>
     </row>
     <row r="191">
@@ -4843,7 +4843,7 @@
         <v>196</v>
       </c>
       <c r="B191" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C191" t="n">
         <v>2.0</v>
@@ -4852,10 +4852,10 @@
         <v>4.0</v>
       </c>
       <c r="E191" t="n">
-        <v>0.4958874458874459</v>
+        <v>0.5452380952380952</v>
       </c>
       <c r="F191" t="n">
-        <v>0.13899875716643895</v>
+        <v>0.10708125679737163</v>
       </c>
     </row>
     <row r="192">
@@ -4872,10 +4872,10 @@
         <v>4.0</v>
       </c>
       <c r="E192" t="n">
-        <v>0.29675324675324677</v>
+        <v>0.2995670995670996</v>
       </c>
       <c r="F192" t="n">
-        <v>0.07756350881190706</v>
+        <v>0.11589107444652003</v>
       </c>
     </row>
     <row r="193">
@@ -4892,10 +4892,10 @@
         <v>4.0</v>
       </c>
       <c r="E193" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.2119047619047619</v>
       </c>
       <c r="F193" t="n">
-        <v>0.08962886091353267</v>
+        <v>0.11643443534653704</v>
       </c>
     </row>
     <row r="194">
@@ -4903,7 +4903,7 @@
         <v>199</v>
       </c>
       <c r="B194" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C194" t="n">
         <v>3.0</v>
@@ -4912,10 +4912,10 @@
         <v>4.0</v>
       </c>
       <c r="E194" t="n">
-        <v>0.1854978354978355</v>
+        <v>0.22640692640692645</v>
       </c>
       <c r="F194" t="n">
-        <v>0.08431408162309906</v>
+        <v>0.0714118073233506</v>
       </c>
     </row>
     <row r="195">
@@ -4923,7 +4923,7 @@
         <v>200</v>
       </c>
       <c r="B195" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C195" t="n">
         <v>3.0</v>
@@ -4932,10 +4932,10 @@
         <v>4.0</v>
       </c>
       <c r="E195" t="n">
-        <v>0.4777056277056277</v>
+        <v>0.4993506493506493</v>
       </c>
       <c r="F195" t="n">
-        <v>0.12519669625087887</v>
+        <v>0.10010962259986823</v>
       </c>
     </row>
     <row r="196">
@@ -4952,10 +4952,10 @@
         <v>4.0</v>
       </c>
       <c r="E196" t="n">
-        <v>0.2829004329004329</v>
+        <v>0.31363636363636366</v>
       </c>
       <c r="F196" t="n">
-        <v>0.08382490894685597</v>
+        <v>0.09003132204846707</v>
       </c>
     </row>
     <row r="197">
@@ -4972,10 +4972,10 @@
         <v>4.0</v>
       </c>
       <c r="E197" t="n">
-        <v>0.23225108225108226</v>
+        <v>0.19783549783549786</v>
       </c>
       <c r="F197" t="n">
-        <v>0.08897043026304868</v>
+        <v>0.0995576882433329</v>
       </c>
     </row>
     <row r="198">
@@ -4983,7 +4983,7 @@
         <v>203</v>
       </c>
       <c r="B198" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C198" t="n">
         <v>4.0</v>
@@ -4992,10 +4992,10 @@
         <v>4.0</v>
       </c>
       <c r="E198" t="n">
-        <v>0.19025974025974027</v>
+        <v>0.21255411255411255</v>
       </c>
       <c r="F198" t="n">
-        <v>0.08595523680743995</v>
+        <v>0.06736514341052467</v>
       </c>
     </row>
     <row r="199">
@@ -5003,7 +5003,7 @@
         <v>204</v>
       </c>
       <c r="B199" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C199" t="n">
         <v>4.0</v>
@@ -5012,10 +5012,10 @@
         <v>4.0</v>
       </c>
       <c r="E199" t="n">
-        <v>0.47294372294372294</v>
+        <v>0.4948051948051948</v>
       </c>
       <c r="F199" t="n">
-        <v>0.1383147180546175</v>
+        <v>0.10686592397036573</v>
       </c>
     </row>
     <row r="200">
@@ -5032,10 +5032,10 @@
         <v>4.0</v>
       </c>
       <c r="E200" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.295021645021645</v>
       </c>
       <c r="F200" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.09115527033190844</v>
       </c>
     </row>
     <row r="201">
@@ -5052,10 +5052,10 @@
         <v>4.0</v>
       </c>
       <c r="E201" t="n">
-        <v>0.2222943722943723</v>
+        <v>0.24891774891774893</v>
       </c>
       <c r="F201" t="n">
-        <v>0.07437444176486062</v>
+        <v>0.08644168832700742</v>
       </c>
     </row>
     <row r="202">
@@ -5063,7 +5063,7 @@
         <v>207</v>
       </c>
       <c r="B202" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C202" t="n">
         <v>5.0</v>
@@ -5072,10 +5072,10 @@
         <v>4.0</v>
       </c>
       <c r="E202" t="n">
-        <v>0.20865800865800865</v>
+        <v>0.21255411255411255</v>
       </c>
       <c r="F202" t="n">
-        <v>0.0955066396248308</v>
+        <v>0.06736514341052467</v>
       </c>
     </row>
     <row r="203">
@@ -5083,7 +5083,7 @@
         <v>208</v>
       </c>
       <c r="B203" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C203" t="n">
         <v>5.0</v>
@@ -5092,10 +5092,10 @@
         <v>4.0</v>
       </c>
       <c r="E203" t="n">
-        <v>0.467965367965368</v>
+        <v>0.48528138528138526</v>
       </c>
       <c r="F203" t="n">
-        <v>0.13113779264698688</v>
+        <v>0.10390011215612721</v>
       </c>
     </row>
     <row r="204">
@@ -5112,10 +5112,10 @@
         <v>4.0</v>
       </c>
       <c r="E204" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.2902597402597403</v>
       </c>
       <c r="F204" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.09819542649838088</v>
       </c>
     </row>
     <row r="205">
@@ -5132,10 +5132,10 @@
         <v>4.0</v>
       </c>
       <c r="E205" t="n">
-        <v>0.24545454545454545</v>
+        <v>0.25346320346320345</v>
       </c>
       <c r="F205" t="n">
-        <v>0.11010488703531818</v>
+        <v>0.08143343115284893</v>
       </c>
     </row>
     <row r="206">
@@ -5143,7 +5143,7 @@
         <v>211</v>
       </c>
       <c r="B206" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C206" t="n">
         <v>6.0</v>
@@ -5152,10 +5152,10 @@
         <v>4.0</v>
       </c>
       <c r="E206" t="n">
-        <v>0.2038961038961039</v>
+        <v>0.2170995670995671</v>
       </c>
       <c r="F206" t="n">
-        <v>0.09237350942138092</v>
+        <v>0.08478815428336689</v>
       </c>
     </row>
     <row r="207">
@@ -5163,7 +5163,7 @@
         <v>212</v>
       </c>
       <c r="B207" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C207" t="n">
         <v>6.0</v>
@@ -5172,10 +5172,10 @@
         <v>4.0</v>
       </c>
       <c r="E207" t="n">
-        <v>0.4632034632034632</v>
+        <v>0.48528138528138526</v>
       </c>
       <c r="F207" t="n">
-        <v>0.1297417996709323</v>
+        <v>0.09704546788869768</v>
       </c>
     </row>
     <row r="208">
@@ -5192,10 +5192,10 @@
         <v>4.0</v>
       </c>
       <c r="E208" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.2807359307359307</v>
       </c>
       <c r="F208" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.10317737814006067</v>
       </c>
     </row>
     <row r="209">
@@ -5212,10 +5212,10 @@
         <v>4.0</v>
       </c>
       <c r="E209" t="n">
-        <v>0.2636363636363636</v>
+        <v>0.23463203463203464</v>
       </c>
       <c r="F209" t="n">
-        <v>0.0904256598078871</v>
+        <v>0.1083414478102766</v>
       </c>
     </row>
     <row r="210">
@@ -5223,7 +5223,7 @@
         <v>215</v>
       </c>
       <c r="B210" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C210" t="n">
         <v>7.0</v>
@@ -5232,10 +5232,10 @@
         <v>4.0</v>
       </c>
       <c r="E210" t="n">
-        <v>0.2132034632034632</v>
+        <v>0.20779220779220778</v>
       </c>
       <c r="F210" t="n">
-        <v>0.09493288143535906</v>
+        <v>0.08514319933043117</v>
       </c>
     </row>
     <row r="211">
@@ -5243,7 +5243,7 @@
         <v>216</v>
       </c>
       <c r="B211" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C211" t="n">
         <v>7.0</v>
@@ -5252,10 +5252,10 @@
         <v>4.0</v>
       </c>
       <c r="E211" t="n">
-        <v>0.4536796536796537</v>
+        <v>0.4896103896103896</v>
       </c>
       <c r="F211" t="n">
-        <v>0.14488769272531749</v>
+        <v>0.10225882439586263</v>
       </c>
     </row>
     <row r="212">
@@ -5272,10 +5272,10 @@
         <v>4.0</v>
       </c>
       <c r="E212" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.2852813852813853</v>
       </c>
       <c r="F212" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.11022113165352447</v>
       </c>
     </row>
     <row r="213">
@@ -5292,10 +5292,10 @@
         <v>4.0</v>
       </c>
       <c r="E213" t="n">
-        <v>0.25367965367965367</v>
+        <v>0.2300865800865801</v>
       </c>
       <c r="F213" t="n">
-        <v>0.11220577317526258</v>
+        <v>0.09601681072693295</v>
       </c>
     </row>
     <row r="214">
@@ -5303,7 +5303,7 @@
         <v>219</v>
       </c>
       <c r="B214" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C214" t="n">
         <v>8.0</v>
@@ -5312,10 +5312,10 @@
         <v>4.0</v>
       </c>
       <c r="E214" t="n">
-        <v>0.2132034632034632</v>
+        <v>0.20324675324675323</v>
       </c>
       <c r="F214" t="n">
-        <v>0.09493288143535906</v>
+        <v>0.08520095679288947</v>
       </c>
     </row>
     <row r="215">
@@ -5323,7 +5323,7 @@
         <v>220</v>
       </c>
       <c r="B215" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C215" t="n">
         <v>8.0</v>
@@ -5332,10 +5332,10 @@
         <v>4.0</v>
       </c>
       <c r="E215" t="n">
-        <v>0.4627705627705628</v>
+        <v>0.48008658008658006</v>
       </c>
       <c r="F215" t="n">
-        <v>0.13305694008912464</v>
+        <v>0.09905235325739392</v>
       </c>
     </row>
     <row r="216">
@@ -5352,10 +5352,10 @@
         <v>4.0</v>
       </c>
       <c r="E216" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.29004329004329005</v>
       </c>
       <c r="F216" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.10425123688537184</v>
       </c>
     </row>
     <row r="217">
@@ -5372,10 +5372,10 @@
         <v>4.0</v>
       </c>
       <c r="E217" t="n">
-        <v>0.24134199134199136</v>
+        <v>0.2577922077922078</v>
       </c>
       <c r="F217" t="n">
-        <v>0.09942190932358531</v>
+        <v>0.09103755324968327</v>
       </c>
     </row>
     <row r="218">
@@ -5383,7 +5383,7 @@
         <v>223</v>
       </c>
       <c r="B218" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C218" t="n">
         <v>9.0</v>
@@ -5392,10 +5392,10 @@
         <v>4.0</v>
       </c>
       <c r="E218" t="n">
-        <v>0.21774891774891775</v>
+        <v>0.20324675324675326</v>
       </c>
       <c r="F218" t="n">
-        <v>0.08935080781965954</v>
+        <v>0.07669284562528803</v>
       </c>
     </row>
     <row r="219">
@@ -5403,7 +5403,7 @@
         <v>224</v>
       </c>
       <c r="B219" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C219" t="n">
         <v>9.0</v>
@@ -5412,10 +5412,10 @@
         <v>4.0</v>
       </c>
       <c r="E219" t="n">
-        <v>0.4536796536796537</v>
+        <v>0.4844155844155844</v>
       </c>
       <c r="F219" t="n">
-        <v>0.11566176412572125</v>
+        <v>0.11526321221796179</v>
       </c>
     </row>
     <row r="220">
@@ -5432,10 +5432,10 @@
         <v>4.0</v>
       </c>
       <c r="E220" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.29004329004329005</v>
       </c>
       <c r="F220" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.10425123688537184</v>
       </c>
     </row>
     <row r="221">
@@ -5452,10 +5452,10 @@
         <v>4.0</v>
       </c>
       <c r="E221" t="n">
-        <v>0.26883116883116887</v>
+        <v>0.22575757575757577</v>
       </c>
       <c r="F221" t="n">
-        <v>0.10761637364107829</v>
+        <v>0.07297543781676631</v>
       </c>
     </row>
     <row r="222">
@@ -5463,7 +5463,7 @@
         <v>227</v>
       </c>
       <c r="B222" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C222" t="n">
         <v>10.0</v>
@@ -5472,10 +5472,10 @@
         <v>4.0</v>
       </c>
       <c r="E222" t="n">
-        <v>0.2225108225108225</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="F222" t="n">
-        <v>0.09179122618665676</v>
+        <v>0.08514319933043117</v>
       </c>
     </row>
     <row r="223">
@@ -5483,7 +5483,7 @@
         <v>228</v>
       </c>
       <c r="B223" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C223" t="n">
         <v>10.0</v>
@@ -5492,10 +5492,10 @@
         <v>4.0</v>
       </c>
       <c r="E223" t="n">
-        <v>0.4536796536796537</v>
+        <v>0.4844155844155844</v>
       </c>
       <c r="F223" t="n">
-        <v>0.11566176412572125</v>
+        <v>0.11526321221796179</v>
       </c>
     </row>
     <row r="224">
@@ -5512,10 +5512,10 @@
         <v>4.0</v>
       </c>
       <c r="E224" t="n">
-        <v>0.2829004329004329</v>
+        <v>0.29956709956709954</v>
       </c>
       <c r="F224" t="n">
-        <v>0.06812777964978076</v>
+        <v>0.09306072821813513</v>
       </c>
     </row>
     <row r="225">
@@ -5532,10 +5532,10 @@
         <v>4.0</v>
       </c>
       <c r="E225" t="n">
-        <v>0.2686147186147186</v>
+        <v>0.24415584415584415</v>
       </c>
       <c r="F225" t="n">
-        <v>0.10021045051681858</v>
+        <v>0.0909537442728936</v>
       </c>
     </row>
     <row r="226">
@@ -5543,7 +5543,7 @@
         <v>231</v>
       </c>
       <c r="B226" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C226" t="n">
         <v>1.0E-4</v>
@@ -5552,10 +5552,10 @@
         <v>5.0</v>
       </c>
       <c r="E226" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F226" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="227">
@@ -5563,7 +5563,7 @@
         <v>232</v>
       </c>
       <c r="B227" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C227" t="n">
         <v>1.0E-4</v>
@@ -5572,10 +5572,10 @@
         <v>5.0</v>
       </c>
       <c r="E227" t="n">
-        <v>0.9212121212121211</v>
+        <v>0.9346320346320347</v>
       </c>
       <c r="F227" t="n">
-        <v>0.02259115425603551</v>
+        <v>0.03346705808981176</v>
       </c>
     </row>
     <row r="228">
@@ -5592,10 +5592,10 @@
         <v>5.0</v>
       </c>
       <c r="E228" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F228" t="n">
-        <v>0.07863364910771571</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="229">
@@ -5612,10 +5612,10 @@
         <v>5.0</v>
       </c>
       <c r="E229" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F229" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="230">
@@ -5623,7 +5623,7 @@
         <v>235</v>
       </c>
       <c r="B230" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C230" t="n">
         <v>0.001</v>
@@ -5632,10 +5632,10 @@
         <v>5.0</v>
       </c>
       <c r="E230" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F230" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="231">
@@ -5643,7 +5643,7 @@
         <v>236</v>
       </c>
       <c r="B231" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C231" t="n">
         <v>0.001</v>
@@ -5652,10 +5652,10 @@
         <v>5.0</v>
       </c>
       <c r="E231" t="n">
-        <v>0.9212121212121211</v>
+        <v>0.9346320346320347</v>
       </c>
       <c r="F231" t="n">
-        <v>0.02259115425603551</v>
+        <v>0.03346705808981176</v>
       </c>
     </row>
     <row r="232">
@@ -5672,10 +5672,10 @@
         <v>5.0</v>
       </c>
       <c r="E232" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F232" t="n">
-        <v>0.07863364910771571</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="233">
@@ -5692,10 +5692,10 @@
         <v>5.0</v>
       </c>
       <c r="E233" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F233" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="234">
@@ -5703,7 +5703,7 @@
         <v>239</v>
       </c>
       <c r="B234" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C234" t="n">
         <v>0.01</v>
@@ -5712,10 +5712,10 @@
         <v>5.0</v>
       </c>
       <c r="E234" t="n">
-        <v>0.22683982683982684</v>
+        <v>0.22142857142857142</v>
       </c>
       <c r="F234" t="n">
-        <v>0.07875800881016291</v>
+        <v>0.11402930299741328</v>
       </c>
     </row>
     <row r="235">
@@ -5723,7 +5723,7 @@
         <v>240</v>
       </c>
       <c r="B235" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C235" t="n">
         <v>0.01</v>
@@ -5732,10 +5732,10 @@
         <v>5.0</v>
       </c>
       <c r="E235" t="n">
-        <v>0.9212121212121211</v>
+        <v>0.9391774891774892</v>
       </c>
       <c r="F235" t="n">
-        <v>0.02259115425603551</v>
+        <v>0.03908709765543969</v>
       </c>
     </row>
     <row r="236">
@@ -5752,10 +5752,10 @@
         <v>5.0</v>
       </c>
       <c r="E236" t="n">
-        <v>0.8787878787878788</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F236" t="n">
-        <v>0.07863364910771571</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="237">
@@ -5772,10 +5772,10 @@
         <v>5.0</v>
       </c>
       <c r="E237" t="n">
-        <v>0.8785714285714286</v>
+        <v>0.9019480519480519</v>
       </c>
       <c r="F237" t="n">
-        <v>0.07925645196253156</v>
+        <v>0.0683794672195053</v>
       </c>
     </row>
     <row r="238">
@@ -5783,7 +5783,7 @@
         <v>243</v>
       </c>
       <c r="B238" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C238" t="n">
         <v>0.1</v>
@@ -5792,10 +5792,10 @@
         <v>5.0</v>
       </c>
       <c r="E238" t="n">
-        <v>0.22705627705627704</v>
+        <v>0.21190476190476193</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0923828073922993</v>
+        <v>0.07583964495778409</v>
       </c>
     </row>
     <row r="239">
@@ -5803,7 +5803,7 @@
         <v>244</v>
       </c>
       <c r="B239" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C239" t="n">
         <v>0.1</v>
@@ -5812,10 +5812,10 @@
         <v>5.0</v>
       </c>
       <c r="E239" t="n">
-        <v>0.8932900432900432</v>
+        <v>0.9067099567099567</v>
       </c>
       <c r="F239" t="n">
-        <v>0.043970718888497906</v>
+        <v>0.054828833198636406</v>
       </c>
     </row>
     <row r="240">
@@ -5832,10 +5832,10 @@
         <v>5.0</v>
       </c>
       <c r="E240" t="n">
-        <v>0.7816017316017316</v>
+        <v>0.854978354978355</v>
       </c>
       <c r="F240" t="n">
-        <v>0.0711287745580161</v>
+        <v>0.09662185085711611</v>
       </c>
     </row>
     <row r="241">
@@ -5852,10 +5852,10 @@
         <v>5.0</v>
       </c>
       <c r="E241" t="n">
-        <v>0.29696969696969694</v>
+        <v>0.28051948051948056</v>
       </c>
       <c r="F241" t="n">
-        <v>0.07493749768541451</v>
+        <v>0.13438597367680075</v>
       </c>
     </row>
     <row r="242">
@@ -5863,7 +5863,7 @@
         <v>247</v>
       </c>
       <c r="B242" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C242" t="n">
         <v>1.0</v>
@@ -5872,10 +5872,10 @@
         <v>5.0</v>
       </c>
       <c r="E242" t="n">
-        <v>0.2183982683982684</v>
+        <v>0.23463203463203464</v>
       </c>
       <c r="F242" t="n">
-        <v>0.0846431362807338</v>
+        <v>0.11064255320371508</v>
       </c>
     </row>
     <row r="243">
@@ -5883,7 +5883,7 @@
         <v>248</v>
       </c>
       <c r="B243" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C243" t="n">
         <v>1.0</v>
@@ -5892,10 +5892,10 @@
         <v>5.0</v>
       </c>
       <c r="E243" t="n">
-        <v>0.6482683982683983</v>
+        <v>0.633982683982684</v>
       </c>
       <c r="F243" t="n">
-        <v>0.11985275857058157</v>
+        <v>0.0885269918814242</v>
       </c>
     </row>
     <row r="244">
@@ -5912,10 +5912,10 @@
         <v>5.0</v>
       </c>
       <c r="E244" t="n">
-        <v>0.31471861471861473</v>
+        <v>0.2948051948051948</v>
       </c>
       <c r="F244" t="n">
-        <v>0.07956291752700727</v>
+        <v>0.11905330346304531</v>
       </c>
     </row>
     <row r="245">
@@ -5932,10 +5932,10 @@
         <v>5.0</v>
       </c>
       <c r="E245" t="n">
-        <v>0.2090909090909091</v>
+        <v>0.19329004329004332</v>
       </c>
       <c r="F245" t="n">
-        <v>0.06911509954191769</v>
+        <v>0.14482606182031046</v>
       </c>
     </row>
     <row r="246">
@@ -5943,7 +5943,7 @@
         <v>251</v>
       </c>
       <c r="B246" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C246" t="n">
         <v>2.0</v>
@@ -5952,10 +5952,10 @@
         <v>5.0</v>
       </c>
       <c r="E246" t="n">
-        <v>0.18571428571428572</v>
+        <v>0.225974025974026</v>
       </c>
       <c r="F246" t="n">
-        <v>0.08865244691549598</v>
+        <v>0.09040493291848414</v>
       </c>
     </row>
     <row r="247">
@@ -5963,7 +5963,7 @@
         <v>252</v>
       </c>
       <c r="B247" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C247" t="n">
         <v>2.0</v>
@@ -5972,10 +5972,10 @@
         <v>5.0</v>
       </c>
       <c r="E247" t="n">
-        <v>0.5642857142857143</v>
+        <v>0.55995670995671</v>
       </c>
       <c r="F247" t="n">
-        <v>0.10351989165107457</v>
+        <v>0.08817701158798688</v>
       </c>
     </row>
     <row r="248">
@@ -5992,10 +5992,10 @@
         <v>5.0</v>
       </c>
       <c r="E248" t="n">
-        <v>0.29675324675324677</v>
+        <v>0.2995670995670996</v>
       </c>
       <c r="F248" t="n">
-        <v>0.07756350881190706</v>
+        <v>0.11589107444652003</v>
       </c>
     </row>
     <row r="249">
@@ -6012,10 +6012,10 @@
         <v>5.0</v>
       </c>
       <c r="E249" t="n">
-        <v>0.2272727272727273</v>
+        <v>0.2119047619047619</v>
       </c>
       <c r="F249" t="n">
-        <v>0.08962886091353267</v>
+        <v>0.11643443534653704</v>
       </c>
     </row>
     <row r="250">
@@ -6023,7 +6023,7 @@
         <v>255</v>
       </c>
       <c r="B250" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C250" t="n">
         <v>3.0</v>
@@ -6032,10 +6032,10 @@
         <v>5.0</v>
       </c>
       <c r="E250" t="n">
-        <v>0.1854978354978355</v>
+        <v>0.22640692640692645</v>
       </c>
       <c r="F250" t="n">
-        <v>0.08431408162309906</v>
+        <v>0.0714118073233506</v>
       </c>
     </row>
     <row r="251">
@@ -6043,7 +6043,7 @@
         <v>256</v>
       </c>
       <c r="B251" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C251" t="n">
         <v>3.0</v>
@@ -6052,10 +6052,10 @@
         <v>5.0</v>
       </c>
       <c r="E251" t="n">
-        <v>0.5413419913419913</v>
+        <v>0.5181818181818182</v>
       </c>
       <c r="F251" t="n">
-        <v>0.10119263038093064</v>
+        <v>0.08870762613201866</v>
       </c>
     </row>
     <row r="252">
@@ -6072,10 +6072,10 @@
         <v>5.0</v>
       </c>
       <c r="E252" t="n">
-        <v>0.2829004329004329</v>
+        <v>0.31363636363636366</v>
       </c>
       <c r="F252" t="n">
-        <v>0.08382490894685597</v>
+        <v>0.09003132204846707</v>
       </c>
     </row>
     <row r="253">
@@ -6092,10 +6092,10 @@
         <v>5.0</v>
       </c>
       <c r="E253" t="n">
-        <v>0.23225108225108226</v>
+        <v>0.19783549783549786</v>
       </c>
       <c r="F253" t="n">
-        <v>0.08897043026304868</v>
+        <v>0.0995576882433329</v>
       </c>
     </row>
     <row r="254">
@@ -6103,7 +6103,7 @@
         <v>259</v>
       </c>
       <c r="B254" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C254" t="n">
         <v>4.0</v>
@@ -6112,10 +6112,10 @@
         <v>5.0</v>
       </c>
       <c r="E254" t="n">
-        <v>0.19025974025974027</v>
+        <v>0.21255411255411255</v>
       </c>
       <c r="F254" t="n">
-        <v>0.08595523680743995</v>
+        <v>0.06736514341052467</v>
       </c>
     </row>
     <row r="255">
@@ -6123,7 +6123,7 @@
         <v>260</v>
       </c>
       <c r="B255" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C255" t="n">
         <v>4.0</v>
@@ -6132,10 +6132,10 @@
         <v>5.0</v>
       </c>
       <c r="E255" t="n">
-        <v>0.5138528138528138</v>
+        <v>0.5093073593073593</v>
       </c>
       <c r="F255" t="n">
-        <v>0.1009183256544951</v>
+        <v>0.09614142631334043</v>
       </c>
     </row>
     <row r="256">
@@ -6152,10 +6152,10 @@
         <v>5.0</v>
       </c>
       <c r="E256" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.295021645021645</v>
       </c>
       <c r="F256" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.09115527033190844</v>
       </c>
     </row>
     <row r="257">
@@ -6172,10 +6172,10 @@
         <v>5.0</v>
       </c>
       <c r="E257" t="n">
-        <v>0.2222943722943723</v>
+        <v>0.24891774891774893</v>
       </c>
       <c r="F257" t="n">
-        <v>0.07437444176486062</v>
+        <v>0.08644168832700742</v>
       </c>
     </row>
     <row r="258">
@@ -6183,7 +6183,7 @@
         <v>263</v>
       </c>
       <c r="B258" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C258" t="n">
         <v>5.0</v>
@@ -6192,10 +6192,10 @@
         <v>5.0</v>
       </c>
       <c r="E258" t="n">
-        <v>0.20865800865800865</v>
+        <v>0.21255411255411255</v>
       </c>
       <c r="F258" t="n">
-        <v>0.0955066396248308</v>
+        <v>0.06736514341052467</v>
       </c>
     </row>
     <row r="259">
@@ -6203,7 +6203,7 @@
         <v>264</v>
       </c>
       <c r="B259" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C259" t="n">
         <v>5.0</v>
@@ -6212,10 +6212,10 @@
         <v>5.0</v>
       </c>
       <c r="E259" t="n">
-        <v>0.5</v>
+        <v>0.49047619047619045</v>
       </c>
       <c r="F259" t="n">
-        <v>0.09736250577817718</v>
+        <v>0.09246588408040496</v>
       </c>
     </row>
     <row r="260">
@@ -6232,10 +6232,10 @@
         <v>5.0</v>
       </c>
       <c r="E260" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.2902597402597403</v>
       </c>
       <c r="F260" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.09819542649838088</v>
       </c>
     </row>
     <row r="261">
@@ -6252,10 +6252,10 @@
         <v>5.0</v>
       </c>
       <c r="E261" t="n">
-        <v>0.24545454545454545</v>
+        <v>0.25346320346320345</v>
       </c>
       <c r="F261" t="n">
-        <v>0.11010488703531818</v>
+        <v>0.08143343115284893</v>
       </c>
     </row>
     <row r="262">
@@ -6263,7 +6263,7 @@
         <v>267</v>
       </c>
       <c r="B262" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C262" t="n">
         <v>6.0</v>
@@ -6272,10 +6272,10 @@
         <v>5.0</v>
       </c>
       <c r="E262" t="n">
-        <v>0.2038961038961039</v>
+        <v>0.2170995670995671</v>
       </c>
       <c r="F262" t="n">
-        <v>0.09237350942138092</v>
+        <v>0.08478815428336689</v>
       </c>
     </row>
     <row r="263">
@@ -6283,7 +6283,7 @@
         <v>268</v>
       </c>
       <c r="B263" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C263" t="n">
         <v>6.0</v>
@@ -6292,10 +6292,10 @@
         <v>5.0</v>
       </c>
       <c r="E263" t="n">
-        <v>0.48636363636363633</v>
+        <v>0.47186147186147187</v>
       </c>
       <c r="F263" t="n">
-        <v>0.1064845606819927</v>
+        <v>0.07176665801332295</v>
       </c>
     </row>
     <row r="264">
@@ -6312,10 +6312,10 @@
         <v>5.0</v>
       </c>
       <c r="E264" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.2807359307359307</v>
       </c>
       <c r="F264" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.10317737814006067</v>
       </c>
     </row>
     <row r="265">
@@ -6332,10 +6332,10 @@
         <v>5.0</v>
       </c>
       <c r="E265" t="n">
-        <v>0.2636363636363636</v>
+        <v>0.23463203463203464</v>
       </c>
       <c r="F265" t="n">
-        <v>0.0904256598078871</v>
+        <v>0.1083414478102766</v>
       </c>
     </row>
     <row r="266">
@@ -6343,7 +6343,7 @@
         <v>271</v>
       </c>
       <c r="B266" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C266" t="n">
         <v>7.0</v>
@@ -6352,10 +6352,10 @@
         <v>5.0</v>
       </c>
       <c r="E266" t="n">
-        <v>0.2132034632034632</v>
+        <v>0.20779220779220778</v>
       </c>
       <c r="F266" t="n">
-        <v>0.09493288143535906</v>
+        <v>0.08514319933043117</v>
       </c>
     </row>
     <row r="267">
@@ -6363,7 +6363,7 @@
         <v>272</v>
       </c>
       <c r="B267" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C267" t="n">
         <v>7.0</v>
@@ -6372,10 +6372,10 @@
         <v>5.0</v>
       </c>
       <c r="E267" t="n">
-        <v>0.462987012987013</v>
+        <v>0.4627705627705628</v>
       </c>
       <c r="F267" t="n">
-        <v>0.11779457741609355</v>
+        <v>0.08616301661805627</v>
       </c>
     </row>
     <row r="268">
@@ -6392,10 +6392,10 @@
         <v>5.0</v>
       </c>
       <c r="E268" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.2852813852813853</v>
       </c>
       <c r="F268" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.11022113165352447</v>
       </c>
     </row>
     <row r="269">
@@ -6412,10 +6412,10 @@
         <v>5.0</v>
       </c>
       <c r="E269" t="n">
-        <v>0.25367965367965367</v>
+        <v>0.2300865800865801</v>
       </c>
       <c r="F269" t="n">
-        <v>0.11220577317526258</v>
+        <v>0.09601681072693295</v>
       </c>
     </row>
     <row r="270">
@@ -6423,7 +6423,7 @@
         <v>275</v>
       </c>
       <c r="B270" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C270" t="n">
         <v>8.0</v>
@@ -6432,10 +6432,10 @@
         <v>5.0</v>
       </c>
       <c r="E270" t="n">
-        <v>0.2132034632034632</v>
+        <v>0.20324675324675323</v>
       </c>
       <c r="F270" t="n">
-        <v>0.09493288143535906</v>
+        <v>0.08520095679288947</v>
       </c>
     </row>
     <row r="271">
@@ -6443,7 +6443,7 @@
         <v>276</v>
       </c>
       <c r="B271" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C271" t="n">
         <v>8.0</v>
@@ -6452,10 +6452,10 @@
         <v>5.0</v>
       </c>
       <c r="E271" t="n">
-        <v>0.4541125541125541</v>
+        <v>0.4627705627705628</v>
       </c>
       <c r="F271" t="n">
-        <v>0.11507789492743839</v>
+        <v>0.08616301661805628</v>
       </c>
     </row>
     <row r="272">
@@ -6472,10 +6472,10 @@
         <v>5.0</v>
       </c>
       <c r="E272" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.29004329004329005</v>
       </c>
       <c r="F272" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.10425123688537184</v>
       </c>
     </row>
     <row r="273">
@@ -6492,10 +6492,10 @@
         <v>5.0</v>
       </c>
       <c r="E273" t="n">
-        <v>0.24134199134199136</v>
+        <v>0.2577922077922078</v>
       </c>
       <c r="F273" t="n">
-        <v>0.09942190932358531</v>
+        <v>0.09103755324968327</v>
       </c>
     </row>
     <row r="274">
@@ -6503,7 +6503,7 @@
         <v>279</v>
       </c>
       <c r="B274" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C274" t="n">
         <v>9.0</v>
@@ -6512,10 +6512,10 @@
         <v>5.0</v>
       </c>
       <c r="E274" t="n">
-        <v>0.21774891774891775</v>
+        <v>0.20324675324675326</v>
       </c>
       <c r="F274" t="n">
-        <v>0.08935080781965954</v>
+        <v>0.07669284562528803</v>
       </c>
     </row>
     <row r="275">
@@ -6523,7 +6523,7 @@
         <v>280</v>
       </c>
       <c r="B275" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C275" t="n">
         <v>9.0</v>
@@ -6532,10 +6532,10 @@
         <v>5.0</v>
       </c>
       <c r="E275" t="n">
-        <v>0.4634199134199134</v>
+        <v>0.48095238095238096</v>
       </c>
       <c r="F275" t="n">
-        <v>0.11418167790816132</v>
+        <v>0.09001021518566418</v>
       </c>
     </row>
     <row r="276">
@@ -6552,10 +6552,10 @@
         <v>5.0</v>
       </c>
       <c r="E276" t="n">
-        <v>0.27813852813852813</v>
+        <v>0.29004329004329005</v>
       </c>
       <c r="F276" t="n">
-        <v>0.06955843233836702</v>
+        <v>0.10425123688537184</v>
       </c>
     </row>
     <row r="277">
@@ -6572,10 +6572,10 @@
         <v>5.0</v>
       </c>
       <c r="E277" t="n">
-        <v>0.26883116883116887</v>
+        <v>0.22575757575757577</v>
       </c>
       <c r="F277" t="n">
-        <v>0.10761637364107829</v>
+        <v>0.07297543781676631</v>
       </c>
     </row>
     <row r="278">
@@ -6583,7 +6583,7 @@
         <v>283</v>
       </c>
       <c r="B278" t="s">
-        <v>6</v>
+        <v>287</v>
       </c>
       <c r="C278" t="n">
         <v>10.0</v>
@@ -6592,10 +6592,10 @@
         <v>5.0</v>
       </c>
       <c r="E278" t="n">
-        <v>0.2225108225108225</v>
+        <v>0.2077922077922078</v>
       </c>
       <c r="F278" t="n">
-        <v>0.09179122618665676</v>
+        <v>0.08514319933043117</v>
       </c>
     </row>
     <row r="279">
@@ -6603,7 +6603,7 @@
         <v>284</v>
       </c>
       <c r="B279" t="s">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="C279" t="n">
         <v>10.0</v>
@@ -6612,10 +6612,10 @@
         <v>5.0</v>
       </c>
       <c r="E279" t="n">
-        <v>0.4543290043290043</v>
+        <v>0.48528138528138526</v>
       </c>
       <c r="F279" t="n">
-        <v>0.12782358140126016</v>
+        <v>0.09041414545593636</v>
       </c>
     </row>
     <row r="280">
@@ -6632,10 +6632,10 @@
         <v>5.0</v>
       </c>
       <c r="E280" t="n">
-        <v>0.2829004329004329</v>
+        <v>0.29956709956709954</v>
       </c>
       <c r="F280" t="n">
-        <v>0.06812777964978076</v>
+        <v>0.09306072821813513</v>
       </c>
     </row>
     <row r="281">
@@ -6652,10 +6652,10 @@
         <v>5.0</v>
       </c>
       <c r="E281" t="n">
-        <v>0.2686147186147186</v>
+        <v>0.24415584415584415</v>
       </c>
       <c r="F281" t="n">
-        <v>0.10021045051681858</v>
+        <v>0.0909537442728936</v>
       </c>
     </row>
   </sheetData>
